--- a/data/sample_switch_configs/PowerEdge-R/Solution-Workbook.xlsx
+++ b/data/sample_switch_configs/PowerEdge-R/Solution-Workbook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTK-Updates\Pulled-from-Jenkins-March20-2017\something_not_jetstream\data\sample_switch_configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetStream-10.0\April-25-2017\JetStream\data\sample_switch_configs\PowerEdge-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" tabRatio="888" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" tabRatio="888" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1937,7 +1937,7 @@
     <numFmt numFmtId="174" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="175" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="94" x14ac:knownFonts="1">
+  <fonts count="94">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6298,44 +6298,38 @@
     <xf numFmtId="0" fontId="0" fillId="100" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="91" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="91" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="26" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6376,45 +6370,48 @@
     <xf numFmtId="0" fontId="43" fillId="27" borderId="33" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="41" borderId="39" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6427,94 +6424,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="41" borderId="39" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6528,6 +6437,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="58" xfId="1629" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6545,6 +6458,126 @@
     <xf numFmtId="0" fontId="60" fillId="41" borderId="37" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6577,57 +6610,84 @@
     <xf numFmtId="0" fontId="49" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -6640,32 +6700,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6675,15 +6717,6 @@
     <xf numFmtId="0" fontId="36" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6696,39 +6729,6 @@
     <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="91" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="91" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1630">
     <cellStyle name=" 1" xfId="1"/>
@@ -8364,85 +8364,388 @@
   </cellStyles>
   <dxfs count="170">
     <dxf>
-      <font>
-        <b val="0"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </left>
         <right/>
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="0"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -8453,175 +8756,6 @@
     <dxf>
       <fill>
         <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -9010,389 +9144,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="mediumGray"/>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9920,6 +9679,36 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -10028,11 +9817,170 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="0"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -10255,6 +10203,58 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -10409,118 +10409,83 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>177742</xdr:colOff>
+      <xdr:colOff>164955</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>127042</xdr:rowOff>
+      <xdr:rowOff>114091</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="56323" name="Group 3"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56322" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10567930" cy="8834480"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="1660" cy="1381"/>
+          <a:ext cx="10600122" cy="8930008"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="56322" name="AutoShape 2"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="1658" cy="1379"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Picture 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId2">
-                    <a14:imgEffect>
-                      <a14:artisticTexturizer/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="1660" cy="1381"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>58419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>183895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84666" y="58419"/>
+          <a:ext cx="10780184" cy="8964676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12493,197 +12458,197 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E9" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:E9" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161">
   <autoFilter ref="B4:E9"/>
   <sortState ref="B2:E120">
     <sortCondition ref="B1:B120"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Dell Order#" dataDxfId="167"/>
-    <tableColumn id="2" name="SKU #" dataDxfId="166"/>
-    <tableColumn id="3" name="Description" dataDxfId="165"/>
-    <tableColumn id="4" name="Qty" dataDxfId="164"/>
+    <tableColumn id="1" name="Dell Order#" dataDxfId="160"/>
+    <tableColumn id="2" name="SKU #" dataDxfId="159"/>
+    <tableColumn id="3" name="Description" dataDxfId="158"/>
+    <tableColumn id="4" name="Qty" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table16" displayName="Table16" ref="AC3:AC27" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table16" displayName="Table16" ref="AC3:AC27" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="AC3:AC27"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Syslog Facility" dataDxfId="134"/>
+    <tableColumn id="1" name="Syslog Facility" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="144" name="Table144" displayName="Table144" ref="G3:G9" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="144" name="Table144" displayName="Table144" ref="G3:G9" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="G3:G9"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Login Methods" dataDxfId="131"/>
+    <tableColumn id="1" name="Login Methods" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="176" name="Table144177" displayName="Table144177" ref="I3:I8" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="176" name="Table144177" displayName="Table144177" ref="I3:I8" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="I3:I8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Enable Methods" dataDxfId="128"/>
+    <tableColumn id="1" name="Enable Methods" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="177" name="Table144177178" displayName="Table144177178" ref="K3:K8" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="177" name="Table144177178" displayName="Table144177178" ref="K3:K8" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="K3:K8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Exec Methods" dataDxfId="125"/>
+    <tableColumn id="1" name="Exec Methods" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="178" name="Table144177178179" displayName="Table144177178179" ref="M3:M6" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="178" name="Table144177178179" displayName="Table144177178179" ref="M3:M6" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="M3:M6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Commands Methods" dataDxfId="122"/>
+    <tableColumn id="1" name="Commands Methods" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="179" name="Table144177178179180" displayName="Table144177178179180" ref="O3:O5" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="179" name="Table144177178179180" displayName="Table144177178179180" ref="O3:O5" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="O3:O5"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Config-Commands" dataDxfId="119"/>
+    <tableColumn id="1" name="Config-Commands" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="188" name="Table144177178179180189" displayName="Table144177178179180189" ref="Q3:Q4" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="188" name="Table144177178179180189" displayName="Table144177178179180189" ref="Q3:Q4" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="Q3:Q4"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Accounting" dataDxfId="116"/>
+    <tableColumn id="1" name="Accounting" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table222144" displayName="Table222144" ref="E4:P57" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table222144" displayName="Table222144" ref="E4:P57" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="E4:P57"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Name" dataDxfId="113"/>
-    <tableColumn id="5" name="Connector" dataDxfId="112"/>
-    <tableColumn id="2" name="Device Name" dataDxfId="111"/>
-    <tableColumn id="3" name="Port" dataDxfId="110"/>
-    <tableColumn id="4" name="Untagged" dataDxfId="109"/>
-    <tableColumn id="8" name="Tagged" dataDxfId="108"/>
-    <tableColumn id="11" name="Port State" dataDxfId="107"/>
-    <tableColumn id="10" name="STP Port Type" dataDxfId="106"/>
-    <tableColumn id="9" name="MTU" dataDxfId="105"/>
-    <tableColumn id="12" name="Flowcontrol" dataDxfId="104"/>
-    <tableColumn id="6" name="#" dataDxfId="103"/>
-    <tableColumn id="7" name="Mode" dataDxfId="102"/>
+    <tableColumn id="1" name="Name" dataDxfId="82"/>
+    <tableColumn id="5" name="Connector" dataDxfId="81"/>
+    <tableColumn id="2" name="Device Name" dataDxfId="80"/>
+    <tableColumn id="3" name="Port" dataDxfId="79"/>
+    <tableColumn id="4" name="Untagged" dataDxfId="78"/>
+    <tableColumn id="8" name="Tagged" dataDxfId="77"/>
+    <tableColumn id="11" name="Port State" dataDxfId="76"/>
+    <tableColumn id="10" name="STP Port Type" dataDxfId="75"/>
+    <tableColumn id="9" name="MTU" dataDxfId="74"/>
+    <tableColumn id="12" name="Flowcontrol" dataDxfId="73"/>
+    <tableColumn id="6" name="#" dataDxfId="72"/>
+    <tableColumn id="7" name="Mode" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table29521013" displayName="Table29521013" ref="A15:C23" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table29521013" displayName="Table29521013" ref="A15:C23" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A15:C23"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Interface" dataDxfId="99"/>
-    <tableColumn id="2" name="IP /Netmask" dataDxfId="98"/>
-    <tableColumn id="3" name="Required?" dataDxfId="97"/>
+    <tableColumn id="1" name="Interface" dataDxfId="68"/>
+    <tableColumn id="2" name="IP /Netmask" dataDxfId="67"/>
+    <tableColumn id="3" name="Required?" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table30531114" displayName="Table30531114" ref="A26:C29" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table30531114" displayName="Table30531114" ref="A26:C29" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
   <autoFilter ref="A26:C29"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Destination" dataDxfId="93"/>
-    <tableColumn id="2" name="Next Hop" dataDxfId="92"/>
-    <tableColumn id="3" name="Required?" dataDxfId="91"/>
+    <tableColumn id="1" name="Destination" dataDxfId="62"/>
+    <tableColumn id="2" name="Next Hop" dataDxfId="61"/>
+    <tableColumn id="3" name="Required?" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G4:G7" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G4:G7" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="G4:G7"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Legend" dataDxfId="161"/>
+    <tableColumn id="1" name="Legend" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table37591215" displayName="Table37591215" ref="A4:C13" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table37591215" displayName="Table37591215" ref="A4:C13" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="A4:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="ID" dataDxfId="87"/>
-    <tableColumn id="2" name="Description" dataDxfId="86"/>
-    <tableColumn id="3" name="Required?" dataDxfId="85"/>
+    <tableColumn id="1" name="ID" dataDxfId="56"/>
+    <tableColumn id="2" name="Description" dataDxfId="55"/>
+    <tableColumn id="3" name="Required?" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table22213210" displayName="Table22213210" ref="E3:Q58" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table22213210" displayName="Table22213210" ref="E3:Q58" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="E3:Q58"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Name" dataDxfId="82"/>
-    <tableColumn id="5" name="Connector" dataDxfId="81"/>
-    <tableColumn id="2" name="Device Name" dataDxfId="80"/>
-    <tableColumn id="3" name="Port" dataDxfId="79"/>
-    <tableColumn id="4" name="Untagged" dataDxfId="78"/>
-    <tableColumn id="8" name="Tagged" dataDxfId="77"/>
+    <tableColumn id="1" name="Name" dataDxfId="49"/>
+    <tableColumn id="5" name="Connector" dataDxfId="48"/>
+    <tableColumn id="2" name="Device Name" dataDxfId="47"/>
+    <tableColumn id="3" name="Port" dataDxfId="46"/>
+    <tableColumn id="4" name="Untagged" dataDxfId="45"/>
+    <tableColumn id="8" name="Tagged" dataDxfId="44"/>
     <tableColumn id="9" name="Bond#"/>
     <tableColumn id="12" name="Port State"/>
     <tableColumn id="11" name="STP Port Type"/>
     <tableColumn id="13" name="MTU"/>
     <tableColumn id="10" name="Flow Control"/>
-    <tableColumn id="6" name="#" dataDxfId="76"/>
-    <tableColumn id="7" name="Mode" dataDxfId="75"/>
+    <tableColumn id="6" name="#" dataDxfId="43"/>
+    <tableColumn id="7" name="Mode" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table305311121820" displayName="Table305311121820" ref="A29:B32" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table305311121820" displayName="Table305311121820" ref="A29:B32" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
   <autoFilter ref="A29:B32"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Destination" dataDxfId="71"/>
-    <tableColumn id="2" name="Next Hop" dataDxfId="70"/>
+    <tableColumn id="1" name="Destination" dataDxfId="38"/>
+    <tableColumn id="2" name="Next Hop" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table2952101316171921" displayName="Table2952101316171921" ref="A16:B24" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table2952101316171921" displayName="Table2952101316171921" ref="A16:B24" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A16:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Interface" dataDxfId="67"/>
-    <tableColumn id="2" name="IP /Netmask" dataDxfId="66">
+    <tableColumn id="1" name="Interface" dataDxfId="34"/>
+    <tableColumn id="2" name="IP /Netmask" dataDxfId="33">
       <calculatedColumnFormula>S4048_1_OOB_IP</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12692,56 +12657,56 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table3759121511" displayName="Table3759121511" ref="A4:C13" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table3759121511" displayName="Table3759121511" ref="A4:C13" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A4:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="ID" dataDxfId="62"/>
-    <tableColumn id="2" name="Description" dataDxfId="61"/>
-    <tableColumn id="3" name="Required?" dataDxfId="60"/>
+    <tableColumn id="1" name="ID" dataDxfId="29"/>
+    <tableColumn id="2" name="Description" dataDxfId="28"/>
+    <tableColumn id="3" name="Required?" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table222132" displayName="Table222132" ref="E4:Q59" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table222132" displayName="Table222132" ref="E4:Q59" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="E4:Q59"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Name" dataDxfId="57"/>
-    <tableColumn id="5" name="Connector" dataDxfId="56"/>
-    <tableColumn id="2" name="Device Name" dataDxfId="55"/>
-    <tableColumn id="3" name="Port " dataDxfId="54"/>
-    <tableColumn id="4" name="Untagged" dataDxfId="53"/>
-    <tableColumn id="8" name="Tagged" dataDxfId="52"/>
+    <tableColumn id="1" name="Name" dataDxfId="22"/>
+    <tableColumn id="5" name="Connector" dataDxfId="21"/>
+    <tableColumn id="2" name="Device Name" dataDxfId="20"/>
+    <tableColumn id="3" name="Port " dataDxfId="19"/>
+    <tableColumn id="4" name="Untagged" dataDxfId="18"/>
+    <tableColumn id="8" name="Tagged" dataDxfId="17"/>
     <tableColumn id="9" name="Bond#"/>
     <tableColumn id="12" name="Port State"/>
     <tableColumn id="11" name="STP Port Type"/>
     <tableColumn id="13" name="MTU"/>
     <tableColumn id="10" name="Flow Control"/>
-    <tableColumn id="6" name="#" dataDxfId="51"/>
-    <tableColumn id="7" name="Mode" dataDxfId="50"/>
+    <tableColumn id="6" name="#" dataDxfId="16"/>
+    <tableColumn id="7" name="Mode" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table3053111218" displayName="Table3053111218" ref="A39:B42" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table3053111218" displayName="Table3053111218" ref="A39:B42" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A39:B42"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Destination" dataDxfId="46"/>
-    <tableColumn id="2" name="Next Hop" dataDxfId="45"/>
+    <tableColumn id="1" name="Destination" dataDxfId="11"/>
+    <tableColumn id="2" name="Next Hop" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table29521013161719" displayName="Table29521013161719" ref="A15:B23" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table29521013161719" displayName="Table29521013161719" ref="A15:B23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A15:B23"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Interface" dataDxfId="42"/>
-    <tableColumn id="2" name="IP /Netmask" dataDxfId="41">
+    <tableColumn id="1" name="Interface" dataDxfId="7"/>
+    <tableColumn id="2" name="IP /Netmask" dataDxfId="6">
       <calculatedColumnFormula>S4048_2_OOB_IP</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12750,89 +12715,89 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table3759121512" displayName="Table3759121512" ref="A4:C13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table3759121512" displayName="Table3759121512" ref="A4:C13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A4:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="ID" dataDxfId="37"/>
-    <tableColumn id="2" name="Description" dataDxfId="36"/>
-    <tableColumn id="3" name="Required?" dataDxfId="35"/>
+    <tableColumn id="1" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" name="Required?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table2125" displayName="Table2125" ref="S20:W30" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table2125" displayName="Table2125" ref="S20:W30" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152">
   <autoFilter ref="S20:W30"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Network" dataDxfId="158"/>
-    <tableColumn id="2" name="SAH" dataDxfId="157"/>
-    <tableColumn id="3" name="OpenStack Controller" dataDxfId="156"/>
-    <tableColumn id="4" name="OpenStack Compute" dataDxfId="155"/>
-    <tableColumn id="5" name="Red Hat Ceph Storage" dataDxfId="154"/>
+    <tableColumn id="1" name="Network" dataDxfId="151"/>
+    <tableColumn id="2" name="SAH" dataDxfId="150"/>
+    <tableColumn id="3" name="OpenStack Controller" dataDxfId="149"/>
+    <tableColumn id="4" name="OpenStack Compute" dataDxfId="148"/>
+    <tableColumn id="5" name="Red Hat Ceph Storage" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table3710" displayName="Table3710" ref="S4:V13" totalsRowShown="0" headerRowDxfId="153" dataDxfId="0" tableBorderDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table3710" displayName="Table3710" ref="S4:V13" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" tableBorderDxfId="144">
   <autoFilter ref="S4:V13"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="VLAN ID" dataDxfId="4"/>
-    <tableColumn id="2" name="VLAN Description" dataDxfId="3"/>
-    <tableColumn id="3" name="Network " dataDxfId="2"/>
-    <tableColumn id="4" name="gateway Information " dataDxfId="1"/>
+    <tableColumn id="1" name="VLAN ID" dataDxfId="143"/>
+    <tableColumn id="2" name="VLAN Description" dataDxfId="142"/>
+    <tableColumn id="3" name="Network " dataDxfId="141"/>
+    <tableColumn id="4" name="gateway Information " dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table6" displayName="Table6" ref="S3:S9" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table6" displayName="Table6" ref="S3:S9" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <autoFilter ref="S3:S9"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Spanning-Tree Protocols" dataDxfId="149"/>
+    <tableColumn id="1" name="Spanning-Tree Protocols" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table8" displayName="Table8" ref="U3:U20" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table8" displayName="Table8" ref="U3:U20" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="U3:U20"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="STP Priorities" dataDxfId="146"/>
+    <tableColumn id="1" name="STP Priorities" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table610" displayName="Table610" ref="W3:W8" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table610" displayName="Table610" ref="W3:W8" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="W3:W8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Timezone" dataDxfId="143"/>
+    <tableColumn id="1" name="Timezone" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table61013" displayName="Table61013" ref="Y3:Y6" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table61013" displayName="Table61013" ref="Y3:Y6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="Y3:Y6"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="SNMP Version" dataDxfId="140"/>
+    <tableColumn id="1" name="SNMP Version" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table15" displayName="Table15" ref="AA3:AA5" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table15" displayName="Table15" ref="AA3:AA5" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="AA3:AA5"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="SNMP Permission" dataDxfId="137"/>
+    <tableColumn id="1" name="SNMP Permission" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13132,9 +13097,9 @@
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13149,7 +13114,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="19">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -13166,7 +13131,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" s="4"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -13181,7 +13146,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="18">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>138</v>
@@ -13198,7 +13163,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -13213,7 +13178,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -13228,24 +13193,24 @@
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="202"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="200"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>2</v>
@@ -13262,7 +13227,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>3</v>
@@ -13279,7 +13244,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13">
       <c r="A10" s="4"/>
       <c r="B10" s="10" t="s">
         <v>4</v>
@@ -13296,7 +13261,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="A11" s="4"/>
       <c r="B11" s="10" t="s">
         <v>5</v>
@@ -13313,7 +13278,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="A12" s="4"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -13328,24 +13293,24 @@
       <c r="L12" s="15"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="203" t="s">
+      <c r="B13" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="205"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="203"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -13362,7 +13327,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
         <v>8</v>
@@ -13379,7 +13344,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -13396,7 +13361,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="10" t="s">
         <v>10</v>
@@ -13413,7 +13378,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="4"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
@@ -13428,24 +13393,24 @@
       <c r="L18" s="18"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="207"/>
-      <c r="L19" s="208"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="206"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="10" t="s">
         <v>12</v>
@@ -13462,7 +13427,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="10" t="s">
         <v>13</v>
@@ -13479,7 +13444,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1">
       <c r="A22" s="4"/>
       <c r="B22" s="19" t="s">
         <v>14</v>
@@ -13496,7 +13461,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -13511,24 +13476,24 @@
       <c r="L23" s="23"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="210"/>
-      <c r="L24" s="211"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="209"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="10" t="s">
         <v>16</v>
@@ -13545,7 +13510,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13">
       <c r="A26" s="4"/>
       <c r="B26" s="24" t="s">
         <v>17</v>
@@ -13562,7 +13527,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="10" t="s">
         <v>18</v>
@@ -13579,7 +13544,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="24" t="s">
         <v>19</v>
@@ -13596,7 +13561,7 @@
       <c r="L28" s="26"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -13613,7 +13578,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="24" t="s">
         <v>21</v>
@@ -13630,7 +13595,7 @@
       <c r="L30" s="26"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="A31" s="4"/>
       <c r="B31" s="10" t="s">
         <v>22</v>
@@ -13647,7 +13612,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="15" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="19" t="s">
         <v>23</v>
@@ -13664,7 +13629,7 @@
       <c r="L32" s="28"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="15" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -13679,115 +13644,115 @@
       <c r="L33" s="29"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="15" thickBot="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="212" t="s">
+      <c r="B34" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="213"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="214"/>
+      <c r="C34" s="211"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="211"/>
+      <c r="K34" s="211"/>
+      <c r="L34" s="212"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="15" thickBot="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="193" t="s">
+      <c r="C35" s="214"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="194"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="193" t="s">
+      <c r="F35" s="214"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="194"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="193" t="s">
+      <c r="I35" s="214"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="195"/>
+      <c r="L35" s="215"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="196">
+      <c r="B36" s="216">
         <v>1</v>
       </c>
-      <c r="C36" s="197"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="197"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="197"/>
-      <c r="L36" s="199"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="217"/>
+      <c r="K36" s="217"/>
+      <c r="L36" s="219"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="190">
+      <c r="B37" s="223">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="191"/>
-      <c r="K37" s="191"/>
-      <c r="L37" s="192"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="225"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="190">
+      <c r="B38" s="223">
         <v>1.2</v>
       </c>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="191"/>
-      <c r="L38" s="192"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="224"/>
+      <c r="G38" s="224"/>
+      <c r="H38" s="224"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="224"/>
+      <c r="L38" s="225"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="15" thickBot="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="187">
+      <c r="B39" s="220">
         <v>1.3</v>
       </c>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="189"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
+      <c r="E39" s="221"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="221"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="221"/>
+      <c r="K39" s="221"/>
+      <c r="L39" s="222"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -13804,19 +13769,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:J39"/>
@@ -13829,6 +13781,19 @@
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B34:L34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13843,12 +13808,12 @@
   </sheetPr>
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.1796875" style="137" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.54296875" style="137" bestFit="1" customWidth="1"/>
@@ -13870,30 +13835,30 @@
     <col min="25" max="25" width="9.26953125" style="137"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25">
       <c r="A1" s="39"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="280" t="s">
+      <c r="E2" s="303" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="303"/>
+      <c r="K2" s="303"/>
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
+      <c r="Q2" s="303"/>
       <c r="S2" s="125"/>
       <c r="T2" s="125"/>
       <c r="U2" s="125"/>
@@ -13902,48 +13867,48 @@
       <c r="X2" s="125"/>
       <c r="Y2" s="125"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="270" t="s">
+    <row r="3" spans="1:25">
+      <c r="A3" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="271"/>
+      <c r="B3" s="282"/>
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="286" t="s">
+      <c r="E3" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283" t="s">
+      <c r="F3" s="305"/>
+      <c r="G3" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283" t="s">
+      <c r="H3" s="305"/>
+      <c r="I3" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="283"/>
+      <c r="J3" s="305"/>
       <c r="K3" s="151"/>
-      <c r="L3" s="287" t="s">
+      <c r="L3" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="M3" s="288"/>
-      <c r="N3" s="288"/>
-      <c r="O3" s="289"/>
-      <c r="P3" s="283" t="s">
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="284"/>
-      <c r="S3" s="316" t="s">
+      <c r="Q3" s="306"/>
+      <c r="S3" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="317"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="313"/>
-      <c r="W3" s="313"/>
-      <c r="X3" s="314"/>
+      <c r="T3" s="331"/>
+      <c r="U3" s="318"/>
+      <c r="V3" s="319"/>
+      <c r="W3" s="319"/>
+      <c r="X3" s="320"/>
       <c r="Y3" s="146"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25">
       <c r="A4" s="39" t="s">
         <v>69</v>
       </c>
@@ -13992,17 +13957,17 @@
       <c r="Q4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="318" t="s">
+      <c r="S4" s="332" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="319"/>
-      <c r="U4" s="312"/>
-      <c r="V4" s="313"/>
-      <c r="W4" s="313"/>
-      <c r="X4" s="314"/>
+      <c r="T4" s="333"/>
+      <c r="U4" s="318"/>
+      <c r="V4" s="319"/>
+      <c r="W4" s="319"/>
+      <c r="X4" s="320"/>
       <c r="Y4" s="146"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25">
       <c r="A5" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -14054,17 +14019,17 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="316" t="s">
+      <c r="S5" s="330" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="317"/>
-      <c r="U5" s="312"/>
-      <c r="V5" s="313"/>
-      <c r="W5" s="313"/>
-      <c r="X5" s="314"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="318"/>
+      <c r="V5" s="319"/>
+      <c r="W5" s="319"/>
+      <c r="X5" s="320"/>
       <c r="Y5" s="146"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25">
       <c r="A6" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -14116,20 +14081,20 @@
       <c r="Q6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="318" t="s">
+      <c r="S6" s="332" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="319"/>
-      <c r="U6" s="312" t="str">
+      <c r="T6" s="333"/>
+      <c r="U6" s="318" t="str">
         <f>S4048_2_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="V6" s="313"/>
-      <c r="W6" s="313"/>
-      <c r="X6" s="314"/>
+      <c r="V6" s="319"/>
+      <c r="W6" s="319"/>
+      <c r="X6" s="320"/>
       <c r="Y6" s="146"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25">
       <c r="A7" s="39">
         <f>TenTunnel</f>
         <v>130</v>
@@ -14182,7 +14147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25">
       <c r="A8" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -14234,19 +14199,19 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="309" t="s">
+      <c r="S8" s="315" t="s">
         <v>167</v>
       </c>
-      <c r="T8" s="310"/>
-      <c r="U8" s="311"/>
-      <c r="V8" s="320" t="s">
+      <c r="T8" s="316"/>
+      <c r="U8" s="317"/>
+      <c r="V8" s="327" t="s">
         <v>287</v>
       </c>
-      <c r="W8" s="321"/>
-      <c r="X8" s="322"/>
+      <c r="W8" s="328"/>
+      <c r="X8" s="329"/>
       <c r="Y8" s="139"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25">
       <c r="A9" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -14298,17 +14263,17 @@
       <c r="Q9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="323" t="s">
+      <c r="S9" s="334" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="324"/>
-      <c r="U9" s="325"/>
-      <c r="V9" s="312"/>
-      <c r="W9" s="313"/>
-      <c r="X9" s="314"/>
+      <c r="T9" s="335"/>
+      <c r="U9" s="336"/>
+      <c r="V9" s="318"/>
+      <c r="W9" s="319"/>
+      <c r="X9" s="320"/>
       <c r="Y9" s="146"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25">
       <c r="A10" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -14360,19 +14325,19 @@
       <c r="Q10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="326" t="s">
+      <c r="S10" s="337" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="327"/>
-      <c r="U10" s="328"/>
-      <c r="V10" s="312">
+      <c r="T10" s="338"/>
+      <c r="U10" s="339"/>
+      <c r="V10" s="318">
         <v>20480</v>
       </c>
-      <c r="W10" s="313"/>
-      <c r="X10" s="314"/>
+      <c r="W10" s="319"/>
+      <c r="X10" s="320"/>
       <c r="Y10" s="146"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25">
       <c r="A11" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -14425,7 +14390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25">
       <c r="A12" s="39">
         <f>EXTTen</f>
         <v>191</v>
@@ -14458,17 +14423,17 @@
       <c r="O12" s="130"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="61"/>
-      <c r="S12" s="309" t="s">
+      <c r="S12" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="310"/>
-      <c r="U12" s="311"/>
-      <c r="V12" s="312"/>
-      <c r="W12" s="313"/>
-      <c r="X12" s="314"/>
+      <c r="T12" s="316"/>
+      <c r="U12" s="317"/>
+      <c r="V12" s="318"/>
+      <c r="W12" s="319"/>
+      <c r="X12" s="320"/>
       <c r="Y12" s="146"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25">
       <c r="A13" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -14500,24 +14465,24 @@
       <c r="O13" s="130"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="61"/>
-      <c r="S13" s="306" t="s">
+      <c r="S13" s="321" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="307"/>
-      <c r="U13" s="308"/>
-      <c r="V13" s="320">
+      <c r="T13" s="322"/>
+      <c r="U13" s="323"/>
+      <c r="V13" s="327">
         <f>VLTDOMAIN</f>
         <v>1</v>
       </c>
-      <c r="W13" s="321"/>
-      <c r="X13" s="322"/>
+      <c r="W13" s="328"/>
+      <c r="X13" s="329"/>
       <c r="Y13" s="139"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="286" t="s">
+    <row r="14" spans="1:25">
+      <c r="A14" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="284"/>
+      <c r="B14" s="306"/>
       <c r="E14" s="36" t="s">
         <v>237</v>
       </c>
@@ -14539,19 +14504,19 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="S14" s="306" t="s">
+      <c r="S14" s="321" t="s">
         <v>166</v>
       </c>
-      <c r="T14" s="307"/>
-      <c r="U14" s="308"/>
-      <c r="V14" s="312">
+      <c r="T14" s="322"/>
+      <c r="U14" s="323"/>
+      <c r="V14" s="318">
         <v>2</v>
       </c>
-      <c r="W14" s="313"/>
-      <c r="X14" s="314"/>
+      <c r="W14" s="319"/>
+      <c r="X14" s="320"/>
       <c r="Y14" s="146"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25">
       <c r="A15" s="39" t="s">
         <v>36</v>
       </c>
@@ -14579,19 +14544,19 @@
       <c r="O15" s="130"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="61"/>
-      <c r="S15" s="309" t="s">
+      <c r="S15" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="T15" s="310"/>
-      <c r="U15" s="311"/>
-      <c r="V15" s="312">
+      <c r="T15" s="316"/>
+      <c r="U15" s="317"/>
+      <c r="V15" s="318">
         <v>1</v>
       </c>
-      <c r="W15" s="313"/>
-      <c r="X15" s="314"/>
+      <c r="W15" s="319"/>
+      <c r="X15" s="320"/>
       <c r="Y15" s="146"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25">
       <c r="A16" s="39" t="s">
         <v>370</v>
       </c>
@@ -14640,7 +14605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25">
       <c r="A17" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -14686,17 +14651,17 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="290" t="s">
+      <c r="S17" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="291"/>
-      <c r="U17" s="291"/>
-      <c r="V17" s="291"/>
-      <c r="W17" s="291"/>
-      <c r="X17" s="292"/>
+      <c r="T17" s="312"/>
+      <c r="U17" s="312"/>
+      <c r="V17" s="312"/>
+      <c r="W17" s="312"/>
+      <c r="X17" s="313"/>
       <c r="Y17" s="140"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25">
       <c r="A18" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -14742,15 +14707,15 @@
       <c r="Q18" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="297"/>
-      <c r="T18" s="298"/>
-      <c r="U18" s="298"/>
-      <c r="V18" s="298"/>
-      <c r="W18" s="298"/>
-      <c r="X18" s="299"/>
+      <c r="S18" s="290"/>
+      <c r="T18" s="291"/>
+      <c r="U18" s="291"/>
+      <c r="V18" s="291"/>
+      <c r="W18" s="291"/>
+      <c r="X18" s="292"/>
       <c r="Y18" s="141"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25">
       <c r="A19" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -14779,15 +14744,15 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="300"/>
-      <c r="T19" s="301"/>
-      <c r="U19" s="301"/>
-      <c r="V19" s="301"/>
-      <c r="W19" s="301"/>
-      <c r="X19" s="302"/>
+      <c r="S19" s="293"/>
+      <c r="T19" s="294"/>
+      <c r="U19" s="294"/>
+      <c r="V19" s="294"/>
+      <c r="W19" s="294"/>
+      <c r="X19" s="295"/>
       <c r="Y19" s="141"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25">
       <c r="A20" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -14816,15 +14781,15 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="297"/>
-      <c r="T20" s="298"/>
-      <c r="U20" s="298"/>
-      <c r="V20" s="298"/>
-      <c r="W20" s="298"/>
-      <c r="X20" s="299"/>
+      <c r="S20" s="290"/>
+      <c r="T20" s="291"/>
+      <c r="U20" s="291"/>
+      <c r="V20" s="291"/>
+      <c r="W20" s="291"/>
+      <c r="X20" s="292"/>
       <c r="Y20" s="141"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25">
       <c r="A21" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -14851,15 +14816,15 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="300"/>
-      <c r="T21" s="301"/>
-      <c r="U21" s="301"/>
-      <c r="V21" s="301"/>
-      <c r="W21" s="301"/>
-      <c r="X21" s="302"/>
+      <c r="S21" s="293"/>
+      <c r="T21" s="294"/>
+      <c r="U21" s="294"/>
+      <c r="V21" s="294"/>
+      <c r="W21" s="294"/>
+      <c r="X21" s="295"/>
       <c r="Y21" s="141"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25">
       <c r="A22" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -14887,7 +14852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25">
       <c r="A23" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -14915,7 +14880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="31.5" customHeight="1">
       <c r="A24"/>
       <c r="B24"/>
       <c r="E24" s="36" t="s">
@@ -14940,7 +14905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="E25" s="36" t="s">
         <v>248</v>
       </c>
@@ -14970,7 +14935,7 @@
       <c r="X25" s="124"/>
       <c r="Y25" s="124"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25">
       <c r="E26" s="36" t="s">
         <v>249</v>
       </c>
@@ -15000,7 +14965,7 @@
       <c r="X26" s="124"/>
       <c r="Y26" s="124"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25">
       <c r="E27" s="36" t="s">
         <v>250</v>
       </c>
@@ -15030,7 +14995,7 @@
       <c r="X27" s="124"/>
       <c r="Y27" s="124"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25">
       <c r="E28" s="36" t="s">
         <v>251</v>
       </c>
@@ -15060,7 +15025,7 @@
       <c r="X28" s="124"/>
       <c r="Y28" s="124"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25">
       <c r="C29" s="124"/>
       <c r="E29" s="36" t="s">
         <v>252</v>
@@ -15110,7 +15075,7 @@
       <c r="X29" s="124"/>
       <c r="Y29" s="124"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25">
       <c r="E30" s="36" t="s">
         <v>253</v>
       </c>
@@ -15159,7 +15124,7 @@
       <c r="X30" s="124"/>
       <c r="Y30" s="124"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25">
       <c r="E31" s="36" t="s">
         <v>254</v>
       </c>
@@ -15201,10 +15166,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="279"/>
-      <c r="B32" s="279"/>
-      <c r="C32" s="279"/>
+    <row r="32" spans="1:25">
+      <c r="A32" s="302"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="302"/>
       <c r="E32" s="36" t="s">
         <v>255</v>
       </c>
@@ -15246,10 +15211,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="279"/>
-      <c r="B33" s="279"/>
-      <c r="C33" s="279"/>
+    <row r="33" spans="1:17">
+      <c r="A33" s="302"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
       <c r="E33" s="36" t="s">
         <v>256</v>
       </c>
@@ -15291,10 +15256,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="279"/>
-      <c r="B34" s="279"/>
-      <c r="C34" s="279"/>
+    <row r="34" spans="1:17">
+      <c r="A34" s="302"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="302"/>
       <c r="E34" s="36" t="s">
         <v>257</v>
       </c>
@@ -15336,7 +15301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17">
       <c r="E35" s="36" t="s">
         <v>258</v>
       </c>
@@ -15378,11 +15343,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="315" t="s">
+    <row r="36" spans="1:17">
+      <c r="A36" s="314" t="s">
         <v>399</v>
       </c>
-      <c r="B36" s="315"/>
+      <c r="B36" s="314"/>
       <c r="E36" s="36" t="s">
         <v>259</v>
       </c>
@@ -15405,9 +15370,9 @@
       <c r="P36" s="48"/>
       <c r="Q36" s="61"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="315"/>
-      <c r="B37" s="315"/>
+    <row r="37" spans="1:17">
+      <c r="A37" s="314"/>
+      <c r="B37" s="314"/>
       <c r="E37" s="36" t="s">
         <v>260</v>
       </c>
@@ -15430,11 +15395,11 @@
       <c r="P37" s="48"/>
       <c r="Q37" s="61"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="270" t="s">
+    <row r="38" spans="1:17">
+      <c r="A38" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="271"/>
+      <c r="B38" s="282"/>
       <c r="E38" s="36" t="s">
         <v>261</v>
       </c>
@@ -15457,7 +15422,7 @@
       <c r="P38" s="48"/>
       <c r="Q38" s="61"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17">
       <c r="A39" s="39" t="s">
         <v>49</v>
       </c>
@@ -15486,7 +15451,7 @@
       <c r="P39" s="48"/>
       <c r="Q39" s="61"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17">
       <c r="A40" s="39" t="s">
         <v>66</v>
       </c>
@@ -15532,7 +15497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="E41" s="36" t="s">
@@ -15576,7 +15541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="E42" s="36" t="s">
@@ -15620,7 +15585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17">
       <c r="E43" s="36" t="s">
         <v>266</v>
       </c>
@@ -15643,7 +15608,7 @@
       <c r="P43" s="48"/>
       <c r="Q43" s="61"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17">
       <c r="E44" s="36" t="s">
         <v>267</v>
       </c>
@@ -15666,7 +15631,7 @@
       <c r="P44" s="48"/>
       <c r="Q44" s="61"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17">
       <c r="E45" s="36" t="s">
         <v>268</v>
       </c>
@@ -15707,7 +15672,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17">
       <c r="E46" s="36" t="s">
         <v>269</v>
       </c>
@@ -15748,7 +15713,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="E47" s="36" t="s">
         <v>270</v>
       </c>
@@ -15771,7 +15736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="E48" s="36" t="s">
         <v>271</v>
       </c>
@@ -15794,7 +15759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25">
       <c r="C49" s="124"/>
       <c r="E49" s="36" t="s">
         <v>272</v>
@@ -15818,7 +15783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25">
       <c r="C50" s="124"/>
       <c r="E50" s="36" t="s">
         <v>273</v>
@@ -15849,7 +15814,7 @@
       <c r="X50" s="124"/>
       <c r="Y50" s="124"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25">
       <c r="A51" s="124"/>
       <c r="B51" s="124"/>
       <c r="C51" s="124"/>
@@ -15897,7 +15862,7 @@
       <c r="X51" s="124"/>
       <c r="Y51" s="124"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25">
       <c r="A52" s="124"/>
       <c r="B52" s="124"/>
       <c r="C52" s="124"/>
@@ -15945,7 +15910,7 @@
       <c r="X52" s="124"/>
       <c r="Y52" s="124"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25">
       <c r="A53" s="124"/>
       <c r="B53" s="124"/>
       <c r="C53" s="124"/>
@@ -15992,7 +15957,7 @@
       <c r="X53" s="124"/>
       <c r="Y53" s="124"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25">
       <c r="A54" s="124"/>
       <c r="B54" s="124"/>
       <c r="C54" s="124"/>
@@ -16039,7 +16004,7 @@
       <c r="X54" s="124"/>
       <c r="Y54" s="124"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25">
       <c r="A55" s="124"/>
       <c r="B55" s="124"/>
       <c r="C55" s="124"/>
@@ -16087,7 +16052,7 @@
       <c r="X55" s="124"/>
       <c r="Y55" s="124"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25">
       <c r="A56" s="124"/>
       <c r="B56" s="124"/>
       <c r="C56" s="124"/>
@@ -16118,7 +16083,7 @@
       <c r="X56" s="124"/>
       <c r="Y56" s="124"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25">
       <c r="A57" s="124"/>
       <c r="B57" s="124"/>
       <c r="E57" s="54" t="s">
@@ -16148,7 +16113,7 @@
       <c r="X57" s="124"/>
       <c r="Y57" s="124"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25">
       <c r="A58" s="124"/>
       <c r="B58" s="124"/>
       <c r="E58" s="54" t="s">
@@ -16167,7 +16132,7 @@
       <c r="P58" s="127"/>
       <c r="Q58" s="127"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25">
       <c r="E59" s="54" t="s">
         <v>370</v>
       </c>
@@ -16196,171 +16161,193 @@
       <c r="P59" s="128"/>
       <c r="Q59" s="128"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7">
       <c r="D66" s="148"/>
       <c r="E66" s="148"/>
       <c r="F66" s="148"/>
       <c r="G66" s="148"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7">
       <c r="C67" s="148"/>
       <c r="D67" s="148"/>
       <c r="E67" s="148"/>
       <c r="F67" s="148"/>
       <c r="G67" s="148"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:7">
       <c r="C68" s="148"/>
       <c r="D68" s="148"/>
       <c r="E68" s="148"/>
       <c r="F68" s="148"/>
       <c r="G68" s="148"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:7">
       <c r="C69" s="148"/>
       <c r="D69" s="148"/>
       <c r="E69" s="148"/>
       <c r="F69" s="148"/>
       <c r="G69" s="148"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:7">
       <c r="C70" s="148"/>
       <c r="D70" s="148"/>
       <c r="E70" s="148"/>
       <c r="F70" s="148"/>
       <c r="G70" s="148"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:7">
       <c r="C71" s="148"/>
       <c r="D71" s="148"/>
       <c r="E71" s="148"/>
       <c r="F71" s="148"/>
       <c r="G71" s="148"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:7">
       <c r="C72" s="148"/>
       <c r="D72" s="148"/>
       <c r="E72" s="148"/>
       <c r="F72" s="148"/>
       <c r="G72" s="148"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:7">
       <c r="C73" s="148"/>
       <c r="D73" s="148"/>
       <c r="E73" s="148"/>
       <c r="F73" s="148"/>
       <c r="G73" s="148"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:7">
       <c r="C74" s="148"/>
       <c r="D74" s="148"/>
       <c r="E74" s="148"/>
       <c r="F74" s="148"/>
       <c r="G74" s="148"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:7">
       <c r="C75" s="148"/>
       <c r="D75" s="148"/>
       <c r="E75" s="148"/>
       <c r="F75" s="148"/>
       <c r="G75" s="148"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:7">
       <c r="C76" s="148"/>
       <c r="D76" s="148"/>
       <c r="E76" s="148"/>
       <c r="F76" s="148"/>
       <c r="G76" s="148"/>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:7">
       <c r="C77" s="148"/>
       <c r="D77" s="148"/>
       <c r="E77" s="148"/>
       <c r="F77" s="148"/>
       <c r="G77" s="148"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:7">
       <c r="C78" s="148"/>
       <c r="D78" s="148"/>
       <c r="E78" s="148"/>
       <c r="F78" s="148"/>
       <c r="G78" s="148"/>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:7">
       <c r="C79" s="148"/>
       <c r="D79" s="148"/>
       <c r="E79" s="148"/>
       <c r="F79" s="148"/>
       <c r="G79" s="148"/>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:7">
       <c r="C80" s="148"/>
       <c r="D80" s="148"/>
       <c r="E80" s="148"/>
       <c r="F80" s="148"/>
       <c r="G80" s="148"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:7">
       <c r="C81" s="148"/>
       <c r="D81" s="148"/>
       <c r="E81" s="148"/>
       <c r="F81" s="148"/>
       <c r="G81" s="148"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:7">
       <c r="C82" s="148"/>
       <c r="D82" s="148"/>
       <c r="E82" s="148"/>
       <c r="F82" s="148"/>
       <c r="G82" s="148"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:7">
       <c r="C83" s="148"/>
       <c r="D83" s="148"/>
       <c r="E83" s="148"/>
       <c r="F83" s="148"/>
       <c r="G83" s="148"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:7">
       <c r="C84" s="148"/>
       <c r="D84" s="148"/>
       <c r="E84" s="148"/>
       <c r="F84" s="148"/>
       <c r="G84" s="148"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:7">
       <c r="C85" s="148"/>
       <c r="D85" s="148"/>
       <c r="E85" s="148"/>
       <c r="F85" s="148"/>
       <c r="G85" s="148"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:7">
       <c r="C86" s="148"/>
       <c r="D86" s="148"/>
       <c r="E86" s="148"/>
       <c r="F86" s="148"/>
       <c r="G86" s="148"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:7">
       <c r="C87" s="148"/>
       <c r="D87" s="148"/>
       <c r="E87" s="148"/>
       <c r="F87" s="148"/>
       <c r="G87" s="148"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:7">
       <c r="C88" s="148"/>
       <c r="D88" s="148"/>
       <c r="E88" s="148"/>
       <c r="F88" s="148"/>
       <c r="G88" s="148"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:7">
       <c r="C89" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A32:C34"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="A3:B3"/>
@@ -16377,36 +16364,14 @@
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="V15:X15"/>
     <mergeCell ref="S17:X17"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A32:C34"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
   </mergeCells>
   <conditionalFormatting sqref="F53:F54">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
       <formula>E53=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
       <formula>E59=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16438,7 +16403,7 @@
       <selection activeCell="F31" sqref="F31:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="1.54296875" style="66" customWidth="1"/>
     <col min="2" max="4" width="15.7265625" style="66" customWidth="1"/>
@@ -16453,7 +16418,7 @@
     <col min="14" max="16384" width="9.1796875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="71" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="71" customFormat="1" ht="4.5" customHeight="1">
       <c r="A1" s="67"/>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -16469,17 +16434,17 @@
       <c r="M1" s="70"/>
       <c r="N1" s="67"/>
     </row>
-    <row r="2" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="72"/>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="259" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="217"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="256"/>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
       <c r="K2" s="72"/>
@@ -16487,129 +16452,129 @@
       <c r="M2" s="72"/>
       <c r="N2" s="72"/>
     </row>
-    <row r="3" spans="1:14" s="73" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="73" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="248" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="218" t="s">
+      <c r="C3" s="249"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="248" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="220"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="72"/>
       <c r="J3" s="72"/>
-      <c r="K3" s="221" t="s">
+      <c r="K3" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="222"/>
-      <c r="M3" s="223"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="262"/>
       <c r="N3" s="72"/>
     </row>
-    <row r="4" spans="1:14" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="73" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="72"/>
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="229"/>
+      <c r="B4" s="245"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="231"/>
       <c r="I4" s="72"/>
       <c r="J4" s="72"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="232"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="265"/>
       <c r="N4" s="72"/>
     </row>
-    <row r="5" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="72"/>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="248" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="218" t="s">
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="248" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="220"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="250"/>
       <c r="I5" s="72"/>
       <c r="J5" s="74"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="234"/>
-      <c r="M5" s="235"/>
+      <c r="K5" s="266"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="268"/>
       <c r="N5" s="72"/>
     </row>
-    <row r="6" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="72"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="274"/>
+      <c r="F6" s="274"/>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="72"/>
       <c r="J6" s="74"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="234"/>
-      <c r="M6" s="235"/>
+      <c r="K6" s="266"/>
+      <c r="L6" s="267"/>
+      <c r="M6" s="268"/>
       <c r="N6" s="72"/>
     </row>
-    <row r="7" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="72"/>
-      <c r="B7" s="242"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
       <c r="I7" s="72"/>
       <c r="J7" s="72"/>
-      <c r="K7" s="233"/>
-      <c r="L7" s="234"/>
-      <c r="M7" s="235"/>
+      <c r="K7" s="266"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="268"/>
       <c r="N7" s="72"/>
     </row>
-    <row r="8" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="72"/>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="233"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="235"/>
+      <c r="K8" s="266"/>
+      <c r="L8" s="267"/>
+      <c r="M8" s="268"/>
       <c r="N8" s="72"/>
     </row>
-    <row r="9" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="72"/>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
+      <c r="B9" s="277"/>
+      <c r="C9" s="277"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
       <c r="I9" s="72"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="235"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="268"/>
       <c r="N9" s="72"/>
     </row>
-    <row r="10" spans="1:14" s="73" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="73" customFormat="1" ht="5.25" customHeight="1">
       <c r="A10" s="72"/>
       <c r="B10" s="62"/>
       <c r="C10" s="75"/>
@@ -16620,122 +16585,122 @@
       <c r="H10" s="76"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="235"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="267"/>
+      <c r="M10" s="268"/>
       <c r="N10" s="72"/>
     </row>
-    <row r="11" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="72"/>
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="254" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="217"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="255"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="255"/>
+      <c r="H11" s="256"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="235"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="267"/>
+      <c r="M11" s="268"/>
       <c r="N11" s="72"/>
     </row>
-    <row r="12" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="77"/>
-      <c r="C12" s="218" t="s">
+      <c r="C12" s="248" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="218" t="s">
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="219"/>
-      <c r="H12" s="220"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="250"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
-      <c r="K12" s="233"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="235"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="268"/>
       <c r="N12" s="72"/>
     </row>
-    <row r="13" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="227"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="226"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="247"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="233"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="235"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="267"/>
+      <c r="M13" s="268"/>
       <c r="N13" s="72"/>
     </row>
-    <row r="14" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="72"/>
       <c r="B14" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="227"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="225"/>
-      <c r="H14" s="226"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="247"/>
       <c r="I14" s="72"/>
       <c r="J14" s="80"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="235"/>
+      <c r="K14" s="266"/>
+      <c r="L14" s="267"/>
+      <c r="M14" s="268"/>
       <c r="N14" s="72"/>
     </row>
-    <row r="15" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="72"/>
       <c r="B15" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="227"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="226"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="247"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="235"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="267"/>
+      <c r="M15" s="268"/>
       <c r="N15" s="72"/>
     </row>
-    <row r="16" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="72"/>
       <c r="B16" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="227"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="225"/>
-      <c r="H16" s="226"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="247"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
-      <c r="K16" s="236"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="238"/>
+      <c r="K16" s="269"/>
+      <c r="L16" s="270"/>
+      <c r="M16" s="271"/>
       <c r="N16" s="72"/>
     </row>
-    <row r="17" spans="1:14" s="73" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="73" customFormat="1" ht="3" customHeight="1">
       <c r="A17" s="72"/>
       <c r="B17" s="76"/>
       <c r="C17" s="75"/>
@@ -16751,17 +16716,17 @@
       <c r="M17" s="72"/>
       <c r="N17" s="72"/>
     </row>
-    <row r="18" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="72"/>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="254" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="247"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="248"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="257"/>
+      <c r="G18" s="257"/>
+      <c r="H18" s="258"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
@@ -16769,19 +16734,19 @@
       <c r="M18" s="72"/>
       <c r="N18" s="72"/>
     </row>
-    <row r="19" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="72"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="218" t="s">
+      <c r="C19" s="248" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="218" t="s">
+      <c r="D19" s="249"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="248" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="219"/>
-      <c r="H19" s="220"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="250"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
@@ -16789,17 +16754,17 @@
       <c r="M19" s="72"/>
       <c r="N19" s="72"/>
     </row>
-    <row r="20" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="72"/>
       <c r="B20" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="226"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="247"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
@@ -16807,17 +16772,17 @@
       <c r="M20" s="72"/>
       <c r="N20" s="72"/>
     </row>
-    <row r="21" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="72"/>
       <c r="B21" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="227"/>
-      <c r="D21" s="228"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="226"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="247"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
@@ -16825,17 +16790,17 @@
       <c r="M21" s="72"/>
       <c r="N21" s="72"/>
     </row>
-    <row r="22" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="72"/>
       <c r="B22" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="227"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="226"/>
+      <c r="C22" s="229"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="247"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
@@ -16843,17 +16808,17 @@
       <c r="M22" s="72"/>
       <c r="N22" s="72"/>
     </row>
-    <row r="23" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="72"/>
       <c r="B23" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="227"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="225"/>
-      <c r="H23" s="226"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="247"/>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
@@ -16861,19 +16826,19 @@
       <c r="M23" s="72"/>
       <c r="N23" s="72"/>
     </row>
-    <row r="24" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="72"/>
       <c r="B24" s="82"/>
-      <c r="C24" s="218" t="s">
+      <c r="C24" s="248" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="218" t="s">
+      <c r="D24" s="249"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="248" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="219"/>
-      <c r="H24" s="220"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="250"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
@@ -16881,17 +16846,17 @@
       <c r="M24" s="72"/>
       <c r="N24" s="72"/>
     </row>
-    <row r="25" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="72"/>
       <c r="B25" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="227"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="226"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="247"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="83" t="s">
@@ -16901,17 +16866,17 @@
       <c r="M25" s="72"/>
       <c r="N25" s="72"/>
     </row>
-    <row r="26" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="72"/>
       <c r="B26" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="227"/>
-      <c r="D26" s="228"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="226"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="247"/>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="85" t="s">
@@ -16921,17 +16886,17 @@
       <c r="M26" s="72"/>
       <c r="N26" s="72"/>
     </row>
-    <row r="27" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="227"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="225"/>
-      <c r="H27" s="226"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="230"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="247"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="85" t="s">
@@ -16941,17 +16906,17 @@
       <c r="M27" s="72"/>
       <c r="N27" s="72"/>
     </row>
-    <row r="28" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="72"/>
       <c r="B28" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="227"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="225"/>
-      <c r="H28" s="226"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="245"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="247"/>
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="87" t="s">
@@ -16961,14 +16926,14 @@
       <c r="M28" s="89"/>
       <c r="N28" s="72"/>
     </row>
-    <row r="29" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="72"/>
       <c r="B29" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="251"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="252"/>
       <c r="F29" s="64"/>
       <c r="G29" s="90"/>
       <c r="H29" s="90"/>
@@ -16979,19 +16944,19 @@
       <c r="M29" s="89"/>
       <c r="N29" s="72"/>
     </row>
-    <row r="30" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="72"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="218" t="s">
+      <c r="C30" s="248" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="219"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="218" t="s">
+      <c r="D30" s="249"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="248" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="219"/>
-      <c r="H30" s="220"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="250"/>
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
       <c r="K30" s="91"/>
@@ -16999,17 +16964,17 @@
       <c r="M30" s="91"/>
       <c r="N30" s="72"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="92"/>
       <c r="B31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="227"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="229"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="257"/>
+      <c r="C31" s="229"/>
+      <c r="D31" s="230"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="233"/>
+      <c r="H31" s="234"/>
       <c r="I31" s="92"/>
       <c r="J31" s="92"/>
       <c r="K31" s="69"/>
@@ -17017,17 +16982,17 @@
       <c r="M31" s="69"/>
       <c r="N31" s="92"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="92"/>
       <c r="B32" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="227"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="255"/>
-      <c r="G32" s="256"/>
-      <c r="H32" s="257"/>
+      <c r="C32" s="229"/>
+      <c r="D32" s="230"/>
+      <c r="E32" s="231"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="233"/>
+      <c r="H32" s="234"/>
       <c r="I32" s="92"/>
       <c r="J32" s="92"/>
       <c r="K32" s="69"/>
@@ -17035,17 +17000,17 @@
       <c r="M32" s="69"/>
       <c r="N32" s="92"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="92"/>
       <c r="B33" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="227"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="255"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="257"/>
+      <c r="C33" s="229"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="233"/>
+      <c r="H33" s="234"/>
       <c r="I33" s="92"/>
       <c r="J33" s="92"/>
       <c r="K33" s="69"/>
@@ -17053,17 +17018,17 @@
       <c r="M33" s="69"/>
       <c r="N33" s="92"/>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="92"/>
       <c r="B34" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="227"/>
-      <c r="D34" s="228"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="258"/>
-      <c r="G34" s="256"/>
-      <c r="H34" s="257"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="233"/>
+      <c r="H34" s="234"/>
       <c r="I34" s="92"/>
       <c r="J34" s="92"/>
       <c r="K34" s="69"/>
@@ -17071,14 +17036,14 @@
       <c r="M34" s="69"/>
       <c r="N34" s="92"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="92"/>
       <c r="B35" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="249"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="260"/>
+      <c r="C35" s="236"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="238"/>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
       <c r="H35" s="93"/>
@@ -17089,7 +17054,7 @@
       <c r="M35" s="69"/>
       <c r="N35" s="92"/>
     </row>
-    <row r="36" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="13" thickBot="1">
       <c r="A36" s="92"/>
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
@@ -17105,14 +17070,14 @@
       <c r="M36" s="69"/>
       <c r="N36" s="92"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="92"/>
-      <c r="B37" s="261" t="s">
+      <c r="B37" s="239" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="262"/>
-      <c r="D37" s="262"/>
-      <c r="E37" s="263"/>
+      <c r="C37" s="240"/>
+      <c r="D37" s="240"/>
+      <c r="E37" s="241"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="93"/>
@@ -17123,13 +17088,13 @@
       <c r="M37" s="69"/>
       <c r="N37" s="92"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="92"/>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="242" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="265"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="244"/>
       <c r="E38" s="94"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
@@ -17141,13 +17106,13 @@
       <c r="M38" s="69"/>
       <c r="N38" s="92"/>
     </row>
-    <row r="39" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="13" thickBot="1">
       <c r="A39" s="92"/>
-      <c r="B39" s="252" t="s">
+      <c r="B39" s="226" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="253"/>
-      <c r="D39" s="254"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="228"/>
       <c r="E39" s="95"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
@@ -17159,7 +17124,7 @@
       <c r="M39" s="69"/>
       <c r="N39" s="92"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="92"/>
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
@@ -17177,38 +17142,22 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:M16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="C12:E12"/>
@@ -17225,55 +17174,71 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:M16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 E4">
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="169" priority="7">
       <formula>B4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:H9">
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="168" priority="6">
       <formula>B$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:H16">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="167" priority="5">
       <formula>C13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:H23">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="166" priority="4">
       <formula>C20=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H28">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="165" priority="3">
       <formula>C25=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:E34">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="164" priority="2">
       <formula>C31=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:H34">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="163" priority="1">
       <formula>F31=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17309,7 +17274,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5.7265625" style="59" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" style="59" bestFit="1" customWidth="1"/>
@@ -17322,7 +17287,7 @@
     <col min="9" max="16384" width="9.1796875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -17332,19 +17297,19 @@
       <c r="G1" s="42"/>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="267" t="s">
+    <row r="2" spans="1:8" ht="18.5">
+      <c r="A2" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="269"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="280"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="44"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -17353,7 +17318,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="44"/>
       <c r="B4" s="40" t="s">
         <v>29</v>
@@ -17372,7 +17337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="44"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
@@ -17383,7 +17348,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="44"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
@@ -17394,7 +17359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="44"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
@@ -17405,7 +17370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="44"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -17414,7 +17379,7 @@
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="44"/>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
@@ -17423,7 +17388,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="45"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
@@ -17432,337 +17397,337 @@
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5">
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5">
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5">
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5">
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5">
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5">
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5">
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5">
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5">
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5">
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5">
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5">
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5">
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5">
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5">
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5">
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5">
       <c r="B35" s="60"/>
       <c r="C35" s="60"/>
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5">
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5">
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5">
       <c r="B38" s="60"/>
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5">
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5">
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5">
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5">
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5">
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5">
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5">
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5">
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5">
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5">
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5">
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5">
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5">
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5">
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5">
       <c r="B53" s="60"/>
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5">
       <c r="B54" s="60"/>
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5">
       <c r="B55" s="60"/>
       <c r="C55" s="60"/>
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5">
       <c r="B56" s="60"/>
       <c r="C56" s="60"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5">
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5">
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5">
       <c r="B59" s="60"/>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5">
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5">
       <c r="B61" s="60"/>
       <c r="C61" s="60"/>
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5">
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5">
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5">
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5">
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5">
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
       <c r="D66" s="60"/>
@@ -17792,7 +17757,7 @@
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="16384" width="9.1796875" style="52"/>
   </cols>
@@ -17838,11 +17803,11 @@
   </sheetPr>
   <dimension ref="S3:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="19" max="19" width="35.1796875" customWidth="1"/>
     <col min="20" max="20" width="31.453125" customWidth="1"/>
@@ -17853,13 +17818,13 @@
     <col min="25" max="30" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="19:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S3" s="270" t="s">
+    <row r="3" spans="19:22" ht="30.75" customHeight="1">
+      <c r="S3" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="271"/>
-    </row>
-    <row r="4" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="282"/>
+    </row>
+    <row r="4" spans="19:22" ht="15.75" customHeight="1">
       <c r="S4" s="39" t="s">
         <v>529</v>
       </c>
@@ -17873,7 +17838,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="19:22" ht="15.75" customHeight="1">
       <c r="S5" s="185">
         <v>110</v>
       </c>
@@ -17887,105 +17852,105 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S6" s="329">
+    <row r="6" spans="19:22" ht="15.75" customHeight="1">
+      <c r="S6" s="187">
         <v>120</v>
       </c>
-      <c r="T6" s="329" t="s">
+      <c r="T6" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="U6" s="329" t="s">
+      <c r="U6" s="187" t="s">
         <v>535</v>
       </c>
-      <c r="V6" s="329" t="s">
+      <c r="V6" s="187" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S7" s="338">
+    <row r="7" spans="19:22" ht="15.75" customHeight="1">
+      <c r="S7" s="196">
         <v>130</v>
       </c>
-      <c r="T7" s="330" t="s">
+      <c r="T7" s="188" t="s">
         <v>536</v>
       </c>
-      <c r="U7" s="339" t="s">
+      <c r="U7" s="197" t="s">
         <v>537</v>
       </c>
-      <c r="V7" s="330" t="s">
+      <c r="V7" s="188" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S8" s="331">
+    <row r="8" spans="19:22" ht="15.75" customHeight="1">
+      <c r="S8" s="189">
         <v>140</v>
       </c>
-      <c r="T8" s="331" t="s">
+      <c r="T8" s="189" t="s">
         <v>538</v>
       </c>
-      <c r="U8" s="331" t="s">
+      <c r="U8" s="189" t="s">
         <v>539</v>
       </c>
-      <c r="V8" s="331" t="s">
+      <c r="V8" s="189" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S9" s="332">
+    <row r="9" spans="19:22" ht="15.75" customHeight="1">
+      <c r="S9" s="190">
         <v>170</v>
       </c>
-      <c r="T9" s="332" t="s">
+      <c r="T9" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="U9" s="332" t="s">
+      <c r="U9" s="190" t="s">
         <v>541</v>
       </c>
-      <c r="V9" s="332" t="s">
+      <c r="V9" s="190" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S10" s="333">
+    <row r="10" spans="19:22" ht="15.75" customHeight="1">
+      <c r="S10" s="191">
         <v>180</v>
       </c>
-      <c r="T10" s="333" t="s">
+      <c r="T10" s="191" t="s">
         <v>542</v>
       </c>
-      <c r="U10" s="333" t="s">
+      <c r="U10" s="191" t="s">
         <v>543</v>
       </c>
-      <c r="V10" s="333" t="s">
+      <c r="V10" s="191" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="11" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S11" s="334">
+    <row r="11" spans="19:22" ht="15.75" customHeight="1">
+      <c r="S11" s="192">
         <v>190</v>
       </c>
-      <c r="T11" s="334" t="s">
+      <c r="T11" s="192" t="s">
         <v>544</v>
       </c>
-      <c r="U11" s="334" t="s">
+      <c r="U11" s="192" t="s">
         <v>545</v>
       </c>
-      <c r="V11" s="334" t="s">
+      <c r="V11" s="192" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="12" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S12" s="335">
+    <row r="12" spans="19:22" ht="15.75" customHeight="1">
+      <c r="S12" s="193">
         <v>191</v>
       </c>
-      <c r="T12" s="335" t="s">
+      <c r="T12" s="193" t="s">
         <v>546</v>
       </c>
-      <c r="U12" s="335" t="s">
+      <c r="U12" s="193" t="s">
         <v>547</v>
       </c>
-      <c r="V12" s="335" t="s">
+      <c r="V12" s="193" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="19:22" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="19:22" ht="14.5">
       <c r="S13" s="186" t="s">
         <v>548</v>
       </c>
@@ -17999,13 +17964,13 @@
         <v>589</v>
       </c>
     </row>
-    <row r="14" spans="19:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="19:22" ht="15.75" customHeight="1">
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
       <c r="V14" s="33"/>
     </row>
-    <row r="20" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="19:23" ht="15.75" customHeight="1">
       <c r="S20" s="147" t="s">
         <v>307</v>
       </c>
@@ -18022,7 +17987,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="19:23" ht="15.75" customHeight="1">
       <c r="S21" s="147" t="s">
         <v>504</v>
       </c>
@@ -18039,7 +18004,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="19:23" ht="15.75" customHeight="1">
       <c r="S22" s="147" t="s">
         <v>505</v>
       </c>
@@ -18056,7 +18021,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="19:23" ht="15.75" customHeight="1">
       <c r="S23" s="147" t="s">
         <v>506</v>
       </c>
@@ -18073,7 +18038,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="19:23" ht="15.75" customHeight="1">
       <c r="S24" s="147" t="s">
         <v>507</v>
       </c>
@@ -18090,7 +18055,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="19:23" ht="15.75" customHeight="1">
       <c r="S25" s="147" t="s">
         <v>508</v>
       </c>
@@ -18107,7 +18072,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="19:23" ht="15.75" customHeight="1">
       <c r="S26" s="147" t="s">
         <v>513</v>
       </c>
@@ -18124,7 +18089,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="19:23" ht="15.75" customHeight="1">
       <c r="S27" s="147" t="s">
         <v>509</v>
       </c>
@@ -18141,7 +18106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="19:23" ht="15.75" customHeight="1">
       <c r="S28" s="147" t="s">
         <v>510</v>
       </c>
@@ -18158,7 +18123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="19:23" ht="15.75" customHeight="1">
       <c r="S29" s="147" t="s">
         <v>511</v>
       </c>
@@ -18175,7 +18140,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="19:23" ht="15.75" customHeight="1">
       <c r="S30" s="147" t="s">
         <v>512</v>
       </c>
@@ -18192,21 +18157,21 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="19:23" ht="15.75" customHeight="1">
       <c r="S31" s="147"/>
       <c r="T31" s="147"/>
       <c r="U31" s="147"/>
       <c r="V31" s="147"/>
       <c r="W31" s="147"/>
     </row>
-    <row r="32" spans="19:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S32" s="272" t="s">
+    <row r="32" spans="19:23" ht="15.75" customHeight="1">
+      <c r="S32" s="283" t="s">
         <v>314</v>
       </c>
-      <c r="T32" s="273"/>
-      <c r="U32" s="273"/>
-      <c r="V32" s="273"/>
-      <c r="W32" s="273"/>
+      <c r="T32" s="284"/>
+      <c r="U32" s="284"/>
+      <c r="V32" s="284"/>
+      <c r="W32" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18234,7 +18199,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
@@ -18267,7 +18232,7 @@
     <col min="29" max="29" width="18.453125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18275,17 +18240,17 @@
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="19" x14ac:dyDescent="0.45">
-      <c r="A2" s="276" t="s">
+    <row r="2" spans="1:29" ht="19">
+      <c r="A2" s="287" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="278"/>
-    </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="289"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -18329,12 +18294,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" ht="15" thickBot="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="274" t="s">
+      <c r="B4" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="275"/>
+      <c r="C4" s="286"/>
       <c r="D4" s="8"/>
       <c r="E4" s="131" t="s">
         <v>282</v>
@@ -18379,7 +18344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29">
       <c r="A5" s="4"/>
       <c r="B5" s="97" t="s">
         <v>203</v>
@@ -18426,7 +18391,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29">
       <c r="A6" s="4"/>
       <c r="B6" s="98" t="s">
         <v>204</v>
@@ -18467,7 +18432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29">
       <c r="A7" s="4"/>
       <c r="B7" s="102" t="s">
         <v>205</v>
@@ -18503,7 +18468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="A8" s="4"/>
       <c r="B8" s="98" t="s">
         <v>206</v>
@@ -18539,7 +18504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="A9" s="4"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
@@ -18564,12 +18529,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" ht="15" thickBot="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="274" t="s">
+      <c r="B10" s="285" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="275"/>
+      <c r="C10" s="286"/>
       <c r="D10" s="8"/>
       <c r="E10" s="135" t="s">
         <v>285</v>
@@ -18585,7 +18550,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29">
       <c r="A11" s="4"/>
       <c r="B11" s="136" t="s">
         <v>179</v>
@@ -18605,7 +18570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29">
       <c r="A12" s="4"/>
       <c r="B12" s="98" t="s">
         <v>180</v>
@@ -18625,7 +18590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29">
       <c r="A13" s="4"/>
       <c r="B13" s="102" t="s">
         <v>181</v>
@@ -18645,7 +18610,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" ht="15" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="98" t="s">
         <v>182</v>
@@ -18665,7 +18630,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29">
       <c r="A15" s="4"/>
       <c r="B15" s="102" t="s">
         <v>183</v>
@@ -18679,7 +18644,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29">
       <c r="A16" s="4"/>
       <c r="B16" s="98" t="s">
         <v>184</v>
@@ -18695,7 +18660,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29">
       <c r="A17" s="4"/>
       <c r="B17" s="102" t="s">
         <v>185</v>
@@ -18711,7 +18676,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29">
       <c r="A18" s="4"/>
       <c r="B18" s="98" t="s">
         <v>186</v>
@@ -18727,7 +18692,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29">
       <c r="A19" s="4"/>
       <c r="B19" s="102" t="s">
         <v>188</v>
@@ -18743,7 +18708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29">
       <c r="A20" s="4"/>
       <c r="B20" s="98" t="s">
         <v>191</v>
@@ -18759,7 +18724,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29">
       <c r="A21" s="4"/>
       <c r="B21" s="102" t="s">
         <v>192</v>
@@ -18772,7 +18737,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>194</v>
@@ -18785,7 +18750,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29">
       <c r="A23" s="4"/>
       <c r="B23" s="102" t="s">
         <v>196</v>
@@ -18798,7 +18763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29">
       <c r="A24" s="4"/>
       <c r="B24" s="98" t="s">
         <v>195</v>
@@ -18811,7 +18776,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29">
       <c r="A25" s="4"/>
       <c r="B25" s="102" t="s">
         <v>197</v>
@@ -18824,7 +18789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29">
       <c r="A26" s="4"/>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -18835,12 +18800,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" ht="15" thickBot="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="274" t="s">
+      <c r="B27" s="285" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="275"/>
+      <c r="C27" s="286"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -18848,7 +18813,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29">
       <c r="A28" s="4"/>
       <c r="B28" s="97" t="s">
         <v>135</v>
@@ -18860,7 +18825,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29">
       <c r="A29" s="4"/>
       <c r="B29" s="98" t="s">
         <v>136</v>
@@ -18870,7 +18835,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29">
       <c r="A30" s="4"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
@@ -18878,17 +18843,17 @@
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" ht="15" thickBot="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="274" t="s">
+      <c r="B31" s="285" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="275"/>
+      <c r="C31" s="286"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29">
       <c r="A32" s="4"/>
       <c r="B32" s="97" t="s">
         <v>100</v>
@@ -18898,7 +18863,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="98" t="s">
         <v>102</v>
@@ -18908,7 +18873,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="102" t="s">
         <v>104</v>
@@ -18918,7 +18883,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="98" t="s">
         <v>106</v>
@@ -18928,7 +18893,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="51"/>
       <c r="C36" s="50"/>
@@ -18936,17 +18901,17 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="274" t="s">
+      <c r="B37" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="275"/>
+      <c r="C37" s="286"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="97" t="s">
         <v>111</v>
@@ -18956,7 +18921,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="98" t="s">
         <v>113</v>
@@ -18966,7 +18931,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="102" t="s">
         <v>115</v>
@@ -18976,7 +18941,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="98" t="s">
         <v>77</v>
@@ -18988,7 +18953,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
@@ -18996,17 +18961,17 @@
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="274" t="s">
+      <c r="B43" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="275"/>
+      <c r="C43" s="286"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6">
       <c r="A44" s="4"/>
       <c r="B44" s="109" t="s">
         <v>121</v>
@@ -19016,7 +18981,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="112" t="s">
         <v>122</v>
@@ -19026,7 +18991,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="115" t="s">
         <v>207</v>
@@ -19036,7 +19001,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="100" t="s">
         <v>124</v>
@@ -19046,7 +19011,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="116" t="s">
         <v>125</v>
@@ -19058,7 +19023,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="109" t="s">
         <v>207</v>
@@ -19068,7 +19033,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="99" t="s">
         <v>124</v>
@@ -19078,7 +19043,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="15" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="112" t="s">
         <v>125</v>
@@ -19090,7 +19055,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="110" t="s">
         <v>207</v>
@@ -19100,7 +19065,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="100" t="s">
         <v>124</v>
@@ -19110,7 +19075,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="15" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="116" t="s">
         <v>125</v>
@@ -19122,7 +19087,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="101" t="s">
         <v>208</v>
@@ -19132,7 +19097,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="103" t="s">
         <v>209</v>
@@ -19142,7 +19107,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" s="103" t="s">
         <v>210</v>
@@ -19152,7 +19117,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="103" t="s">
         <v>124</v>
@@ -19162,7 +19127,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="15" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="118" t="s">
         <v>125</v>
@@ -19174,7 +19139,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="110" t="s">
         <v>208</v>
@@ -19184,7 +19149,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="104" t="s">
         <v>209</v>
@@ -19194,7 +19159,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6">
       <c r="A62" s="4"/>
       <c r="B62" s="104" t="s">
         <v>210</v>
@@ -19204,7 +19169,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6">
       <c r="A63" s="4"/>
       <c r="B63" s="104" t="s">
         <v>124</v>
@@ -19214,7 +19179,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="15" thickBot="1">
       <c r="A64" s="4"/>
       <c r="B64" s="119" t="s">
         <v>125</v>
@@ -19226,7 +19191,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6">
       <c r="A65" s="4"/>
       <c r="B65" s="101" t="s">
         <v>127</v>
@@ -19236,7 +19201,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6">
       <c r="A66" s="4"/>
       <c r="B66" s="99" t="s">
         <v>128</v>
@@ -19246,7 +19211,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6">
       <c r="A67" s="4"/>
       <c r="B67" s="99" t="s">
         <v>129</v>
@@ -19256,7 +19221,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="15" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="112" t="s">
         <v>130</v>
@@ -19268,7 +19233,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6">
       <c r="A69" s="4"/>
       <c r="B69" s="110" t="s">
         <v>127</v>
@@ -19278,7 +19243,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6">
       <c r="A70" s="4"/>
       <c r="B70" s="100" t="s">
         <v>128</v>
@@ -19288,7 +19253,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6">
       <c r="A71" s="4"/>
       <c r="B71" s="100" t="s">
         <v>129</v>
@@ -19298,7 +19263,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6">
       <c r="A72" s="4"/>
       <c r="B72" s="100" t="s">
         <v>130</v>
@@ -19310,7 +19275,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6">
       <c r="A73" s="4"/>
       <c r="B73" s="8"/>
       <c r="C73" s="52"/>
@@ -19318,7 +19283,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6">
       <c r="A74" s="30"/>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -19326,11 +19291,11 @@
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6">
       <c r="E75" s="8"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6">
       <c r="E76" s="31"/>
       <c r="F76" s="32"/>
     </row>
@@ -19345,67 +19310,67 @@
     <mergeCell ref="B37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C25">
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="9" stopIfTrue="1">
       <formula>$C11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C8">
-    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="8" stopIfTrue="1">
       <formula>$C5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35">
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="11" stopIfTrue="1">
       <formula>$C32=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="10" stopIfTrue="1">
       <formula>$C28=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="expression" dxfId="23" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="12" stopIfTrue="1">
       <formula>$C38=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C48">
-    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="3" stopIfTrue="1">
       <formula>$C$46=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:C51">
-    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="4" stopIfTrue="1">
       <formula>$C$49=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:C54">
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="5" stopIfTrue="1">
       <formula>$C$52=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C72">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="13" stopIfTrue="1">
       <formula>$C44=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:C59">
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="6" stopIfTrue="1">
       <formula>$C$55=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:C64">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="7" stopIfTrue="1">
       <formula>$C$60=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:C68">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="2" stopIfTrue="1">
       <formula>$C$65=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:C72">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
       <formula>$C$69=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19478,7 +19443,7 @@
       <selection pane="bottomLeft" activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="2" max="2" width="19.90625" customWidth="1"/>
@@ -19501,7 +19466,7 @@
     <col min="20" max="20" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="43.5">
       <c r="A1" s="156" t="s">
         <v>501</v>
       </c>
@@ -19571,7 +19536,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15" thickBot="1">
       <c r="A2" s="156" t="s">
         <v>565</v>
       </c>
@@ -19613,7 +19578,7 @@
       <c r="S2" s="156"/>
       <c r="T2" s="156"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="158" t="s">
         <v>471</v>
       </c>
@@ -19643,7 +19608,7 @@
       <c r="S3" s="166"/>
       <c r="T3" s="166"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="15" thickBot="1">
       <c r="A4" s="158" t="s">
         <v>473</v>
       </c>
@@ -19687,7 +19652,7 @@
       <c r="S4" s="166"/>
       <c r="T4" s="166"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="158" t="s">
         <v>472</v>
       </c>
@@ -19729,7 +19694,7 @@
       <c r="S5" s="166"/>
       <c r="T5" s="166"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="166" t="s">
         <v>456</v>
       </c>
@@ -19783,7 +19748,7 @@
       </c>
       <c r="T6" s="166"/>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15" thickBot="1">
       <c r="A7" s="166" t="s">
         <v>457</v>
       </c>
@@ -19837,7 +19802,7 @@
       </c>
       <c r="T7" s="166"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="166" t="s">
         <v>467</v>
       </c>
@@ -19887,7 +19852,7 @@
       </c>
       <c r="T8" s="166"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="166" t="s">
         <v>460</v>
       </c>
@@ -19941,7 +19906,7 @@
       </c>
       <c r="T9" s="166"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15" thickBot="1">
       <c r="A10" s="166" t="s">
         <v>461</v>
       </c>
@@ -19995,7 +19960,7 @@
       </c>
       <c r="T10" s="166"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="166" t="s">
         <v>462</v>
       </c>
@@ -20049,7 +20014,7 @@
       </c>
       <c r="T11" s="166"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="166" t="s">
         <v>463</v>
       </c>
@@ -20101,7 +20066,7 @@
       </c>
       <c r="T12" s="166"/>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="15" thickBot="1">
       <c r="A13" s="166" t="s">
         <v>458</v>
       </c>
@@ -20153,7 +20118,7 @@
       </c>
       <c r="T13" s="166"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="166" t="s">
         <v>459</v>
       </c>
@@ -20205,7 +20170,7 @@
       </c>
       <c r="T14" s="166"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="170" t="s">
         <v>464</v>
       </c>
@@ -20259,7 +20224,7 @@
       </c>
       <c r="T15" s="166"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="170" t="s">
         <v>465</v>
       </c>
@@ -20313,7 +20278,7 @@
       </c>
       <c r="T16" s="166"/>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="170" t="s">
         <v>466</v>
       </c>
@@ -20367,20 +20332,20 @@
       </c>
       <c r="T17" s="166"/>
     </row>
-    <row r="18" spans="1:20" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="337" t="s">
+    <row r="18" spans="1:20" s="137" customFormat="1" ht="15" thickBot="1">
+      <c r="A18" s="195" t="s">
         <v>584</v>
       </c>
-      <c r="B18" s="337" t="s">
+      <c r="B18" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="C18" s="337" t="s">
+      <c r="C18" s="195" t="s">
         <v>582</v>
       </c>
-      <c r="D18" s="337" t="s">
+      <c r="D18" s="195" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="336" t="s">
+      <c r="E18" s="194" t="s">
         <v>478</v>
       </c>
       <c r="F18" s="166"/>
@@ -20399,7 +20364,7 @@
       <c r="S18" s="170"/>
       <c r="T18" s="170"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20">
       <c r="A19" s="166"/>
       <c r="B19" s="166"/>
       <c r="C19" s="166"/>
@@ -20421,7 +20386,7 @@
       <c r="S19" s="166"/>
       <c r="T19" s="166"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20">
       <c r="A20" s="175" t="s">
         <v>453</v>
       </c>
@@ -20453,7 +20418,7 @@
       <c r="S20" s="166"/>
       <c r="T20" s="166"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20">
       <c r="A21" s="180" t="s">
         <v>558</v>
       </c>
@@ -20483,7 +20448,7 @@
       <c r="S21" s="166"/>
       <c r="T21" s="166"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20">
       <c r="A22" s="176"/>
       <c r="B22" s="176"/>
       <c r="C22" s="176" t="s">
@@ -20509,7 +20474,7 @@
       <c r="S22" s="166"/>
       <c r="T22" s="166"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20">
       <c r="A23" s="177" t="s">
         <v>494</v>
       </c>
@@ -20539,7 +20504,7 @@
       <c r="S23" s="166"/>
       <c r="T23" s="166"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20">
       <c r="A24" s="177" t="s">
         <v>495</v>
       </c>
@@ -20569,7 +20534,7 @@
       <c r="S24" s="166"/>
       <c r="T24" s="166"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20">
       <c r="A25" s="177" t="s">
         <v>493</v>
       </c>
@@ -20599,7 +20564,7 @@
       <c r="S25" s="166"/>
       <c r="T25" s="166"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20">
       <c r="A26" s="166"/>
       <c r="B26" s="166"/>
       <c r="C26" s="166"/>
@@ -20621,7 +20586,7 @@
       <c r="S26" s="178"/>
       <c r="T26" s="178"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20">
       <c r="A27" s="183"/>
       <c r="B27" s="166"/>
       <c r="C27" s="166"/>
@@ -20643,7 +20608,7 @@
       <c r="S27" s="178"/>
       <c r="T27" s="178"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20">
       <c r="A28" s="166"/>
       <c r="B28" s="183"/>
       <c r="C28" s="166"/>
@@ -20665,7 +20630,7 @@
       <c r="S28" s="178"/>
       <c r="T28" s="178"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20">
       <c r="A29" s="166"/>
       <c r="B29" s="166"/>
       <c r="C29" s="166"/>
@@ -20687,7 +20652,7 @@
       <c r="S29" s="178"/>
       <c r="T29" s="178"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20">
       <c r="A30" s="166"/>
       <c r="B30" s="166"/>
       <c r="C30" s="166"/>
@@ -20709,7 +20674,7 @@
       <c r="S30" s="178"/>
       <c r="T30" s="178"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20">
       <c r="A31" s="166"/>
       <c r="B31" s="166"/>
       <c r="C31" s="166"/>
@@ -20731,7 +20696,7 @@
       <c r="S31" s="178"/>
       <c r="T31" s="178"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20">
       <c r="A32" s="166"/>
       <c r="B32" s="166"/>
       <c r="C32" s="166"/>
@@ -20753,7 +20718,7 @@
       <c r="S32" s="178"/>
       <c r="T32" s="178"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20">
       <c r="A33" s="166"/>
       <c r="B33" s="166"/>
       <c r="C33" s="166"/>
@@ -20775,7 +20740,7 @@
       <c r="S33" s="178"/>
       <c r="T33" s="178"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20">
       <c r="A34" s="166"/>
       <c r="B34" s="166"/>
       <c r="C34" s="166"/>
@@ -20797,7 +20762,7 @@
       <c r="S34" s="178"/>
       <c r="T34" s="178"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20">
       <c r="A35" s="166"/>
       <c r="B35" s="166"/>
       <c r="C35" s="166"/>
@@ -20819,7 +20784,7 @@
       <c r="S35" s="178"/>
       <c r="T35" s="178"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20">
       <c r="A36" s="166"/>
       <c r="B36" s="166"/>
       <c r="C36" s="166"/>
@@ -20841,7 +20806,7 @@
       <c r="S36" s="178"/>
       <c r="T36" s="178"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20">
       <c r="A37" s="166"/>
       <c r="B37" s="166"/>
       <c r="C37" s="166"/>
@@ -20863,7 +20828,7 @@
       <c r="S37" s="178"/>
       <c r="T37" s="178"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20">
       <c r="A38" s="166"/>
       <c r="B38" s="166"/>
       <c r="C38" s="166"/>
@@ -20885,7 +20850,7 @@
       <c r="S38" s="178"/>
       <c r="T38" s="178"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20">
       <c r="A39" s="166"/>
       <c r="B39" s="166"/>
       <c r="C39" s="166"/>
@@ -20900,7 +20865,7 @@
       <c r="L39" s="166"/>
       <c r="M39" s="166"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20">
       <c r="A40" s="166"/>
       <c r="B40" s="166"/>
       <c r="C40" s="166"/>
@@ -20915,7 +20880,7 @@
       <c r="L40" s="166"/>
       <c r="M40" s="166"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20">
       <c r="A41" s="166"/>
       <c r="B41" s="166"/>
       <c r="C41" s="166"/>
@@ -20930,7 +20895,7 @@
       <c r="L41" s="166"/>
       <c r="M41" s="166"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20">
       <c r="A42" s="166"/>
       <c r="B42" s="166"/>
       <c r="C42" s="166"/>
@@ -20945,7 +20910,7 @@
       <c r="L42" s="166"/>
       <c r="M42" s="166"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20">
       <c r="A43" s="166"/>
       <c r="B43" s="166"/>
       <c r="C43" s="166"/>
@@ -20960,7 +20925,7 @@
       <c r="L43" s="166"/>
       <c r="M43" s="166"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20">
       <c r="A44" s="166"/>
       <c r="B44" s="166"/>
       <c r="C44" s="166"/>
@@ -20975,7 +20940,7 @@
       <c r="L44" s="166"/>
       <c r="M44" s="166"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20">
       <c r="A45" s="166"/>
       <c r="B45" s="166"/>
       <c r="C45" s="166"/>
@@ -21015,7 +20980,7 @@
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
@@ -21037,64 +21002,64 @@
     <col min="24" max="26" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E2" s="280" t="s">
+    <row r="2" spans="1:24">
+      <c r="E2" s="303" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="303"/>
+      <c r="K2" s="303"/>
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
       <c r="X2" s="137"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="270" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="271"/>
+      <c r="B3" s="282"/>
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="286" t="s">
+      <c r="E3" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283" t="s">
+      <c r="F3" s="305"/>
+      <c r="G3" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283" t="s">
+      <c r="H3" s="305"/>
+      <c r="I3" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="283"/>
-      <c r="K3" s="287" t="s">
+      <c r="J3" s="305"/>
+      <c r="K3" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="288"/>
-      <c r="M3" s="289"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="310"/>
       <c r="N3" s="150"/>
-      <c r="O3" s="283" t="s">
+      <c r="O3" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="284"/>
-      <c r="R3" s="281" t="s">
+      <c r="P3" s="306"/>
+      <c r="R3" s="304" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="281"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
+      <c r="S3" s="304"/>
+      <c r="T3" s="298"/>
+      <c r="U3" s="298"/>
+      <c r="V3" s="298"/>
+      <c r="W3" s="298"/>
       <c r="X3" s="137"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24">
       <c r="A4" s="39" t="s">
         <v>69</v>
       </c>
@@ -21140,17 +21105,17 @@
       <c r="P4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="285" t="s">
+      <c r="R4" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="285"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="298"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="298"/>
       <c r="X4" s="137"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24">
       <c r="A5" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -21197,17 +21162,17 @@
       <c r="P5" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R5" s="281" t="s">
+      <c r="R5" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="281"/>
-      <c r="T5" s="282"/>
-      <c r="U5" s="282"/>
-      <c r="V5" s="282"/>
-      <c r="W5" s="282"/>
+      <c r="S5" s="304"/>
+      <c r="T5" s="298"/>
+      <c r="U5" s="298"/>
+      <c r="V5" s="298"/>
+      <c r="W5" s="298"/>
       <c r="X5" s="137"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24">
       <c r="A6" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -21254,20 +21219,20 @@
       <c r="P6" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R6" s="285" t="s">
+      <c r="R6" s="299" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="285"/>
-      <c r="T6" s="282" t="str">
+      <c r="S6" s="299"/>
+      <c r="T6" s="298" t="str">
         <f>S3048_FW</f>
         <v>fw: 9.11(0.0)</v>
       </c>
-      <c r="U6" s="282"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="282"/>
+      <c r="U6" s="298"/>
+      <c r="V6" s="298"/>
+      <c r="W6" s="298"/>
       <c r="X6" s="137"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24">
       <c r="A7" s="39">
         <f>TenTunnel</f>
         <v>130</v>
@@ -21316,7 +21281,7 @@
       </c>
       <c r="X7" s="137"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24">
       <c r="A8" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -21363,19 +21328,19 @@
       <c r="P8" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R8" s="293" t="s">
+      <c r="R8" s="296" t="s">
         <v>167</v>
       </c>
-      <c r="S8" s="293"/>
-      <c r="T8" s="293"/>
-      <c r="U8" s="294" t="s">
+      <c r="S8" s="296"/>
+      <c r="T8" s="296"/>
+      <c r="U8" s="297" t="s">
         <v>287</v>
       </c>
-      <c r="V8" s="294"/>
-      <c r="W8" s="294"/>
+      <c r="V8" s="297"/>
+      <c r="W8" s="297"/>
       <c r="X8" s="137"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24">
       <c r="A9" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -21422,17 +21387,17 @@
       <c r="P9" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R9" s="295" t="s">
+      <c r="R9" s="300" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="295"/>
-      <c r="T9" s="295"/>
-      <c r="U9" s="282"/>
-      <c r="V9" s="282"/>
-      <c r="W9" s="282"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="300"/>
+      <c r="U9" s="298"/>
+      <c r="V9" s="298"/>
+      <c r="W9" s="298"/>
       <c r="X9" s="137"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24">
       <c r="A10" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -21479,19 +21444,19 @@
       <c r="P10" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R10" s="296" t="s">
+      <c r="R10" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="282">
+      <c r="S10" s="301"/>
+      <c r="T10" s="301"/>
+      <c r="U10" s="298">
         <v>24576</v>
       </c>
-      <c r="V10" s="282"/>
-      <c r="W10" s="282"/>
+      <c r="V10" s="298"/>
+      <c r="W10" s="298"/>
       <c r="X10" s="137"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24">
       <c r="A11" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -21540,7 +21505,7 @@
       </c>
       <c r="X11" s="137"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24">
       <c r="A12" s="39">
         <f>EXTTen</f>
         <v>191</v>
@@ -21577,19 +21542,19 @@
       <c r="P12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="293" t="s">
+      <c r="R12" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="293"/>
-      <c r="T12" s="293"/>
-      <c r="U12" s="294" t="s">
+      <c r="S12" s="296"/>
+      <c r="T12" s="296"/>
+      <c r="U12" s="297" t="s">
         <v>288</v>
       </c>
-      <c r="V12" s="294"/>
-      <c r="W12" s="294"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="297"/>
       <c r="X12" s="137"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24">
       <c r="A13" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -21627,11 +21592,11 @@
       </c>
       <c r="X13" s="137"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="286" t="s">
+    <row r="14" spans="1:24">
+      <c r="A14" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="284"/>
+      <c r="B14" s="306"/>
       <c r="C14" s="34"/>
       <c r="E14" s="36" t="s">
         <v>326</v>
@@ -21658,17 +21623,17 @@
       <c r="P14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="290" t="s">
+      <c r="R14" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="291"/>
-      <c r="T14" s="291"/>
-      <c r="U14" s="291"/>
-      <c r="V14" s="291"/>
-      <c r="W14" s="292"/>
+      <c r="S14" s="312"/>
+      <c r="T14" s="312"/>
+      <c r="U14" s="312"/>
+      <c r="V14" s="312"/>
+      <c r="W14" s="313"/>
       <c r="X14" s="137"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24">
       <c r="A15" s="39" t="s">
         <v>36</v>
       </c>
@@ -21703,15 +21668,15 @@
       <c r="P15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="297"/>
-      <c r="S15" s="298"/>
-      <c r="T15" s="298"/>
-      <c r="U15" s="298"/>
-      <c r="V15" s="298"/>
-      <c r="W15" s="299"/>
+      <c r="R15" s="290"/>
+      <c r="S15" s="291"/>
+      <c r="T15" s="291"/>
+      <c r="U15" s="291"/>
+      <c r="V15" s="291"/>
+      <c r="W15" s="292"/>
       <c r="X15" s="137"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24">
       <c r="A16" s="39" t="s">
         <v>370</v>
       </c>
@@ -21754,15 +21719,15 @@
       <c r="P16" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R16" s="300"/>
-      <c r="S16" s="301"/>
-      <c r="T16" s="301"/>
-      <c r="U16" s="301"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="302"/>
+      <c r="R16" s="293"/>
+      <c r="S16" s="294"/>
+      <c r="T16" s="294"/>
+      <c r="U16" s="294"/>
+      <c r="V16" s="294"/>
+      <c r="W16" s="295"/>
       <c r="X16" s="137"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24">
       <c r="A17" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -21808,15 +21773,15 @@
       <c r="P17" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R17" s="297"/>
-      <c r="S17" s="298"/>
-      <c r="T17" s="298"/>
-      <c r="U17" s="298"/>
-      <c r="V17" s="298"/>
-      <c r="W17" s="299"/>
+      <c r="R17" s="290"/>
+      <c r="S17" s="291"/>
+      <c r="T17" s="291"/>
+      <c r="U17" s="291"/>
+      <c r="V17" s="291"/>
+      <c r="W17" s="292"/>
       <c r="X17" s="137"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24">
       <c r="A18" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -21862,15 +21827,15 @@
       <c r="P18" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R18" s="300"/>
-      <c r="S18" s="301"/>
-      <c r="T18" s="301"/>
-      <c r="U18" s="301"/>
-      <c r="V18" s="301"/>
-      <c r="W18" s="302"/>
+      <c r="R18" s="293"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="294"/>
+      <c r="U18" s="294"/>
+      <c r="V18" s="294"/>
+      <c r="W18" s="295"/>
       <c r="X18" s="137"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24">
       <c r="A19" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -21906,7 +21871,7 @@
       </c>
       <c r="X19" s="137"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24">
       <c r="A20" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -21941,7 +21906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24">
       <c r="A21" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -21986,7 +21951,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24">
       <c r="A22" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -22031,7 +21996,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24">
       <c r="A23" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -22076,7 +22041,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24">
       <c r="E24" s="36" t="s">
         <v>336</v>
       </c>
@@ -22113,11 +22078,11 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="270" t="s">
+    <row r="25" spans="1:24">
+      <c r="A25" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="271"/>
+      <c r="B25" s="282"/>
       <c r="C25" s="34"/>
       <c r="E25" s="36" t="s">
         <v>337</v>
@@ -22155,7 +22120,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24">
       <c r="A26" s="39" t="s">
         <v>49</v>
       </c>
@@ -22201,7 +22166,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24">
       <c r="A27" s="39" t="s">
         <v>66</v>
       </c>
@@ -22231,7 +22196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -22259,7 +22224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -22287,7 +22252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24">
       <c r="E30" s="36" t="s">
         <v>342</v>
       </c>
@@ -22312,12 +22277,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="279" t="s">
+    <row r="31" spans="1:24">
+      <c r="A31" s="302" t="s">
         <v>397</v>
       </c>
-      <c r="B31" s="279"/>
-      <c r="C31" s="279"/>
+      <c r="B31" s="302"/>
+      <c r="C31" s="302"/>
       <c r="E31" s="36" t="s">
         <v>343</v>
       </c>
@@ -22342,10 +22307,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="279"/>
-      <c r="B32" s="279"/>
-      <c r="C32" s="279"/>
+    <row r="32" spans="1:24">
+      <c r="A32" s="302"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="302"/>
       <c r="E32" s="36" t="s">
         <v>344</v>
       </c>
@@ -22382,10 +22347,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="279"/>
-      <c r="B33" s="279"/>
-      <c r="C33" s="279"/>
+    <row r="33" spans="1:16" ht="14.5" customHeight="1">
+      <c r="A33" s="302"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
       <c r="E33" s="36" t="s">
         <v>345</v>
       </c>
@@ -22422,7 +22387,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="E34" s="36" t="s">
         <v>346</v>
       </c>
@@ -22459,7 +22424,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16">
       <c r="E35" s="36" t="s">
         <v>347</v>
       </c>
@@ -22486,7 +22451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="14.5" customHeight="1">
       <c r="E36" s="36" t="s">
         <v>348</v>
       </c>
@@ -22513,7 +22478,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="E37" s="36" t="s">
         <v>349</v>
       </c>
@@ -22533,7 +22498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16">
       <c r="E38" s="36" t="s">
         <v>350</v>
       </c>
@@ -22553,7 +22518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16">
       <c r="E39" s="36" t="s">
         <v>351</v>
       </c>
@@ -22573,7 +22538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="E40" s="36" t="s">
         <v>352</v>
       </c>
@@ -22593,7 +22558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="E41" s="36" t="s">
         <v>353</v>
       </c>
@@ -22613,7 +22578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16">
       <c r="E42" s="36" t="s">
         <v>354</v>
       </c>
@@ -22633,7 +22598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="E43" s="36" t="s">
         <v>355</v>
       </c>
@@ -22653,7 +22618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16">
       <c r="E44" s="36" t="s">
         <v>356</v>
       </c>
@@ -22689,7 +22654,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16">
       <c r="E45" s="36" t="s">
         <v>357</v>
       </c>
@@ -22725,7 +22690,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16">
       <c r="E46" s="36" t="s">
         <v>358</v>
       </c>
@@ -22745,7 +22710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16">
       <c r="E47" s="36" t="s">
         <v>359</v>
       </c>
@@ -22765,7 +22730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16">
       <c r="E48" s="36" t="s">
         <v>360</v>
       </c>
@@ -22785,7 +22750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:16">
       <c r="E49" s="36" t="s">
         <v>361</v>
       </c>
@@ -22805,7 +22770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:16">
       <c r="E50" s="36" t="s">
         <v>362</v>
       </c>
@@ -22825,7 +22790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:16">
       <c r="E51" s="36" t="s">
         <v>363</v>
       </c>
@@ -22850,7 +22815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:16">
       <c r="E52" s="36" t="s">
         <v>364</v>
       </c>
@@ -22887,7 +22852,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:16">
       <c r="E53" s="54" t="s">
         <v>365</v>
       </c>
@@ -22911,7 +22876,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:16">
       <c r="E54" s="54" t="s">
         <v>368</v>
       </c>
@@ -22935,7 +22900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:16">
       <c r="E55" s="54" t="s">
         <v>366</v>
       </c>
@@ -22972,7 +22937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:16">
       <c r="E56" s="54" t="s">
         <v>367</v>
       </c>
@@ -23009,7 +22974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:16">
       <c r="E57" s="54" t="s">
         <v>370</v>
       </c>
@@ -23043,21 +23008,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A31:C33"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="R5:S5"/>
@@ -23074,34 +23024,49 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="R14:W14"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="F37:F43 F46:F48">
-    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="6" stopIfTrue="1">
       <formula>E37=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F26 F32:F34">
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="5" stopIfTrue="1">
       <formula>E20=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F11 F16:F18">
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="4" stopIfTrue="1">
       <formula>E5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
       <formula>E57=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="2" stopIfTrue="1">
       <formula>E52=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="1" stopIfTrue="1">
       <formula>E43=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23137,7 +23102,7 @@
       <selection pane="bottomLeft" activeCell="X57" sqref="X57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.7265625" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" style="39" bestFit="1" customWidth="1"/>
@@ -23166,57 +23131,57 @@
     <col min="31" max="32" width="5.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E1" s="280" t="s">
+    <row r="1" spans="1:26">
+      <c r="E1" s="303" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303"/>
+      <c r="Q1" s="303"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="286" t="s">
+      <c r="E2" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283" t="s">
+      <c r="F2" s="305"/>
+      <c r="G2" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283" t="s">
+      <c r="H2" s="305"/>
+      <c r="I2" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="283"/>
+      <c r="J2" s="305"/>
       <c r="K2" s="151"/>
-      <c r="L2" s="287" t="s">
+      <c r="L2" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="283" t="s">
+      <c r="M2" s="309"/>
+      <c r="N2" s="309"/>
+      <c r="O2" s="310"/>
+      <c r="P2" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="284"/>
+      <c r="Q2" s="306"/>
       <c r="Z2" s="137"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="270" t="s">
+    <row r="3" spans="1:26">
+      <c r="A3" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="271"/>
+      <c r="B3" s="282"/>
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
@@ -23259,17 +23224,17 @@
       <c r="Q3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="281" t="s">
+      <c r="T3" s="304" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="281"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="298"/>
+      <c r="W3" s="298"/>
+      <c r="X3" s="298"/>
+      <c r="Y3" s="298"/>
       <c r="Z3" s="139"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26">
       <c r="A4" s="39" t="s">
         <v>69</v>
       </c>
@@ -23319,17 +23284,17 @@
       <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="285" t="s">
+      <c r="T4" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="285"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="282"/>
+      <c r="U4" s="299"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="298"/>
+      <c r="X4" s="298"/>
+      <c r="Y4" s="298"/>
       <c r="Z4" s="139"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26">
       <c r="A5" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -23381,17 +23346,17 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="281" t="s">
+      <c r="T5" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="281"/>
-      <c r="V5" s="282"/>
-      <c r="W5" s="282"/>
-      <c r="X5" s="282"/>
-      <c r="Y5" s="282"/>
+      <c r="U5" s="304"/>
+      <c r="V5" s="298"/>
+      <c r="W5" s="298"/>
+      <c r="X5" s="298"/>
+      <c r="Y5" s="298"/>
       <c r="Z5" s="139"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26">
       <c r="A6" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -23443,20 +23408,20 @@
       <c r="Q6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="285" t="s">
+      <c r="T6" s="299" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="285"/>
-      <c r="V6" s="282" t="str">
+      <c r="U6" s="299"/>
+      <c r="V6" s="298" t="str">
         <f>S4048_1_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="W6" s="282"/>
-      <c r="X6" s="282"/>
-      <c r="Y6" s="282"/>
+      <c r="W6" s="298"/>
+      <c r="X6" s="298"/>
+      <c r="Y6" s="298"/>
       <c r="Z6" s="139"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26">
       <c r="A7" s="39">
         <f>TenTunnel</f>
         <v>130</v>
@@ -23510,7 +23475,7 @@
       </c>
       <c r="Z7" s="137"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26">
       <c r="A8" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -23562,19 +23527,19 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="293" t="s">
+      <c r="T8" s="296" t="s">
         <v>167</v>
       </c>
-      <c r="U8" s="293"/>
-      <c r="V8" s="293"/>
-      <c r="W8" s="294" t="s">
+      <c r="U8" s="296"/>
+      <c r="V8" s="296"/>
+      <c r="W8" s="297" t="s">
         <v>287</v>
       </c>
-      <c r="X8" s="294"/>
-      <c r="Y8" s="294"/>
+      <c r="X8" s="297"/>
+      <c r="Y8" s="297"/>
       <c r="Z8" s="139"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26">
       <c r="A9" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -23626,17 +23591,17 @@
       <c r="Q9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="295" t="s">
+      <c r="T9" s="300" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="295"/>
-      <c r="V9" s="295"/>
-      <c r="W9" s="282"/>
-      <c r="X9" s="282"/>
-      <c r="Y9" s="282"/>
+      <c r="U9" s="300"/>
+      <c r="V9" s="300"/>
+      <c r="W9" s="298"/>
+      <c r="X9" s="298"/>
+      <c r="Y9" s="298"/>
       <c r="Z9" s="139"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26">
       <c r="A10" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -23688,19 +23653,19 @@
       <c r="Q10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="296" t="s">
+      <c r="T10" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="296"/>
-      <c r="V10" s="296"/>
-      <c r="W10" s="282">
+      <c r="U10" s="301"/>
+      <c r="V10" s="301"/>
+      <c r="W10" s="298">
         <v>16384</v>
       </c>
-      <c r="X10" s="282"/>
-      <c r="Y10" s="282"/>
+      <c r="X10" s="298"/>
+      <c r="Y10" s="298"/>
       <c r="Z10" s="139"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26">
       <c r="A11" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -23735,7 +23700,7 @@
       <c r="Q11" s="61"/>
       <c r="Z11" s="137"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26">
       <c r="A12" s="39">
         <f>EXTTen</f>
         <v>191</v>
@@ -23768,17 +23733,17 @@
       <c r="O12" s="130"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="61"/>
-      <c r="T12" s="309" t="s">
+      <c r="T12" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="310"/>
-      <c r="V12" s="311"/>
-      <c r="W12" s="312"/>
-      <c r="X12" s="313"/>
-      <c r="Y12" s="314"/>
+      <c r="U12" s="316"/>
+      <c r="V12" s="317"/>
+      <c r="W12" s="318"/>
+      <c r="X12" s="319"/>
+      <c r="Y12" s="320"/>
       <c r="Z12" s="139"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26">
       <c r="A13" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -23810,19 +23775,19 @@
       <c r="O13" s="130"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="61"/>
-      <c r="T13" s="306" t="s">
+      <c r="T13" s="321" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="307"/>
-      <c r="V13" s="308"/>
-      <c r="W13" s="303">
+      <c r="U13" s="322"/>
+      <c r="V13" s="323"/>
+      <c r="W13" s="324">
         <v>1</v>
       </c>
-      <c r="X13" s="304"/>
-      <c r="Y13" s="305"/>
+      <c r="X13" s="325"/>
+      <c r="Y13" s="326"/>
       <c r="Z13" s="139"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26">
       <c r="A14" s="137"/>
       <c r="B14" s="137"/>
       <c r="C14" s="36"/>
@@ -23847,23 +23812,23 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="T14" s="306" t="s">
+      <c r="T14" s="321" t="s">
         <v>166</v>
       </c>
-      <c r="U14" s="307"/>
-      <c r="V14" s="308"/>
-      <c r="W14" s="312">
+      <c r="U14" s="322"/>
+      <c r="V14" s="323"/>
+      <c r="W14" s="318">
         <v>1</v>
       </c>
-      <c r="X14" s="313"/>
-      <c r="Y14" s="314"/>
+      <c r="X14" s="319"/>
+      <c r="Y14" s="320"/>
       <c r="Z14" s="139"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="286" t="s">
+    <row r="15" spans="1:26">
+      <c r="A15" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="284"/>
+      <c r="B15" s="306"/>
       <c r="C15" s="36"/>
       <c r="E15" s="36" t="s">
         <v>239</v>
@@ -23905,19 +23870,19 @@
       <c r="Q15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="309" t="s">
+      <c r="T15" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="U15" s="310"/>
-      <c r="V15" s="311"/>
-      <c r="W15" s="312">
+      <c r="U15" s="316"/>
+      <c r="V15" s="317"/>
+      <c r="W15" s="318">
         <v>0</v>
       </c>
-      <c r="X15" s="313"/>
-      <c r="Y15" s="314"/>
+      <c r="X15" s="319"/>
+      <c r="Y15" s="320"/>
       <c r="Z15" s="139"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26">
       <c r="A16" s="39" t="s">
         <v>36</v>
       </c>
@@ -23966,7 +23931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25">
       <c r="A17" s="39" t="s">
         <v>370</v>
       </c>
@@ -24015,16 +23980,16 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="290" t="s">
+      <c r="T17" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="291"/>
-      <c r="V17" s="291"/>
-      <c r="W17" s="291"/>
-      <c r="X17" s="291"/>
-      <c r="Y17" s="292"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="U17" s="312"/>
+      <c r="V17" s="312"/>
+      <c r="W17" s="312"/>
+      <c r="X17" s="312"/>
+      <c r="Y17" s="313"/>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="39">
         <f>OOB</f>
         <v>110</v>
@@ -24055,14 +24020,14 @@
       <c r="Q18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="297"/>
-      <c r="U18" s="298"/>
-      <c r="V18" s="298"/>
-      <c r="W18" s="298"/>
-      <c r="X18" s="298"/>
-      <c r="Y18" s="299"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T18" s="290"/>
+      <c r="U18" s="291"/>
+      <c r="V18" s="291"/>
+      <c r="W18" s="291"/>
+      <c r="X18" s="291"/>
+      <c r="Y18" s="292"/>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="39">
         <f>Provisioner</f>
         <v>120</v>
@@ -24093,14 +24058,14 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="300"/>
-      <c r="U19" s="301"/>
-      <c r="V19" s="301"/>
-      <c r="W19" s="301"/>
-      <c r="X19" s="301"/>
-      <c r="Y19" s="302"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T19" s="293"/>
+      <c r="U19" s="294"/>
+      <c r="V19" s="294"/>
+      <c r="W19" s="294"/>
+      <c r="X19" s="294"/>
+      <c r="Y19" s="295"/>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="39">
         <f>PrivAPI</f>
         <v>140</v>
@@ -24127,14 +24092,14 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="297"/>
-      <c r="U20" s="298"/>
-      <c r="V20" s="298"/>
-      <c r="W20" s="298"/>
-      <c r="X20" s="298"/>
-      <c r="Y20" s="299"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T20" s="290"/>
+      <c r="U20" s="291"/>
+      <c r="V20" s="291"/>
+      <c r="W20" s="291"/>
+      <c r="X20" s="291"/>
+      <c r="Y20" s="292"/>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="39">
         <f>Storage</f>
         <v>170</v>
@@ -24161,14 +24126,14 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="300"/>
-      <c r="U21" s="301"/>
-      <c r="V21" s="301"/>
-      <c r="W21" s="301"/>
-      <c r="X21" s="301"/>
-      <c r="Y21" s="302"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="T21" s="293"/>
+      <c r="U21" s="294"/>
+      <c r="V21" s="294"/>
+      <c r="W21" s="294"/>
+      <c r="X21" s="294"/>
+      <c r="Y21" s="295"/>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="39">
         <f>CephCluster</f>
         <v>180</v>
@@ -24196,7 +24161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25">
       <c r="A23" s="39">
         <f>ExtAPI</f>
         <v>190</v>
@@ -24224,7 +24189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25">
       <c r="A24" s="39" t="str">
         <f>CONCATENATE(TenantBeg,"-",TenantEnd)</f>
         <v>201-250</v>
@@ -24252,7 +24217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="36"/>
@@ -24278,11 +24243,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="315" t="s">
+    <row r="26" spans="1:25">
+      <c r="A26" s="314" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="315"/>
+      <c r="B26" s="314"/>
       <c r="C26" s="36"/>
       <c r="E26" s="36" t="s">
         <v>250</v>
@@ -24306,9 +24271,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="315"/>
-      <c r="B27" s="315"/>
+    <row r="27" spans="1:25">
+      <c r="A27" s="314"/>
+      <c r="B27" s="314"/>
       <c r="C27" s="36"/>
       <c r="E27" s="36" t="s">
         <v>251</v>
@@ -24332,11 +24297,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="270" t="s">
+    <row r="28" spans="1:25">
+      <c r="A28" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="271"/>
+      <c r="B28" s="282"/>
       <c r="C28" s="36"/>
       <c r="E28" s="36" t="s">
         <v>252</v>
@@ -24379,7 +24344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25">
       <c r="A29" s="39" t="s">
         <v>49</v>
       </c>
@@ -24428,7 +24393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25">
       <c r="A30" s="39" t="s">
         <v>66</v>
       </c>
@@ -24474,7 +24439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25">
       <c r="C31" s="137"/>
       <c r="E31" s="36" t="s">
         <v>255</v>
@@ -24517,7 +24482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25">
       <c r="C32" s="137"/>
       <c r="E32" s="36" t="s">
         <v>256</v>
@@ -24560,10 +24525,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="279"/>
-      <c r="B33" s="279"/>
-      <c r="C33" s="279"/>
+    <row r="33" spans="1:17">
+      <c r="A33" s="302"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
       <c r="E33" s="36" t="s">
         <v>257</v>
       </c>
@@ -24605,10 +24570,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="279"/>
-      <c r="B34" s="279"/>
-      <c r="C34" s="279"/>
+    <row r="34" spans="1:17">
+      <c r="A34" s="302"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="302"/>
       <c r="E34" s="36" t="s">
         <v>258</v>
       </c>
@@ -24650,10 +24615,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="279"/>
-      <c r="B35" s="279"/>
-      <c r="C35" s="279"/>
+    <row r="35" spans="1:17">
+      <c r="A35" s="302"/>
+      <c r="B35" s="302"/>
+      <c r="C35" s="302"/>
       <c r="E35" s="36" t="s">
         <v>259</v>
       </c>
@@ -24676,7 +24641,7 @@
       <c r="P35" s="48"/>
       <c r="Q35" s="61"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17">
       <c r="A36"/>
       <c r="B36"/>
       <c r="E36" s="36" t="s">
@@ -24701,7 +24666,7 @@
       <c r="P36" s="48"/>
       <c r="Q36" s="61"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17">
       <c r="A37"/>
       <c r="B37"/>
       <c r="E37" s="36" t="s">
@@ -24726,7 +24691,7 @@
       <c r="P37" s="48"/>
       <c r="Q37" s="61"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17">
       <c r="E38" s="36" t="s">
         <v>262</v>
       </c>
@@ -24749,7 +24714,7 @@
       <c r="P38" s="48"/>
       <c r="Q38" s="61"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17">
       <c r="E39" s="36" t="s">
         <v>263</v>
       </c>
@@ -24791,7 +24756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17">
       <c r="E40" s="36" t="s">
         <v>264</v>
       </c>
@@ -24833,7 +24798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17">
       <c r="E41" s="36" t="s">
         <v>265</v>
       </c>
@@ -24875,7 +24840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17">
       <c r="E42" s="36" t="s">
         <v>266</v>
       </c>
@@ -24898,7 +24863,7 @@
       <c r="P42" s="48"/>
       <c r="Q42" s="61"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17">
       <c r="E43" s="36" t="s">
         <v>267</v>
       </c>
@@ -24923,7 +24888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17">
       <c r="E44" s="36" t="s">
         <v>268</v>
       </c>
@@ -24964,7 +24929,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17">
       <c r="E45" s="36" t="s">
         <v>269</v>
       </c>
@@ -25005,7 +24970,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17">
       <c r="E46" s="36" t="s">
         <v>270</v>
       </c>
@@ -25028,7 +24993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="E47" s="36" t="s">
         <v>271</v>
       </c>
@@ -25051,7 +25016,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="E48" s="36" t="s">
         <v>272</v>
       </c>
@@ -25074,7 +25039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:17">
       <c r="E49" s="36" t="s">
         <v>273</v>
       </c>
@@ -25097,7 +25062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:17">
       <c r="E50" s="36" t="s">
         <v>274</v>
       </c>
@@ -25135,7 +25100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:17">
       <c r="E51" s="36" t="s">
         <v>275</v>
       </c>
@@ -25173,7 +25138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:17">
       <c r="E52" s="54" t="s">
         <v>276</v>
       </c>
@@ -25210,7 +25175,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:17">
       <c r="E53" s="54" t="s">
         <v>277</v>
       </c>
@@ -25247,7 +25212,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:17">
       <c r="E54" s="54" t="s">
         <v>278</v>
       </c>
@@ -25285,7 +25250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:17">
       <c r="E55" s="54" t="s">
         <v>68</v>
       </c>
@@ -25306,7 +25271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:17">
       <c r="E56" s="54" t="s">
         <v>279</v>
       </c>
@@ -25327,7 +25292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:17">
       <c r="E57" s="54" t="s">
         <v>280</v>
       </c>
@@ -25344,7 +25309,7 @@
       <c r="P57" s="127"/>
       <c r="Q57" s="127"/>
     </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:17">
       <c r="E58" s="54" t="s">
         <v>370</v>
       </c>
@@ -25375,28 +25340,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V6:Y6"/>
     <mergeCell ref="A33:C35"/>
     <mergeCell ref="T20:Y20"/>
     <mergeCell ref="T21:Y21"/>
@@ -25413,14 +25356,36 @@
     <mergeCell ref="W12:Y12"/>
     <mergeCell ref="W10:Y10"/>
     <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="F52:F53">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="2" stopIfTrue="1">
       <formula>E52=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
       <formula>E58=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25556,18 +25521,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25587,14 +25552,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42535616-3E13-4575-9B51-ECA7D821FF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -25607,4 +25564,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/sample_switch_configs/PowerEdge-R/Solution-Workbook.xlsx
+++ b/data/sample_switch_configs/PowerEdge-R/Solution-Workbook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetStream-10.0\April-25-2017\JetStream\data\sample_switch_configs\PowerEdge-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RANDY_perryman\Documents\GitHub\dell-esg\JetPack\data\sample_switch_configs\PowerEdge-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" tabRatio="888" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" tabRatio="888" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -6331,6 +6331,45 @@
     <xf numFmtId="0" fontId="0" fillId="97" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="26" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6370,60 +6409,145 @@
     <xf numFmtId="0" fontId="43" fillId="27" borderId="33" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="39" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6437,10 +6561,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="58" xfId="1629" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6458,126 +6578,6 @@
     <xf numFmtId="0" fontId="60" fillId="41" borderId="37" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6610,60 +6610,72 @@
     <xf numFmtId="0" fontId="49" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6685,29 +6697,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6716,6 +6707,15 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10348,15 +10348,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>336550</xdr:colOff>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10453,33 +10453,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>84666</xdr:colOff>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>58419</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>183895</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>149170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="84666" y="58419"/>
-          <a:ext cx="10780184" cy="8964676"/>
+          <a:off x="214312" y="100012"/>
+          <a:ext cx="9777412" cy="8631183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13097,7 +13103,7 @@
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1"/>
@@ -13114,7 +13120,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19">
+    <row r="2" spans="1:13" ht="18.75">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -13178,7 +13184,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -13193,21 +13199,21 @@
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15.5">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="4"/>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="200"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="213"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
@@ -13293,21 +13299,21 @@
       <c r="L12" s="15"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15.5">
+    <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="4"/>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="203"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="216"/>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
@@ -13393,21 +13399,21 @@
       <c r="L18" s="18"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="15.5">
+    <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="4"/>
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="206"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="219"/>
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
@@ -13444,7 +13450,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="4"/>
       <c r="B22" s="19" t="s">
         <v>14</v>
@@ -13461,7 +13467,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -13478,19 +13484,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="209"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
+      <c r="L24" s="222"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
@@ -13612,7 +13618,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="19" t="s">
         <v>23</v>
@@ -13629,7 +13635,7 @@
       <c r="L32" s="28"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -13644,112 +13650,112 @@
       <c r="L33" s="29"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1">
+    <row r="34" spans="1:13" ht="15.75" thickBot="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="210" t="s">
+      <c r="B34" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="211"/>
-      <c r="D34" s="211"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="211"/>
-      <c r="K34" s="211"/>
-      <c r="L34" s="212"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="225"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1">
+    <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="213" t="s">
+      <c r="C35" s="205"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="213" t="s">
+      <c r="F35" s="205"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="214"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="213" t="s">
+      <c r="I35" s="205"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="215"/>
+      <c r="L35" s="206"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="216">
+      <c r="B36" s="207">
         <v>1</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="217"/>
-      <c r="G36" s="217"/>
-      <c r="H36" s="217"/>
-      <c r="I36" s="217"/>
-      <c r="J36" s="217"/>
-      <c r="K36" s="217"/>
-      <c r="L36" s="219"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="208"/>
+      <c r="L36" s="210"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="223">
+      <c r="B37" s="201">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="224"/>
-      <c r="G37" s="224"/>
-      <c r="H37" s="224"/>
-      <c r="I37" s="224"/>
-      <c r="J37" s="224"/>
-      <c r="K37" s="224"/>
-      <c r="L37" s="225"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="202"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="202"/>
+      <c r="L37" s="203"/>
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="223">
+      <c r="B38" s="201">
         <v>1.2</v>
       </c>
-      <c r="C38" s="224"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="224"/>
-      <c r="F38" s="224"/>
-      <c r="G38" s="224"/>
-      <c r="H38" s="224"/>
-      <c r="I38" s="224"/>
-      <c r="J38" s="224"/>
-      <c r="K38" s="224"/>
-      <c r="L38" s="225"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="202"/>
+      <c r="K38" s="202"/>
+      <c r="L38" s="203"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="220">
+      <c r="B39" s="198">
         <v>1.3</v>
       </c>
-      <c r="C39" s="221"/>
-      <c r="D39" s="221"/>
-      <c r="E39" s="221"/>
-      <c r="F39" s="221"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="221"/>
-      <c r="I39" s="221"/>
-      <c r="J39" s="221"/>
-      <c r="K39" s="221"/>
-      <c r="L39" s="222"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="199"/>
+      <c r="L39" s="200"/>
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13">
@@ -13769,6 +13775,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:J39"/>
@@ -13781,22 +13800,13 @@
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B34:L34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13813,26 +13823,26 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="137" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="137" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="137"/>
-    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.26953125" customWidth="1"/>
-    <col min="25" max="25" width="9.26953125" style="137"/>
+    <col min="1" max="1" width="16.140625" style="137" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="137" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="137"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -13844,21 +13854,21 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="303" t="s">
+      <c r="E2" s="291" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
-      <c r="O2" s="303"/>
-      <c r="P2" s="303"/>
-      <c r="Q2" s="303"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
       <c r="S2" s="125"/>
       <c r="T2" s="125"/>
       <c r="U2" s="125"/>
@@ -13875,37 +13885,37 @@
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="307" t="s">
+      <c r="E3" s="297" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305" t="s">
+      <c r="F3" s="294"/>
+      <c r="G3" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305" t="s">
+      <c r="H3" s="294"/>
+      <c r="I3" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="305"/>
+      <c r="J3" s="294"/>
       <c r="K3" s="151"/>
-      <c r="L3" s="308" t="s">
+      <c r="L3" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="310"/>
-      <c r="P3" s="305" t="s">
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="300"/>
+      <c r="P3" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="306"/>
-      <c r="S3" s="330" t="s">
+      <c r="Q3" s="295"/>
+      <c r="S3" s="327" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="331"/>
-      <c r="U3" s="318"/>
-      <c r="V3" s="319"/>
-      <c r="W3" s="319"/>
-      <c r="X3" s="320"/>
+      <c r="T3" s="328"/>
+      <c r="U3" s="323"/>
+      <c r="V3" s="324"/>
+      <c r="W3" s="324"/>
+      <c r="X3" s="325"/>
       <c r="Y3" s="146"/>
     </row>
     <row r="4" spans="1:25">
@@ -13957,14 +13967,14 @@
       <c r="Q4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="332" t="s">
+      <c r="S4" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="333"/>
-      <c r="U4" s="318"/>
-      <c r="V4" s="319"/>
-      <c r="W4" s="319"/>
-      <c r="X4" s="320"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="323"/>
+      <c r="V4" s="324"/>
+      <c r="W4" s="324"/>
+      <c r="X4" s="325"/>
       <c r="Y4" s="146"/>
     </row>
     <row r="5" spans="1:25">
@@ -14019,14 +14029,14 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="330" t="s">
+      <c r="S5" s="327" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="331"/>
-      <c r="U5" s="318"/>
-      <c r="V5" s="319"/>
-      <c r="W5" s="319"/>
-      <c r="X5" s="320"/>
+      <c r="T5" s="328"/>
+      <c r="U5" s="323"/>
+      <c r="V5" s="324"/>
+      <c r="W5" s="324"/>
+      <c r="X5" s="325"/>
       <c r="Y5" s="146"/>
     </row>
     <row r="6" spans="1:25">
@@ -14081,17 +14091,17 @@
       <c r="Q6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="332" t="s">
+      <c r="S6" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="333"/>
-      <c r="U6" s="318" t="str">
+      <c r="T6" s="330"/>
+      <c r="U6" s="323" t="str">
         <f>S4048_2_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="V6" s="319"/>
-      <c r="W6" s="319"/>
-      <c r="X6" s="320"/>
+      <c r="V6" s="324"/>
+      <c r="W6" s="324"/>
+      <c r="X6" s="325"/>
       <c r="Y6" s="146"/>
     </row>
     <row r="7" spans="1:25">
@@ -14199,16 +14209,16 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="315" t="s">
+      <c r="S8" s="320" t="s">
         <v>167</v>
       </c>
-      <c r="T8" s="316"/>
-      <c r="U8" s="317"/>
-      <c r="V8" s="327" t="s">
+      <c r="T8" s="321"/>
+      <c r="U8" s="322"/>
+      <c r="V8" s="331" t="s">
         <v>287</v>
       </c>
-      <c r="W8" s="328"/>
-      <c r="X8" s="329"/>
+      <c r="W8" s="332"/>
+      <c r="X8" s="333"/>
       <c r="Y8" s="139"/>
     </row>
     <row r="9" spans="1:25">
@@ -14268,9 +14278,9 @@
       </c>
       <c r="T9" s="335"/>
       <c r="U9" s="336"/>
-      <c r="V9" s="318"/>
-      <c r="W9" s="319"/>
-      <c r="X9" s="320"/>
+      <c r="V9" s="323"/>
+      <c r="W9" s="324"/>
+      <c r="X9" s="325"/>
       <c r="Y9" s="146"/>
     </row>
     <row r="10" spans="1:25">
@@ -14330,11 +14340,11 @@
       </c>
       <c r="T10" s="338"/>
       <c r="U10" s="339"/>
-      <c r="V10" s="318">
+      <c r="V10" s="323">
         <v>20480</v>
       </c>
-      <c r="W10" s="319"/>
-      <c r="X10" s="320"/>
+      <c r="W10" s="324"/>
+      <c r="X10" s="325"/>
       <c r="Y10" s="146"/>
     </row>
     <row r="11" spans="1:25">
@@ -14423,14 +14433,14 @@
       <c r="O12" s="130"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="61"/>
-      <c r="S12" s="315" t="s">
+      <c r="S12" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="316"/>
-      <c r="U12" s="317"/>
-      <c r="V12" s="318"/>
-      <c r="W12" s="319"/>
-      <c r="X12" s="320"/>
+      <c r="T12" s="321"/>
+      <c r="U12" s="322"/>
+      <c r="V12" s="323"/>
+      <c r="W12" s="324"/>
+      <c r="X12" s="325"/>
       <c r="Y12" s="146"/>
     </row>
     <row r="13" spans="1:25">
@@ -14465,24 +14475,24 @@
       <c r="O13" s="130"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="61"/>
-      <c r="S13" s="321" t="s">
+      <c r="S13" s="317" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="322"/>
-      <c r="U13" s="323"/>
-      <c r="V13" s="327">
+      <c r="T13" s="318"/>
+      <c r="U13" s="319"/>
+      <c r="V13" s="331">
         <f>VLTDOMAIN</f>
         <v>1</v>
       </c>
-      <c r="W13" s="328"/>
-      <c r="X13" s="329"/>
+      <c r="W13" s="332"/>
+      <c r="X13" s="333"/>
       <c r="Y13" s="139"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="307" t="s">
+      <c r="A14" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="306"/>
+      <c r="B14" s="295"/>
       <c r="E14" s="36" t="s">
         <v>237</v>
       </c>
@@ -14504,16 +14514,16 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="S14" s="321" t="s">
+      <c r="S14" s="317" t="s">
         <v>166</v>
       </c>
-      <c r="T14" s="322"/>
-      <c r="U14" s="323"/>
-      <c r="V14" s="318">
+      <c r="T14" s="318"/>
+      <c r="U14" s="319"/>
+      <c r="V14" s="323">
         <v>2</v>
       </c>
-      <c r="W14" s="319"/>
-      <c r="X14" s="320"/>
+      <c r="W14" s="324"/>
+      <c r="X14" s="325"/>
       <c r="Y14" s="146"/>
     </row>
     <row r="15" spans="1:25">
@@ -14544,16 +14554,16 @@
       <c r="O15" s="130"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="61"/>
-      <c r="S15" s="315" t="s">
+      <c r="S15" s="320" t="s">
         <v>67</v>
       </c>
-      <c r="T15" s="316"/>
-      <c r="U15" s="317"/>
-      <c r="V15" s="318">
+      <c r="T15" s="321"/>
+      <c r="U15" s="322"/>
+      <c r="V15" s="323">
         <v>1</v>
       </c>
-      <c r="W15" s="319"/>
-      <c r="X15" s="320"/>
+      <c r="W15" s="324"/>
+      <c r="X15" s="325"/>
       <c r="Y15" s="146"/>
     </row>
     <row r="16" spans="1:25">
@@ -14651,14 +14661,14 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="311" t="s">
+      <c r="S17" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="312"/>
-      <c r="U17" s="312"/>
-      <c r="V17" s="312"/>
-      <c r="W17" s="312"/>
-      <c r="X17" s="313"/>
+      <c r="T17" s="302"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="303"/>
       <c r="Y17" s="140"/>
     </row>
     <row r="18" spans="1:25">
@@ -14707,12 +14717,12 @@
       <c r="Q18" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="290"/>
-      <c r="T18" s="291"/>
-      <c r="U18" s="291"/>
-      <c r="V18" s="291"/>
-      <c r="W18" s="291"/>
-      <c r="X18" s="292"/>
+      <c r="S18" s="308"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="309"/>
+      <c r="V18" s="309"/>
+      <c r="W18" s="309"/>
+      <c r="X18" s="310"/>
       <c r="Y18" s="141"/>
     </row>
     <row r="19" spans="1:25">
@@ -14744,12 +14754,12 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="293"/>
-      <c r="T19" s="294"/>
-      <c r="U19" s="294"/>
-      <c r="V19" s="294"/>
-      <c r="W19" s="294"/>
-      <c r="X19" s="295"/>
+      <c r="S19" s="311"/>
+      <c r="T19" s="312"/>
+      <c r="U19" s="312"/>
+      <c r="V19" s="312"/>
+      <c r="W19" s="312"/>
+      <c r="X19" s="313"/>
       <c r="Y19" s="141"/>
     </row>
     <row r="20" spans="1:25">
@@ -14781,12 +14791,12 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="290"/>
-      <c r="T20" s="291"/>
-      <c r="U20" s="291"/>
-      <c r="V20" s="291"/>
-      <c r="W20" s="291"/>
-      <c r="X20" s="292"/>
+      <c r="S20" s="308"/>
+      <c r="T20" s="309"/>
+      <c r="U20" s="309"/>
+      <c r="V20" s="309"/>
+      <c r="W20" s="309"/>
+      <c r="X20" s="310"/>
       <c r="Y20" s="141"/>
     </row>
     <row r="21" spans="1:25">
@@ -14816,12 +14826,12 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="293"/>
-      <c r="T21" s="294"/>
-      <c r="U21" s="294"/>
-      <c r="V21" s="294"/>
-      <c r="W21" s="294"/>
-      <c r="X21" s="295"/>
+      <c r="S21" s="311"/>
+      <c r="T21" s="312"/>
+      <c r="U21" s="312"/>
+      <c r="V21" s="312"/>
+      <c r="W21" s="312"/>
+      <c r="X21" s="313"/>
       <c r="Y21" s="141"/>
     </row>
     <row r="22" spans="1:25">
@@ -15167,9 +15177,9 @@
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="302"/>
-      <c r="B32" s="302"/>
-      <c r="C32" s="302"/>
+      <c r="A32" s="290"/>
+      <c r="B32" s="290"/>
+      <c r="C32" s="290"/>
       <c r="E32" s="36" t="s">
         <v>255</v>
       </c>
@@ -15212,9 +15222,9 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="302"/>
-      <c r="B33" s="302"/>
-      <c r="C33" s="302"/>
+      <c r="A33" s="290"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
       <c r="E33" s="36" t="s">
         <v>256</v>
       </c>
@@ -15257,9 +15267,9 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="302"/>
-      <c r="B34" s="302"/>
-      <c r="C34" s="302"/>
+      <c r="A34" s="290"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="290"/>
       <c r="E34" s="36" t="s">
         <v>257</v>
       </c>
@@ -15344,10 +15354,10 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="314" t="s">
+      <c r="A36" s="326" t="s">
         <v>399</v>
       </c>
-      <c r="B36" s="314"/>
+      <c r="B36" s="326"/>
       <c r="E36" s="36" t="s">
         <v>259</v>
       </c>
@@ -15371,8 +15381,8 @@
       <c r="Q36" s="61"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="314"/>
-      <c r="B37" s="314"/>
+      <c r="A37" s="326"/>
+      <c r="B37" s="326"/>
       <c r="E37" s="36" t="s">
         <v>260</v>
       </c>
@@ -16326,6 +16336,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A32:C34"/>
     <mergeCell ref="S20:X20"/>
     <mergeCell ref="S21:X21"/>
@@ -16342,28 +16374,6 @@
     <mergeCell ref="V9:X9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S17:X17"/>
   </mergeCells>
   <conditionalFormatting sqref="F53:F54">
     <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
@@ -16382,6 +16392,10 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="4">
     <tablePart r:id="rId3"/>
@@ -16403,19 +16417,19 @@
       <selection activeCell="F31" sqref="F31:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="66" customWidth="1"/>
-    <col min="2" max="4" width="15.7265625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="66" customWidth="1"/>
-    <col min="6" max="7" width="15.7265625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="66" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" style="66" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="66" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="66" customWidth="1"/>
     <col min="9" max="9" width="4" style="66" customWidth="1"/>
-    <col min="10" max="10" width="0.7265625" style="66" customWidth="1"/>
-    <col min="11" max="11" width="23.1796875" style="96" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" style="96" customWidth="1"/>
-    <col min="13" max="13" width="66.26953125" style="96" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="66"/>
+    <col min="10" max="10" width="0.7109375" style="66" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="96" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" style="96" customWidth="1"/>
+    <col min="13" max="13" width="66.28515625" style="96" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="71" customFormat="1" ht="4.5" customHeight="1">
@@ -16436,15 +16450,15 @@
     </row>
     <row r="2" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="72"/>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="226" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="256"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
       <c r="K2" s="72"/>
@@ -16454,124 +16468,124 @@
     </row>
     <row r="3" spans="1:14" s="73" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="248" t="s">
+      <c r="C3" s="230"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="250"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="231"/>
       <c r="I3" s="72"/>
       <c r="J3" s="72"/>
-      <c r="K3" s="260" t="s">
+      <c r="K3" s="232" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="261"/>
-      <c r="M3" s="262"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="234"/>
       <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" s="73" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="72"/>
-      <c r="B4" s="245"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="231"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="72"/>
       <c r="J4" s="72"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="265"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="243"/>
       <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="72"/>
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="229" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="248" t="s">
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="250"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="231"/>
       <c r="I5" s="72"/>
       <c r="J5" s="74"/>
-      <c r="K5" s="266"/>
-      <c r="L5" s="267"/>
-      <c r="M5" s="268"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="245"/>
+      <c r="M5" s="246"/>
       <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="72"/>
-      <c r="B6" s="272"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
+      <c r="B6" s="250"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
       <c r="I6" s="72"/>
       <c r="J6" s="74"/>
-      <c r="K6" s="266"/>
-      <c r="L6" s="267"/>
-      <c r="M6" s="268"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="246"/>
       <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="72"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="276"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
       <c r="I7" s="72"/>
       <c r="J7" s="72"/>
-      <c r="K7" s="266"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="268"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="246"/>
       <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="72"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="276"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="276"/>
-      <c r="H8" s="276"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="266"/>
-      <c r="L8" s="267"/>
-      <c r="M8" s="268"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="246"/>
       <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="72"/>
-      <c r="B9" s="277"/>
-      <c r="C9" s="277"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="253"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
       <c r="I9" s="72"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="266"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="268"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="246"/>
       <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14" s="73" customFormat="1" ht="5.25" customHeight="1">
@@ -16585,47 +16599,47 @@
       <c r="H10" s="76"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="267"/>
-      <c r="M10" s="268"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
+      <c r="M10" s="246"/>
       <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="72"/>
-      <c r="B11" s="254" t="s">
+      <c r="B11" s="257" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="255"/>
-      <c r="H11" s="256"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="227"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="228"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="267"/>
-      <c r="M11" s="268"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="246"/>
       <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="77"/>
-      <c r="C12" s="248" t="s">
+      <c r="C12" s="229" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="248" t="s">
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="229" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="249"/>
-      <c r="H12" s="250"/>
+      <c r="G12" s="230"/>
+      <c r="H12" s="231"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="267"/>
-      <c r="M12" s="268"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="246"/>
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16633,17 +16647,17 @@
       <c r="B13" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="245"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="247"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="267"/>
-      <c r="M13" s="268"/>
+      <c r="K13" s="244"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="246"/>
       <c r="N13" s="72"/>
     </row>
     <row r="14" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16651,17 +16665,17 @@
       <c r="B14" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="245"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="247"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="236"/>
+      <c r="H14" s="237"/>
       <c r="I14" s="72"/>
       <c r="J14" s="80"/>
-      <c r="K14" s="266"/>
-      <c r="L14" s="267"/>
-      <c r="M14" s="268"/>
+      <c r="K14" s="244"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="246"/>
       <c r="N14" s="72"/>
     </row>
     <row r="15" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16669,17 +16683,17 @@
       <c r="B15" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="229"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="247"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="236"/>
+      <c r="H15" s="237"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="267"/>
-      <c r="M15" s="268"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="246"/>
       <c r="N15" s="72"/>
     </row>
     <row r="16" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -16687,17 +16701,17 @@
       <c r="B16" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="231"/>
-      <c r="F16" s="245"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="247"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="236"/>
+      <c r="H16" s="237"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
-      <c r="K16" s="269"/>
-      <c r="L16" s="270"/>
-      <c r="M16" s="271"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="248"/>
+      <c r="M16" s="249"/>
       <c r="N16" s="72"/>
     </row>
     <row r="17" spans="1:14" s="73" customFormat="1" ht="3" customHeight="1">
@@ -16718,15 +16732,15 @@
     </row>
     <row r="18" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="72"/>
-      <c r="B18" s="254" t="s">
+      <c r="B18" s="257" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="258"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="258"/>
+      <c r="H18" s="259"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
@@ -16737,16 +16751,16 @@
     <row r="19" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="72"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="248" t="s">
+      <c r="C19" s="229" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="249"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="248" t="s">
+      <c r="D19" s="230"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="229" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="249"/>
-      <c r="H19" s="250"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="231"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
@@ -16759,12 +16773,12 @@
       <c r="B20" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="247"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="239"/>
+      <c r="E20" s="240"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="237"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
@@ -16777,12 +16791,12 @@
       <c r="B21" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="245"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="247"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="240"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="237"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
@@ -16795,12 +16809,12 @@
       <c r="B22" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="246"/>
-      <c r="H22" s="247"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="239"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="237"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
@@ -16813,12 +16827,12 @@
       <c r="B23" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="247"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="237"/>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
@@ -16829,16 +16843,16 @@
     <row r="24" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="72"/>
       <c r="B24" s="82"/>
-      <c r="C24" s="248" t="s">
+      <c r="C24" s="229" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="248" t="s">
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="229" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="249"/>
-      <c r="H24" s="250"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="231"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
@@ -16851,12 +16865,12 @@
       <c r="B25" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="229"/>
-      <c r="D25" s="230"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="245"/>
-      <c r="G25" s="246"/>
-      <c r="H25" s="247"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="237"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="83" t="s">
@@ -16871,12 +16885,12 @@
       <c r="B26" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="229"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="247"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="237"/>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="85" t="s">
@@ -16891,12 +16905,12 @@
       <c r="B27" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="247"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="236"/>
+      <c r="H27" s="237"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="85" t="s">
@@ -16911,12 +16925,12 @@
       <c r="B28" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="229"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="245"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="247"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="237"/>
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="87" t="s">
@@ -16931,9 +16945,9 @@
       <c r="B29" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="236"/>
-      <c r="D29" s="251"/>
-      <c r="E29" s="252"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="262"/>
       <c r="F29" s="64"/>
       <c r="G29" s="90"/>
       <c r="H29" s="90"/>
@@ -16947,16 +16961,16 @@
     <row r="30" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="72"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="248" t="s">
+      <c r="C30" s="229" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="249"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="248" t="s">
+      <c r="D30" s="230"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="229" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="249"/>
-      <c r="H30" s="250"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="231"/>
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
       <c r="K30" s="91"/>
@@ -16969,12 +16983,12 @@
       <c r="B31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="229"/>
-      <c r="D31" s="230"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="232"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="234"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="267"/>
+      <c r="H31" s="268"/>
       <c r="I31" s="92"/>
       <c r="J31" s="92"/>
       <c r="K31" s="69"/>
@@ -16987,12 +17001,12 @@
       <c r="B32" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="229"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="232"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="234"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="240"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="268"/>
       <c r="I32" s="92"/>
       <c r="J32" s="92"/>
       <c r="K32" s="69"/>
@@ -17005,12 +17019,12 @@
       <c r="B33" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="229"/>
-      <c r="D33" s="230"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="234"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="267"/>
+      <c r="H33" s="268"/>
       <c r="I33" s="92"/>
       <c r="J33" s="92"/>
       <c r="K33" s="69"/>
@@ -17023,12 +17037,12 @@
       <c r="B34" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="235"/>
-      <c r="G34" s="233"/>
-      <c r="H34" s="234"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="239"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="269"/>
+      <c r="G34" s="267"/>
+      <c r="H34" s="268"/>
       <c r="I34" s="92"/>
       <c r="J34" s="92"/>
       <c r="K34" s="69"/>
@@ -17041,9 +17055,9 @@
       <c r="B35" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="236"/>
-      <c r="D35" s="237"/>
-      <c r="E35" s="238"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="271"/>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
       <c r="H35" s="93"/>
@@ -17054,7 +17068,7 @@
       <c r="M35" s="69"/>
       <c r="N35" s="92"/>
     </row>
-    <row r="36" spans="1:14" ht="13" thickBot="1">
+    <row r="36" spans="1:14" ht="13.5" thickBot="1">
       <c r="A36" s="92"/>
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
@@ -17072,12 +17086,12 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="92"/>
-      <c r="B37" s="239" t="s">
+      <c r="B37" s="272" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="240"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="241"/>
+      <c r="C37" s="273"/>
+      <c r="D37" s="273"/>
+      <c r="E37" s="274"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="93"/>
@@ -17090,11 +17104,11 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="92"/>
-      <c r="B38" s="242" t="s">
+      <c r="B38" s="275" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="243"/>
-      <c r="D38" s="244"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="277"/>
       <c r="E38" s="94"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
@@ -17106,13 +17120,13 @@
       <c r="M38" s="69"/>
       <c r="N38" s="92"/>
     </row>
-    <row r="39" spans="1:14" ht="13" thickBot="1">
+    <row r="39" spans="1:14" ht="13.5" thickBot="1">
       <c r="A39" s="92"/>
-      <c r="B39" s="226" t="s">
+      <c r="B39" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="227"/>
-      <c r="D39" s="228"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="265"/>
       <c r="E39" s="95"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
@@ -17142,6 +17156,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -17158,54 +17220,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 E4">
     <cfRule type="expression" dxfId="169" priority="7">
@@ -17244,15 +17258,15 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.97" header="0.5" footer="0.5"/>
   <pageSetup scale="75" pageOrder="overThenDown" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LDell Inc. Confidential&amp;C&amp;A
+  <headerFooter differentOddEven="1" alignWithMargins="0">
+    <oddFooter>&amp;C&amp;A
 &amp;F&amp;RPage &amp;P
 &amp;T
-&amp;D</oddFooter>
-    <evenFooter>&amp;LDell Inc. Confidential&amp;C&amp;A
+&amp;D&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;C&amp;A
 &amp;F&amp;RPage &amp;P
 &amp;T
-&amp;D</evenFooter>
+&amp;D&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
     <firstFooter>&amp;LDell Inc. Confidential&amp;C&amp;A
 &amp;F&amp;RPage &amp;P
 &amp;T
@@ -17274,17 +17288,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="46"/>
-    <col min="9" max="16384" width="9.1796875" style="33"/>
+    <col min="1" max="1" width="5.7109375" style="59" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="46"/>
+    <col min="9" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17297,7 +17311,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:8" ht="18.5">
+    <row r="2" spans="1:8" ht="18.75">
       <c r="A2" s="278" t="s">
         <v>43</v>
       </c>
@@ -17738,7 +17752,11 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
+  </headerFooter>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -17757,13 +17775,17 @@
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="52"/>
+    <col min="1" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
@@ -17774,15 +17796,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>12700</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>336550</xdr:colOff>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -17809,13 +17831,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="19" max="19" width="35.1796875" customWidth="1"/>
-    <col min="20" max="20" width="31.453125" customWidth="1"/>
-    <col min="21" max="21" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7265625" customWidth="1"/>
+    <col min="19" max="19" width="35.140625" customWidth="1"/>
+    <col min="20" max="20" width="31.42578125" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
     <col min="24" max="24" width="35" customWidth="1"/>
-    <col min="25" max="30" width="7.7265625" customWidth="1"/>
+    <col min="25" max="30" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="19:22" ht="30.75" customHeight="1">
@@ -17950,7 +17972,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="13" spans="19:22" ht="14.5">
+    <row r="13" spans="19:22" ht="15">
       <c r="S13" s="186" t="s">
         <v>548</v>
       </c>
@@ -18180,6 +18202,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="2">
     <tablePart r:id="rId3"/>
@@ -18199,37 +18225,37 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1796875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="26" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.26953125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="18.453125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="21.453125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="18.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="21.42578125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -18240,7 +18266,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="19">
+    <row r="2" spans="1:29" ht="18.75">
       <c r="A2" s="287" t="s">
         <v>72</v>
       </c>
@@ -18250,7 +18276,7 @@
       <c r="E2" s="288"/>
       <c r="F2" s="289"/>
     </row>
-    <row r="3" spans="1:29" ht="15" thickBot="1">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -18294,7 +18320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" thickBot="1">
+    <row r="4" spans="1:29" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="285" t="s">
         <v>78</v>
@@ -18529,7 +18555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" thickBot="1">
+    <row r="10" spans="1:29" ht="15.75" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="285" t="s">
         <v>187</v>
@@ -18610,7 +18636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1">
+    <row r="14" spans="1:29" ht="15.75" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="98" t="s">
         <v>182</v>
@@ -18800,7 +18826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" thickBot="1">
+    <row r="27" spans="1:29" ht="15.75" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="285" t="s">
         <v>93</v>
@@ -18843,7 +18869,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:29" ht="15" thickBot="1">
+    <row r="31" spans="1:29" ht="15.75" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="285" t="s">
         <v>98</v>
@@ -18901,7 +18927,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="285" t="s">
         <v>109</v>
@@ -18961,7 +18987,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="285" t="s">
         <v>119</v>
@@ -18981,7 +19007,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="112" t="s">
         <v>122</v>
@@ -19011,7 +19037,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="116" t="s">
         <v>125</v>
@@ -19043,7 +19069,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="112" t="s">
         <v>125</v>
@@ -19075,7 +19101,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1">
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="116" t="s">
         <v>125</v>
@@ -19127,7 +19153,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="118" t="s">
         <v>125</v>
@@ -19179,7 +19205,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1">
+    <row r="64" spans="1:6" ht="15.75" thickBot="1">
       <c r="A64" s="4"/>
       <c r="B64" s="119" t="s">
         <v>125</v>
@@ -19221,7 +19247,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="112" t="s">
         <v>130</v>
@@ -19414,6 +19440,10 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
+  </headerFooter>
   <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -19443,30 +19473,30 @@
       <selection pane="bottomLeft" activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="7" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.5">
+    <row r="1" spans="1:20" ht="45">
       <c r="A1" s="156" t="s">
         <v>501</v>
       </c>
@@ -19536,7 +19566,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1">
+    <row r="2" spans="1:20" ht="30.75" thickBot="1">
       <c r="A2" s="156" t="s">
         <v>565</v>
       </c>
@@ -19578,7 +19608,7 @@
       <c r="S2" s="156"/>
       <c r="T2" s="156"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="158" t="s">
         <v>471</v>
       </c>
@@ -19608,7 +19638,7 @@
       <c r="S3" s="166"/>
       <c r="T3" s="166"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1">
+    <row r="4" spans="1:20" ht="30.75" thickBot="1">
       <c r="A4" s="158" t="s">
         <v>473</v>
       </c>
@@ -19652,7 +19682,7 @@
       <c r="S4" s="166"/>
       <c r="T4" s="166"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1">
+    <row r="5" spans="1:20" ht="30.75" thickBot="1">
       <c r="A5" s="158" t="s">
         <v>472</v>
       </c>
@@ -19694,7 +19724,7 @@
       <c r="S5" s="166"/>
       <c r="T5" s="166"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1">
       <c r="A6" s="166" t="s">
         <v>456</v>
       </c>
@@ -19748,7 +19778,7 @@
       </c>
       <c r="T6" s="166"/>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1">
       <c r="A7" s="166" t="s">
         <v>457</v>
       </c>
@@ -19802,7 +19832,7 @@
       </c>
       <c r="T7" s="166"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1">
       <c r="A8" s="166" t="s">
         <v>467</v>
       </c>
@@ -19852,7 +19882,7 @@
       </c>
       <c r="T8" s="166"/>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1">
       <c r="A9" s="166" t="s">
         <v>460</v>
       </c>
@@ -19906,7 +19936,7 @@
       </c>
       <c r="T9" s="166"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1">
       <c r="A10" s="166" t="s">
         <v>461</v>
       </c>
@@ -19960,7 +19990,7 @@
       </c>
       <c r="T10" s="166"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1">
       <c r="A11" s="166" t="s">
         <v>462</v>
       </c>
@@ -20014,7 +20044,7 @@
       </c>
       <c r="T11" s="166"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1">
       <c r="A12" s="166" t="s">
         <v>463</v>
       </c>
@@ -20066,7 +20096,7 @@
       </c>
       <c r="T12" s="166"/>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="A13" s="166" t="s">
         <v>458</v>
       </c>
@@ -20118,7 +20148,7 @@
       </c>
       <c r="T13" s="166"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="A14" s="166" t="s">
         <v>459</v>
       </c>
@@ -20170,7 +20200,7 @@
       </c>
       <c r="T14" s="166"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="170" t="s">
         <v>464</v>
       </c>
@@ -20224,7 +20254,7 @@
       </c>
       <c r="T15" s="166"/>
     </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1">
       <c r="A16" s="170" t="s">
         <v>465</v>
       </c>
@@ -20278,7 +20308,7 @@
       </c>
       <c r="T16" s="166"/>
     </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1">
       <c r="A17" s="170" t="s">
         <v>466</v>
       </c>
@@ -20332,7 +20362,7 @@
       </c>
       <c r="T17" s="166"/>
     </row>
-    <row r="18" spans="1:20" s="137" customFormat="1" ht="15" thickBot="1">
+    <row r="18" spans="1:20" s="137" customFormat="1" ht="15.75" thickBot="1">
       <c r="A18" s="195" t="s">
         <v>584</v>
       </c>
@@ -20958,10 +20988,10 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"museo sans for dell,Bold"&amp;KAAAAAA                 Dell - Internal Use - Confidential</oddFooter>
-    <evenFooter>&amp;L&amp;"museo sans for dell,Bold"&amp;KAAAAAA                 Dell - Internal Use - Confidential</evenFooter>
+  <pageSetup scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
     <firstFooter>&amp;L&amp;"museo sans for dell,Bold"&amp;KAAAAAA                 Dell - Internal Use - Confidential</firstFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
@@ -20980,43 +21010,43 @@
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" customWidth="1"/>
-    <col min="18" max="23" width="9.453125" customWidth="1"/>
-    <col min="24" max="26" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="23" width="9.42578125" customWidth="1"/>
+    <col min="24" max="26" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="E2" s="303" t="s">
+      <c r="E2" s="291" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
-      <c r="O2" s="303"/>
-      <c r="P2" s="303"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
       <c r="X2" s="137"/>
     </row>
     <row r="3" spans="1:24">
@@ -21027,36 +21057,36 @@
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="307" t="s">
+      <c r="E3" s="297" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305" t="s">
+      <c r="F3" s="294"/>
+      <c r="G3" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305" t="s">
+      <c r="H3" s="294"/>
+      <c r="I3" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="305"/>
-      <c r="K3" s="308" t="s">
+      <c r="J3" s="294"/>
+      <c r="K3" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="309"/>
-      <c r="M3" s="310"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="300"/>
       <c r="N3" s="150"/>
-      <c r="O3" s="305" t="s">
+      <c r="O3" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="306"/>
-      <c r="R3" s="304" t="s">
+      <c r="P3" s="295"/>
+      <c r="R3" s="292" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="304"/>
-      <c r="T3" s="298"/>
-      <c r="U3" s="298"/>
-      <c r="V3" s="298"/>
-      <c r="W3" s="298"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="293"/>
+      <c r="U3" s="293"/>
+      <c r="V3" s="293"/>
+      <c r="W3" s="293"/>
       <c r="X3" s="137"/>
     </row>
     <row r="4" spans="1:24">
@@ -21105,14 +21135,14 @@
       <c r="P4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="299" t="s">
+      <c r="R4" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="299"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="298"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="298"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="293"/>
+      <c r="U4" s="293"/>
+      <c r="V4" s="293"/>
+      <c r="W4" s="293"/>
       <c r="X4" s="137"/>
     </row>
     <row r="5" spans="1:24">
@@ -21162,14 +21192,14 @@
       <c r="P5" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R5" s="304" t="s">
+      <c r="R5" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="304"/>
-      <c r="T5" s="298"/>
-      <c r="U5" s="298"/>
-      <c r="V5" s="298"/>
-      <c r="W5" s="298"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="293"/>
+      <c r="U5" s="293"/>
+      <c r="V5" s="293"/>
+      <c r="W5" s="293"/>
       <c r="X5" s="137"/>
     </row>
     <row r="6" spans="1:24">
@@ -21219,17 +21249,17 @@
       <c r="P6" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R6" s="299" t="s">
+      <c r="R6" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="299"/>
-      <c r="T6" s="298" t="str">
+      <c r="S6" s="296"/>
+      <c r="T6" s="293" t="str">
         <f>S3048_FW</f>
         <v>fw: 9.11(0.0)</v>
       </c>
-      <c r="U6" s="298"/>
-      <c r="V6" s="298"/>
-      <c r="W6" s="298"/>
+      <c r="U6" s="293"/>
+      <c r="V6" s="293"/>
+      <c r="W6" s="293"/>
       <c r="X6" s="137"/>
     </row>
     <row r="7" spans="1:24">
@@ -21328,16 +21358,16 @@
       <c r="P8" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R8" s="296" t="s">
+      <c r="R8" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="S8" s="296"/>
-      <c r="T8" s="296"/>
-      <c r="U8" s="297" t="s">
+      <c r="S8" s="304"/>
+      <c r="T8" s="304"/>
+      <c r="U8" s="305" t="s">
         <v>287</v>
       </c>
-      <c r="V8" s="297"/>
-      <c r="W8" s="297"/>
+      <c r="V8" s="305"/>
+      <c r="W8" s="305"/>
       <c r="X8" s="137"/>
     </row>
     <row r="9" spans="1:24">
@@ -21387,14 +21417,14 @@
       <c r="P9" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R9" s="300" t="s">
+      <c r="R9" s="306" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="300"/>
-      <c r="T9" s="300"/>
-      <c r="U9" s="298"/>
-      <c r="V9" s="298"/>
-      <c r="W9" s="298"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="293"/>
       <c r="X9" s="137"/>
     </row>
     <row r="10" spans="1:24">
@@ -21444,16 +21474,16 @@
       <c r="P10" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R10" s="301" t="s">
+      <c r="R10" s="307" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="301"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="298">
+      <c r="S10" s="307"/>
+      <c r="T10" s="307"/>
+      <c r="U10" s="293">
         <v>24576</v>
       </c>
-      <c r="V10" s="298"/>
-      <c r="W10" s="298"/>
+      <c r="V10" s="293"/>
+      <c r="W10" s="293"/>
       <c r="X10" s="137"/>
     </row>
     <row r="11" spans="1:24">
@@ -21542,16 +21572,16 @@
       <c r="P12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="296" t="s">
+      <c r="R12" s="304" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="297" t="s">
+      <c r="S12" s="304"/>
+      <c r="T12" s="304"/>
+      <c r="U12" s="305" t="s">
         <v>288</v>
       </c>
-      <c r="V12" s="297"/>
-      <c r="W12" s="297"/>
+      <c r="V12" s="305"/>
+      <c r="W12" s="305"/>
       <c r="X12" s="137"/>
     </row>
     <row r="13" spans="1:24">
@@ -21593,10 +21623,10 @@
       <c r="X13" s="137"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="307" t="s">
+      <c r="A14" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="306"/>
+      <c r="B14" s="295"/>
       <c r="C14" s="34"/>
       <c r="E14" s="36" t="s">
         <v>326</v>
@@ -21623,14 +21653,14 @@
       <c r="P14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="311" t="s">
+      <c r="R14" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="312"/>
-      <c r="T14" s="312"/>
-      <c r="U14" s="312"/>
-      <c r="V14" s="312"/>
-      <c r="W14" s="313"/>
+      <c r="S14" s="302"/>
+      <c r="T14" s="302"/>
+      <c r="U14" s="302"/>
+      <c r="V14" s="302"/>
+      <c r="W14" s="303"/>
       <c r="X14" s="137"/>
     </row>
     <row r="15" spans="1:24">
@@ -21668,12 +21698,12 @@
       <c r="P15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="290"/>
-      <c r="S15" s="291"/>
-      <c r="T15" s="291"/>
-      <c r="U15" s="291"/>
-      <c r="V15" s="291"/>
-      <c r="W15" s="292"/>
+      <c r="R15" s="308"/>
+      <c r="S15" s="309"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="309"/>
+      <c r="V15" s="309"/>
+      <c r="W15" s="310"/>
       <c r="X15" s="137"/>
     </row>
     <row r="16" spans="1:24">
@@ -21719,12 +21749,12 @@
       <c r="P16" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R16" s="293"/>
-      <c r="S16" s="294"/>
-      <c r="T16" s="294"/>
-      <c r="U16" s="294"/>
-      <c r="V16" s="294"/>
-      <c r="W16" s="295"/>
+      <c r="R16" s="311"/>
+      <c r="S16" s="312"/>
+      <c r="T16" s="312"/>
+      <c r="U16" s="312"/>
+      <c r="V16" s="312"/>
+      <c r="W16" s="313"/>
       <c r="X16" s="137"/>
     </row>
     <row r="17" spans="1:24">
@@ -21773,12 +21803,12 @@
       <c r="P17" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R17" s="290"/>
-      <c r="S17" s="291"/>
-      <c r="T17" s="291"/>
-      <c r="U17" s="291"/>
-      <c r="V17" s="291"/>
-      <c r="W17" s="292"/>
+      <c r="R17" s="308"/>
+      <c r="S17" s="309"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="309"/>
+      <c r="V17" s="309"/>
+      <c r="W17" s="310"/>
       <c r="X17" s="137"/>
     </row>
     <row r="18" spans="1:24">
@@ -21827,12 +21857,12 @@
       <c r="P18" s="61" t="s">
         <v>587</v>
       </c>
-      <c r="R18" s="293"/>
-      <c r="S18" s="294"/>
-      <c r="T18" s="294"/>
-      <c r="U18" s="294"/>
-      <c r="V18" s="294"/>
-      <c r="W18" s="295"/>
+      <c r="R18" s="311"/>
+      <c r="S18" s="312"/>
+      <c r="T18" s="312"/>
+      <c r="U18" s="312"/>
+      <c r="V18" s="312"/>
+      <c r="W18" s="313"/>
       <c r="X18" s="137"/>
     </row>
     <row r="19" spans="1:24">
@@ -22278,11 +22308,11 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="302" t="s">
+      <c r="A31" s="290" t="s">
         <v>397</v>
       </c>
-      <c r="B31" s="302"/>
-      <c r="C31" s="302"/>
+      <c r="B31" s="290"/>
+      <c r="C31" s="290"/>
       <c r="E31" s="36" t="s">
         <v>343</v>
       </c>
@@ -22308,9 +22338,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="302"/>
-      <c r="B32" s="302"/>
-      <c r="C32" s="302"/>
+      <c r="A32" s="290"/>
+      <c r="B32" s="290"/>
+      <c r="C32" s="290"/>
       <c r="E32" s="36" t="s">
         <v>344</v>
       </c>
@@ -22347,10 +22377,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.5" customHeight="1">
-      <c r="A33" s="302"/>
-      <c r="B33" s="302"/>
-      <c r="C33" s="302"/>
+    <row r="33" spans="1:16" ht="14.45" customHeight="1">
+      <c r="A33" s="290"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
       <c r="E33" s="36" t="s">
         <v>345</v>
       </c>
@@ -22451,7 +22481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14.5" customHeight="1">
+    <row r="36" spans="1:16" ht="14.45" customHeight="1">
       <c r="E36" s="36" t="s">
         <v>348</v>
       </c>
@@ -23008,6 +23038,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A31:C33"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="R5:S5"/>
@@ -23024,21 +23069,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="R14:W14"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="F37:F43 F46:F48">
     <cfRule type="expression" dxfId="90" priority="6" stopIfTrue="1">
@@ -23080,6 +23110,10 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="4">
     <tablePart r:id="rId3"/>
@@ -23102,79 +23136,79 @@
       <selection pane="bottomLeft" activeCell="X57" sqref="X57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7265625" customWidth="1"/>
-    <col min="20" max="26" width="9.26953125" customWidth="1"/>
-    <col min="27" max="27" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+    <col min="20" max="26" width="9.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21" customWidth="1"/>
-    <col min="29" max="29" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="5.7265625" customWidth="1"/>
+    <col min="29" max="29" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="E1" s="303" t="s">
+      <c r="E1" s="291" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
-      <c r="P1" s="303"/>
-      <c r="Q1" s="303"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
+      <c r="Q1" s="291"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="307" t="s">
+      <c r="E2" s="297" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305" t="s">
+      <c r="F2" s="294"/>
+      <c r="G2" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305" t="s">
+      <c r="H2" s="294"/>
+      <c r="I2" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="305"/>
+      <c r="J2" s="294"/>
       <c r="K2" s="151"/>
-      <c r="L2" s="308" t="s">
+      <c r="L2" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="310"/>
-      <c r="P2" s="305" t="s">
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="306"/>
+      <c r="Q2" s="295"/>
       <c r="Z2" s="137"/>
     </row>
     <row r="3" spans="1:26">
@@ -23224,14 +23258,14 @@
       <c r="Q3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="304" t="s">
+      <c r="T3" s="292" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="304"/>
-      <c r="V3" s="298"/>
-      <c r="W3" s="298"/>
-      <c r="X3" s="298"/>
-      <c r="Y3" s="298"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="293"/>
+      <c r="W3" s="293"/>
+      <c r="X3" s="293"/>
+      <c r="Y3" s="293"/>
       <c r="Z3" s="139"/>
     </row>
     <row r="4" spans="1:26">
@@ -23284,14 +23318,14 @@
       <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="299" t="s">
+      <c r="T4" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="299"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="298"/>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="298"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="293"/>
+      <c r="W4" s="293"/>
+      <c r="X4" s="293"/>
+      <c r="Y4" s="293"/>
       <c r="Z4" s="139"/>
     </row>
     <row r="5" spans="1:26">
@@ -23346,14 +23380,14 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="304" t="s">
+      <c r="T5" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="304"/>
-      <c r="V5" s="298"/>
-      <c r="W5" s="298"/>
-      <c r="X5" s="298"/>
-      <c r="Y5" s="298"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="293"/>
+      <c r="W5" s="293"/>
+      <c r="X5" s="293"/>
+      <c r="Y5" s="293"/>
       <c r="Z5" s="139"/>
     </row>
     <row r="6" spans="1:26">
@@ -23408,17 +23442,17 @@
       <c r="Q6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="299" t="s">
+      <c r="T6" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="299"/>
-      <c r="V6" s="298" t="str">
+      <c r="U6" s="296"/>
+      <c r="V6" s="293" t="str">
         <f>S4048_1_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="W6" s="298"/>
-      <c r="X6" s="298"/>
-      <c r="Y6" s="298"/>
+      <c r="W6" s="293"/>
+      <c r="X6" s="293"/>
+      <c r="Y6" s="293"/>
       <c r="Z6" s="139"/>
     </row>
     <row r="7" spans="1:26">
@@ -23527,16 +23561,16 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="296" t="s">
+      <c r="T8" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="U8" s="296"/>
-      <c r="V8" s="296"/>
-      <c r="W8" s="297" t="s">
+      <c r="U8" s="304"/>
+      <c r="V8" s="304"/>
+      <c r="W8" s="305" t="s">
         <v>287</v>
       </c>
-      <c r="X8" s="297"/>
-      <c r="Y8" s="297"/>
+      <c r="X8" s="305"/>
+      <c r="Y8" s="305"/>
       <c r="Z8" s="139"/>
     </row>
     <row r="9" spans="1:26">
@@ -23591,14 +23625,14 @@
       <c r="Q9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="300" t="s">
+      <c r="T9" s="306" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="300"/>
-      <c r="V9" s="300"/>
-      <c r="W9" s="298"/>
-      <c r="X9" s="298"/>
-      <c r="Y9" s="298"/>
+      <c r="U9" s="306"/>
+      <c r="V9" s="306"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="293"/>
+      <c r="Y9" s="293"/>
       <c r="Z9" s="139"/>
     </row>
     <row r="10" spans="1:26">
@@ -23653,16 +23687,16 @@
       <c r="Q10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="301" t="s">
+      <c r="T10" s="307" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="301"/>
-      <c r="V10" s="301"/>
-      <c r="W10" s="298">
+      <c r="U10" s="307"/>
+      <c r="V10" s="307"/>
+      <c r="W10" s="293">
         <v>16384</v>
       </c>
-      <c r="X10" s="298"/>
-      <c r="Y10" s="298"/>
+      <c r="X10" s="293"/>
+      <c r="Y10" s="293"/>
       <c r="Z10" s="139"/>
     </row>
     <row r="11" spans="1:26">
@@ -23733,14 +23767,14 @@
       <c r="O12" s="130"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="61"/>
-      <c r="T12" s="315" t="s">
+      <c r="T12" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="316"/>
-      <c r="V12" s="317"/>
-      <c r="W12" s="318"/>
-      <c r="X12" s="319"/>
-      <c r="Y12" s="320"/>
+      <c r="U12" s="321"/>
+      <c r="V12" s="322"/>
+      <c r="W12" s="323"/>
+      <c r="X12" s="324"/>
+      <c r="Y12" s="325"/>
       <c r="Z12" s="139"/>
     </row>
     <row r="13" spans="1:26">
@@ -23775,16 +23809,16 @@
       <c r="O13" s="130"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="61"/>
-      <c r="T13" s="321" t="s">
+      <c r="T13" s="317" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="322"/>
-      <c r="V13" s="323"/>
-      <c r="W13" s="324">
+      <c r="U13" s="318"/>
+      <c r="V13" s="319"/>
+      <c r="W13" s="314">
         <v>1</v>
       </c>
-      <c r="X13" s="325"/>
-      <c r="Y13" s="326"/>
+      <c r="X13" s="315"/>
+      <c r="Y13" s="316"/>
       <c r="Z13" s="139"/>
     </row>
     <row r="14" spans="1:26">
@@ -23812,23 +23846,23 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="T14" s="321" t="s">
+      <c r="T14" s="317" t="s">
         <v>166</v>
       </c>
-      <c r="U14" s="322"/>
-      <c r="V14" s="323"/>
-      <c r="W14" s="318">
+      <c r="U14" s="318"/>
+      <c r="V14" s="319"/>
+      <c r="W14" s="323">
         <v>1</v>
       </c>
-      <c r="X14" s="319"/>
-      <c r="Y14" s="320"/>
+      <c r="X14" s="324"/>
+      <c r="Y14" s="325"/>
       <c r="Z14" s="139"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="307" t="s">
+      <c r="A15" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="306"/>
+      <c r="B15" s="295"/>
       <c r="C15" s="36"/>
       <c r="E15" s="36" t="s">
         <v>239</v>
@@ -23870,16 +23904,16 @@
       <c r="Q15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="315" t="s">
+      <c r="T15" s="320" t="s">
         <v>67</v>
       </c>
-      <c r="U15" s="316"/>
-      <c r="V15" s="317"/>
-      <c r="W15" s="318">
+      <c r="U15" s="321"/>
+      <c r="V15" s="322"/>
+      <c r="W15" s="323">
         <v>0</v>
       </c>
-      <c r="X15" s="319"/>
-      <c r="Y15" s="320"/>
+      <c r="X15" s="324"/>
+      <c r="Y15" s="325"/>
       <c r="Z15" s="139"/>
     </row>
     <row r="16" spans="1:26">
@@ -23980,14 +24014,14 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="311" t="s">
+      <c r="T17" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="312"/>
-      <c r="V17" s="312"/>
-      <c r="W17" s="312"/>
-      <c r="X17" s="312"/>
-      <c r="Y17" s="313"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="302"/>
+      <c r="Y17" s="303"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="39">
@@ -24020,12 +24054,12 @@
       <c r="Q18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="290"/>
-      <c r="U18" s="291"/>
-      <c r="V18" s="291"/>
-      <c r="W18" s="291"/>
-      <c r="X18" s="291"/>
-      <c r="Y18" s="292"/>
+      <c r="T18" s="308"/>
+      <c r="U18" s="309"/>
+      <c r="V18" s="309"/>
+      <c r="W18" s="309"/>
+      <c r="X18" s="309"/>
+      <c r="Y18" s="310"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="39">
@@ -24058,12 +24092,12 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="293"/>
-      <c r="U19" s="294"/>
-      <c r="V19" s="294"/>
-      <c r="W19" s="294"/>
-      <c r="X19" s="294"/>
-      <c r="Y19" s="295"/>
+      <c r="T19" s="311"/>
+      <c r="U19" s="312"/>
+      <c r="V19" s="312"/>
+      <c r="W19" s="312"/>
+      <c r="X19" s="312"/>
+      <c r="Y19" s="313"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="39">
@@ -24092,12 +24126,12 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="290"/>
-      <c r="U20" s="291"/>
-      <c r="V20" s="291"/>
-      <c r="W20" s="291"/>
-      <c r="X20" s="291"/>
-      <c r="Y20" s="292"/>
+      <c r="T20" s="308"/>
+      <c r="U20" s="309"/>
+      <c r="V20" s="309"/>
+      <c r="W20" s="309"/>
+      <c r="X20" s="309"/>
+      <c r="Y20" s="310"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="39">
@@ -24126,12 +24160,12 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="293"/>
-      <c r="U21" s="294"/>
-      <c r="V21" s="294"/>
-      <c r="W21" s="294"/>
-      <c r="X21" s="294"/>
-      <c r="Y21" s="295"/>
+      <c r="T21" s="311"/>
+      <c r="U21" s="312"/>
+      <c r="V21" s="312"/>
+      <c r="W21" s="312"/>
+      <c r="X21" s="312"/>
+      <c r="Y21" s="313"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="39">
@@ -24244,10 +24278,10 @@
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="314" t="s">
+      <c r="A26" s="326" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="314"/>
+      <c r="B26" s="326"/>
       <c r="C26" s="36"/>
       <c r="E26" s="36" t="s">
         <v>250</v>
@@ -24272,8 +24306,8 @@
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="314"/>
-      <c r="B27" s="314"/>
+      <c r="A27" s="326"/>
+      <c r="B27" s="326"/>
       <c r="C27" s="36"/>
       <c r="E27" s="36" t="s">
         <v>251</v>
@@ -24526,9 +24560,9 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="302"/>
-      <c r="B33" s="302"/>
-      <c r="C33" s="302"/>
+      <c r="A33" s="290"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
       <c r="E33" s="36" t="s">
         <v>257</v>
       </c>
@@ -24571,9 +24605,9 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="302"/>
-      <c r="B34" s="302"/>
-      <c r="C34" s="302"/>
+      <c r="A34" s="290"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="290"/>
       <c r="E34" s="36" t="s">
         <v>258</v>
       </c>
@@ -24616,9 +24650,9 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="302"/>
-      <c r="B35" s="302"/>
-      <c r="C35" s="302"/>
+      <c r="A35" s="290"/>
+      <c r="B35" s="290"/>
+      <c r="C35" s="290"/>
       <c r="E35" s="36" t="s">
         <v>259</v>
       </c>
@@ -25340,6 +25374,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V6:Y6"/>
     <mergeCell ref="A33:C35"/>
     <mergeCell ref="T20:Y20"/>
     <mergeCell ref="T21:Y21"/>
@@ -25356,28 +25412,6 @@
     <mergeCell ref="W12:Y12"/>
     <mergeCell ref="W10:Y10"/>
     <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="F52:F53">
     <cfRule type="expression" dxfId="53" priority="2" stopIfTrue="1">
@@ -25396,6 +25430,10 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</oddFooter>
+    <evenFooter>&amp;L&amp;"arial,Regular"&amp;10&amp;KAAAAAA &amp;"Arial,Regular"Dell - Internal Use - Confidential - Customer Workproduct</evenFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="4">
     <tablePart r:id="rId3"/>
@@ -25521,18 +25559,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25552,6 +25590,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42535616-3E13-4575-9B51-ECA7D821FF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -25564,12 +25610,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/sample_switch_configs/PowerEdge-R/Solution-Workbook.xlsx
+++ b/data/sample_switch_configs/PowerEdge-R/Solution-Workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" tabRatio="888" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" tabRatio="888" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="579">
   <si>
     <t>Infrastructure Deployment Services</t>
   </si>
@@ -1390,9 +1390,6 @@
     <t>R720xd</t>
   </si>
   <si>
-    <t>256GB</t>
-  </si>
-  <si>
     <t>192.168.110.7</t>
   </si>
   <si>
@@ -1405,9 +1402,6 @@
     <t>192.168.170.7</t>
   </si>
   <si>
-    <t>64GB</t>
-  </si>
-  <si>
     <t>192.168.110.8</t>
   </si>
   <si>
@@ -1432,15 +1426,6 @@
     <t>192.168.170.9</t>
   </si>
   <si>
-    <t>128GB</t>
-  </si>
-  <si>
-    <t>RAID10</t>
-  </si>
-  <si>
-    <t>17.5.10</t>
-  </si>
-  <si>
     <t>VM on SAH</t>
   </si>
   <si>
@@ -1501,9 +1486,6 @@
     <t>192.168.110.19</t>
   </si>
   <si>
-    <t>RAID1+</t>
-  </si>
-  <si>
     <t>192.168.110.20</t>
   </si>
   <si>
@@ -1636,15 +1618,6 @@
     <t>Force10 S4048-2</t>
   </si>
   <si>
-    <t>Xeon(R) CPU E5-2650 v4 @ 2.20GHz</t>
-  </si>
-  <si>
-    <t>Xeon(R) CPU E5-2690 v4 @ 2.60GHz</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
     <t>192.168.191.7</t>
   </si>
   <si>
@@ -1865,12 +1838,6 @@
   </si>
   <si>
     <t>192.168.180.150-200</t>
-  </si>
-  <si>
-    <t>2.3.4</t>
-  </si>
-  <si>
-    <t>2.41.40.40</t>
   </si>
   <si>
     <t>Compute0</t>
@@ -6331,45 +6298,6 @@
     <xf numFmtId="0" fontId="0" fillId="97" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="26" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6409,45 +6337,48 @@
     <xf numFmtId="0" fontId="43" fillId="27" borderId="33" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="41" borderId="39" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6460,94 +6391,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="41" borderId="39" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6561,6 +6404,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="58" xfId="1629" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6578,6 +6425,126 @@
     <xf numFmtId="0" fontId="60" fillId="41" borderId="37" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6610,57 +6577,84 @@
     <xf numFmtId="0" fontId="49" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -6673,32 +6667,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6707,15 +6683,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13201,19 +13168,19 @@
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="4"/>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="213"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="200"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
@@ -13301,19 +13268,19 @@
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="4"/>
-      <c r="B13" s="214" t="s">
+      <c r="B13" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="215"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="216"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="203"/>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
@@ -13401,19 +13368,19 @@
     </row>
     <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="4"/>
-      <c r="B19" s="217" t="s">
+      <c r="B19" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="219"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="206"/>
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
@@ -13484,19 +13451,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="220" t="s">
+      <c r="B24" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="221"/>
-      <c r="L24" s="222"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="209"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
@@ -13652,110 +13619,110 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="224"/>
-      <c r="K34" s="224"/>
-      <c r="L34" s="225"/>
+      <c r="C34" s="211"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="211"/>
+      <c r="K34" s="211"/>
+      <c r="L34" s="212"/>
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="204" t="s">
+      <c r="B35" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="205"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="204" t="s">
+      <c r="C35" s="214"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="205"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="204" t="s">
+      <c r="F35" s="214"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="205"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="204" t="s">
+      <c r="I35" s="214"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="206"/>
+      <c r="L35" s="215"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="207">
+      <c r="B36" s="216">
         <v>1</v>
       </c>
-      <c r="C36" s="208"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="210"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="217"/>
+      <c r="K36" s="217"/>
+      <c r="L36" s="219"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="201">
+      <c r="B37" s="223">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="202"/>
-      <c r="L37" s="203"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="225"/>
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="201">
+      <c r="B38" s="223">
         <v>1.2</v>
       </c>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="202"/>
-      <c r="K38" s="202"/>
-      <c r="L38" s="203"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="224"/>
+      <c r="G38" s="224"/>
+      <c r="H38" s="224"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="224"/>
+      <c r="L38" s="225"/>
       <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="198">
+      <c r="B39" s="220">
         <v>1.3</v>
       </c>
-      <c r="C39" s="199"/>
-      <c r="D39" s="199"/>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="199"/>
-      <c r="L39" s="200"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="221"/>
+      <c r="E39" s="221"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="221"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="221"/>
+      <c r="K39" s="221"/>
+      <c r="L39" s="222"/>
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13">
@@ -13775,19 +13742,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:J39"/>
@@ -13800,6 +13754,19 @@
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="K38:L38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B34:L34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13818,9 +13785,9 @@
   </sheetPr>
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -13854,21 +13821,21 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="291" t="s">
+      <c r="E2" s="303" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
-      <c r="Q2" s="291"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="303"/>
+      <c r="K2" s="303"/>
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
+      <c r="Q2" s="303"/>
       <c r="S2" s="125"/>
       <c r="T2" s="125"/>
       <c r="U2" s="125"/>
@@ -13885,37 +13852,37 @@
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="297" t="s">
+      <c r="E3" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294" t="s">
+      <c r="F3" s="305"/>
+      <c r="G3" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294" t="s">
+      <c r="H3" s="305"/>
+      <c r="I3" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="294"/>
+      <c r="J3" s="305"/>
       <c r="K3" s="151"/>
-      <c r="L3" s="298" t="s">
+      <c r="L3" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="300"/>
-      <c r="P3" s="294" t="s">
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="295"/>
-      <c r="S3" s="327" t="s">
+      <c r="Q3" s="306"/>
+      <c r="S3" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="328"/>
-      <c r="U3" s="323"/>
-      <c r="V3" s="324"/>
-      <c r="W3" s="324"/>
-      <c r="X3" s="325"/>
+      <c r="T3" s="331"/>
+      <c r="U3" s="318"/>
+      <c r="V3" s="319"/>
+      <c r="W3" s="319"/>
+      <c r="X3" s="320"/>
       <c r="Y3" s="146"/>
     </row>
     <row r="4" spans="1:25">
@@ -13938,7 +13905,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>46</v>
@@ -13967,14 +13934,14 @@
       <c r="Q4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="329" t="s">
+      <c r="S4" s="332" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="330"/>
-      <c r="U4" s="323"/>
-      <c r="V4" s="324"/>
-      <c r="W4" s="324"/>
-      <c r="X4" s="325"/>
+      <c r="T4" s="333"/>
+      <c r="U4" s="318"/>
+      <c r="V4" s="319"/>
+      <c r="W4" s="319"/>
+      <c r="X4" s="320"/>
       <c r="Y4" s="146"/>
     </row>
     <row r="5" spans="1:25">
@@ -13999,7 +13966,7 @@
         <v>223</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>38</v>
@@ -14029,14 +13996,14 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="327" t="s">
+      <c r="S5" s="330" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="328"/>
-      <c r="U5" s="323"/>
-      <c r="V5" s="324"/>
-      <c r="W5" s="324"/>
-      <c r="X5" s="325"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="318"/>
+      <c r="V5" s="319"/>
+      <c r="W5" s="319"/>
+      <c r="X5" s="320"/>
       <c r="Y5" s="146"/>
     </row>
     <row r="6" spans="1:25">
@@ -14058,10 +14025,10 @@
         <v>289</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>38</v>
@@ -14091,17 +14058,17 @@
       <c r="Q6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="329" t="s">
+      <c r="S6" s="332" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="330"/>
-      <c r="U6" s="323" t="str">
+      <c r="T6" s="333"/>
+      <c r="U6" s="318" t="str">
         <f>S4048_2_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="V6" s="324"/>
-      <c r="W6" s="324"/>
-      <c r="X6" s="325"/>
+      <c r="V6" s="319"/>
+      <c r="W6" s="319"/>
+      <c r="X6" s="320"/>
       <c r="Y6" s="146"/>
     </row>
     <row r="7" spans="1:25">
@@ -14126,7 +14093,7 @@
         <v>224</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I7" s="127" t="s">
         <v>38</v>
@@ -14179,7 +14146,7 @@
         <v>225</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I8" s="127" t="s">
         <v>38</v>
@@ -14209,16 +14176,16 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="320" t="s">
+      <c r="S8" s="315" t="s">
         <v>167</v>
       </c>
-      <c r="T8" s="321"/>
-      <c r="U8" s="322"/>
-      <c r="V8" s="331" t="s">
+      <c r="T8" s="316"/>
+      <c r="U8" s="317"/>
+      <c r="V8" s="327" t="s">
         <v>287</v>
       </c>
-      <c r="W8" s="332"/>
-      <c r="X8" s="333"/>
+      <c r="W8" s="328"/>
+      <c r="X8" s="329"/>
       <c r="Y8" s="139"/>
     </row>
     <row r="9" spans="1:25">
@@ -14240,10 +14207,10 @@
         <v>292</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I9" s="127" t="s">
         <v>38</v>
@@ -14278,9 +14245,9 @@
       </c>
       <c r="T9" s="335"/>
       <c r="U9" s="336"/>
-      <c r="V9" s="323"/>
-      <c r="W9" s="324"/>
-      <c r="X9" s="325"/>
+      <c r="V9" s="318"/>
+      <c r="W9" s="319"/>
+      <c r="X9" s="320"/>
       <c r="Y9" s="146"/>
     </row>
     <row r="10" spans="1:25">
@@ -14305,7 +14272,7 @@
         <v>214</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I10" s="127" t="s">
         <v>38</v>
@@ -14340,11 +14307,11 @@
       </c>
       <c r="T10" s="338"/>
       <c r="U10" s="339"/>
-      <c r="V10" s="323">
+      <c r="V10" s="318">
         <v>20480</v>
       </c>
-      <c r="W10" s="324"/>
-      <c r="X10" s="325"/>
+      <c r="W10" s="319"/>
+      <c r="X10" s="320"/>
       <c r="Y10" s="146"/>
     </row>
     <row r="11" spans="1:25">
@@ -14369,7 +14336,7 @@
         <v>215</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I11" s="127" t="s">
         <v>38</v>
@@ -14433,14 +14400,14 @@
       <c r="O12" s="130"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="61"/>
-      <c r="S12" s="320" t="s">
+      <c r="S12" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="321"/>
-      <c r="U12" s="322"/>
-      <c r="V12" s="323"/>
-      <c r="W12" s="324"/>
-      <c r="X12" s="325"/>
+      <c r="T12" s="316"/>
+      <c r="U12" s="317"/>
+      <c r="V12" s="318"/>
+      <c r="W12" s="319"/>
+      <c r="X12" s="320"/>
       <c r="Y12" s="146"/>
     </row>
     <row r="13" spans="1:25">
@@ -14475,24 +14442,24 @@
       <c r="O13" s="130"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="61"/>
-      <c r="S13" s="317" t="s">
+      <c r="S13" s="321" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="318"/>
-      <c r="U13" s="319"/>
-      <c r="V13" s="331">
+      <c r="T13" s="322"/>
+      <c r="U13" s="323"/>
+      <c r="V13" s="327">
         <f>VLTDOMAIN</f>
         <v>1</v>
       </c>
-      <c r="W13" s="332"/>
-      <c r="X13" s="333"/>
+      <c r="W13" s="328"/>
+      <c r="X13" s="329"/>
       <c r="Y13" s="139"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="297" t="s">
+      <c r="A14" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="295"/>
+      <c r="B14" s="306"/>
       <c r="E14" s="36" t="s">
         <v>237</v>
       </c>
@@ -14514,16 +14481,16 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="S14" s="317" t="s">
+      <c r="S14" s="321" t="s">
         <v>166</v>
       </c>
-      <c r="T14" s="318"/>
-      <c r="U14" s="319"/>
-      <c r="V14" s="323">
+      <c r="T14" s="322"/>
+      <c r="U14" s="323"/>
+      <c r="V14" s="318">
         <v>2</v>
       </c>
-      <c r="W14" s="324"/>
-      <c r="X14" s="325"/>
+      <c r="W14" s="319"/>
+      <c r="X14" s="320"/>
       <c r="Y14" s="146"/>
     </row>
     <row r="15" spans="1:25">
@@ -14554,16 +14521,16 @@
       <c r="O15" s="130"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="61"/>
-      <c r="S15" s="320" t="s">
+      <c r="S15" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="T15" s="321"/>
-      <c r="U15" s="322"/>
-      <c r="V15" s="323">
+      <c r="T15" s="316"/>
+      <c r="U15" s="317"/>
+      <c r="V15" s="318">
         <v>1</v>
       </c>
-      <c r="W15" s="324"/>
-      <c r="X15" s="325"/>
+      <c r="W15" s="319"/>
+      <c r="X15" s="320"/>
       <c r="Y15" s="146"/>
     </row>
     <row r="16" spans="1:25">
@@ -14581,10 +14548,10 @@
         <v>292</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="I16" s="127" t="s">
         <v>38</v>
@@ -14631,7 +14598,7 @@
         <v>216</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="I17" s="127" t="s">
         <v>38</v>
@@ -14661,14 +14628,14 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="301" t="s">
+      <c r="S17" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="302"/>
-      <c r="U17" s="302"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="302"/>
-      <c r="X17" s="303"/>
+      <c r="T17" s="312"/>
+      <c r="U17" s="312"/>
+      <c r="V17" s="312"/>
+      <c r="W17" s="312"/>
+      <c r="X17" s="313"/>
       <c r="Y17" s="140"/>
     </row>
     <row r="18" spans="1:25">
@@ -14687,7 +14654,7 @@
         <v>217</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="I18" s="127" t="s">
         <v>38</v>
@@ -14717,12 +14684,12 @@
       <c r="Q18" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="308"/>
-      <c r="T18" s="309"/>
-      <c r="U18" s="309"/>
-      <c r="V18" s="309"/>
-      <c r="W18" s="309"/>
-      <c r="X18" s="310"/>
+      <c r="S18" s="290"/>
+      <c r="T18" s="291"/>
+      <c r="U18" s="291"/>
+      <c r="V18" s="291"/>
+      <c r="W18" s="291"/>
+      <c r="X18" s="292"/>
       <c r="Y18" s="141"/>
     </row>
     <row r="19" spans="1:25">
@@ -14754,12 +14721,12 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="311"/>
-      <c r="T19" s="312"/>
-      <c r="U19" s="312"/>
-      <c r="V19" s="312"/>
-      <c r="W19" s="312"/>
-      <c r="X19" s="313"/>
+      <c r="S19" s="293"/>
+      <c r="T19" s="294"/>
+      <c r="U19" s="294"/>
+      <c r="V19" s="294"/>
+      <c r="W19" s="294"/>
+      <c r="X19" s="295"/>
       <c r="Y19" s="141"/>
     </row>
     <row r="20" spans="1:25">
@@ -14791,12 +14758,12 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="308"/>
-      <c r="T20" s="309"/>
-      <c r="U20" s="309"/>
-      <c r="V20" s="309"/>
-      <c r="W20" s="309"/>
-      <c r="X20" s="310"/>
+      <c r="S20" s="290"/>
+      <c r="T20" s="291"/>
+      <c r="U20" s="291"/>
+      <c r="V20" s="291"/>
+      <c r="W20" s="291"/>
+      <c r="X20" s="292"/>
       <c r="Y20" s="141"/>
     </row>
     <row r="21" spans="1:25">
@@ -14826,12 +14793,12 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="311"/>
-      <c r="T21" s="312"/>
-      <c r="U21" s="312"/>
-      <c r="V21" s="312"/>
-      <c r="W21" s="312"/>
-      <c r="X21" s="313"/>
+      <c r="S21" s="293"/>
+      <c r="T21" s="294"/>
+      <c r="U21" s="294"/>
+      <c r="V21" s="294"/>
+      <c r="W21" s="294"/>
+      <c r="X21" s="295"/>
       <c r="Y21" s="141"/>
     </row>
     <row r="22" spans="1:25">
@@ -15047,7 +15014,7 @@
         <v>223</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I29" s="127" t="s">
         <v>38</v>
@@ -15093,10 +15060,10 @@
         <v>289</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I30" s="127" t="s">
         <v>38</v>
@@ -15145,7 +15112,7 @@
         <v>224</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I31" s="127" t="s">
         <v>38</v>
@@ -15177,9 +15144,9 @@
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="290"/>
-      <c r="B32" s="290"/>
-      <c r="C32" s="290"/>
+      <c r="A32" s="302"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="302"/>
       <c r="E32" s="36" t="s">
         <v>255</v>
       </c>
@@ -15190,7 +15157,7 @@
         <v>225</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I32" s="127" t="s">
         <v>38</v>
@@ -15222,9 +15189,9 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="290"/>
-      <c r="B33" s="290"/>
-      <c r="C33" s="290"/>
+      <c r="A33" s="302"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
       <c r="E33" s="36" t="s">
         <v>256</v>
       </c>
@@ -15232,10 +15199,10 @@
         <v>292</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I33" s="127" t="s">
         <v>38</v>
@@ -15267,9 +15234,9 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="290"/>
-      <c r="B34" s="290"/>
-      <c r="C34" s="290"/>
+      <c r="A34" s="302"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="302"/>
       <c r="E34" s="36" t="s">
         <v>257</v>
       </c>
@@ -15280,7 +15247,7 @@
         <v>214</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I34" s="127" t="s">
         <v>38</v>
@@ -15322,7 +15289,7 @@
         <v>215</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I35" s="127" t="s">
         <v>38</v>
@@ -15354,10 +15321,10 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="326" t="s">
+      <c r="A36" s="314" t="s">
         <v>399</v>
       </c>
-      <c r="B36" s="326"/>
+      <c r="B36" s="314"/>
       <c r="E36" s="36" t="s">
         <v>259</v>
       </c>
@@ -15381,8 +15348,8 @@
       <c r="Q36" s="61"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="326"/>
-      <c r="B37" s="326"/>
+      <c r="A37" s="314"/>
+      <c r="B37" s="314"/>
       <c r="E37" s="36" t="s">
         <v>260</v>
       </c>
@@ -15473,10 +15440,10 @@
         <v>292</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="I40" s="127" t="s">
         <v>38</v>
@@ -15520,7 +15487,7 @@
         <v>216</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="I41" s="127" t="s">
         <v>38</v>
@@ -15564,7 +15531,7 @@
         <v>217</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="I42" s="127" t="s">
         <v>38</v>
@@ -16336,6 +16303,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A32:C34"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="A3:B3"/>
@@ -16352,28 +16341,6 @@
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="V15:X15"/>
     <mergeCell ref="S17:X17"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A32:C34"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
   </mergeCells>
   <conditionalFormatting sqref="F53:F54">
     <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
@@ -16450,15 +16417,15 @@
     </row>
     <row r="2" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="72"/>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="259" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="228"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="256"/>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
       <c r="K2" s="72"/>
@@ -16468,124 +16435,124 @@
     </row>
     <row r="3" spans="1:14" s="73" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="248" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="229" t="s">
+      <c r="C3" s="249"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="248" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="231"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="250"/>
       <c r="I3" s="72"/>
       <c r="J3" s="72"/>
-      <c r="K3" s="232" t="s">
+      <c r="K3" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="233"/>
-      <c r="M3" s="234"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="262"/>
       <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" s="73" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="72"/>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="240"/>
+      <c r="B4" s="245"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="231"/>
       <c r="I4" s="72"/>
       <c r="J4" s="72"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="243"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="265"/>
       <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="72"/>
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="248" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="229" t="s">
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="248" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="231"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="250"/>
       <c r="I5" s="72"/>
       <c r="J5" s="74"/>
-      <c r="K5" s="244"/>
-      <c r="L5" s="245"/>
-      <c r="M5" s="246"/>
+      <c r="K5" s="266"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="268"/>
       <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="72"/>
-      <c r="B6" s="250"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="274"/>
+      <c r="F6" s="274"/>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="72"/>
       <c r="J6" s="74"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="246"/>
+      <c r="K6" s="266"/>
+      <c r="L6" s="267"/>
+      <c r="M6" s="268"/>
       <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="72"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="253"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
       <c r="I7" s="72"/>
       <c r="J7" s="72"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="246"/>
+      <c r="K7" s="266"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="268"/>
       <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="72"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="244"/>
-      <c r="L8" s="245"/>
-      <c r="M8" s="246"/>
+      <c r="K8" s="266"/>
+      <c r="L8" s="267"/>
+      <c r="M8" s="268"/>
       <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="72"/>
-      <c r="B9" s="255"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
+      <c r="B9" s="277"/>
+      <c r="C9" s="277"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="253"/>
       <c r="I9" s="72"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="245"/>
-      <c r="M9" s="246"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="268"/>
       <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14" s="73" customFormat="1" ht="5.25" customHeight="1">
@@ -16599,47 +16566,47 @@
       <c r="H10" s="76"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="245"/>
-      <c r="M10" s="246"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="267"/>
+      <c r="M10" s="268"/>
       <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="72"/>
-      <c r="B11" s="257" t="s">
+      <c r="B11" s="254" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="227"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="228"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="255"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="255"/>
+      <c r="H11" s="256"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="245"/>
-      <c r="M11" s="246"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="267"/>
+      <c r="M11" s="268"/>
       <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="77"/>
-      <c r="C12" s="229" t="s">
+      <c r="C12" s="248" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="229" t="s">
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="230"/>
-      <c r="H12" s="231"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="250"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="246"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="268"/>
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16647,17 +16614,17 @@
       <c r="B13" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="238"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="236"/>
-      <c r="H13" s="237"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="247"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="244"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="246"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="267"/>
+      <c r="M13" s="268"/>
       <c r="N13" s="72"/>
     </row>
     <row r="14" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16665,17 +16632,17 @@
       <c r="B14" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="238"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="240"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="236"/>
-      <c r="H14" s="237"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="247"/>
       <c r="I14" s="72"/>
       <c r="J14" s="80"/>
-      <c r="K14" s="244"/>
-      <c r="L14" s="245"/>
-      <c r="M14" s="246"/>
+      <c r="K14" s="266"/>
+      <c r="L14" s="267"/>
+      <c r="M14" s="268"/>
       <c r="N14" s="72"/>
     </row>
     <row r="15" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16683,17 +16650,17 @@
       <c r="B15" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="238"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="236"/>
-      <c r="H15" s="237"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="247"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="244"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="246"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="267"/>
+      <c r="M15" s="268"/>
       <c r="N15" s="72"/>
     </row>
     <row r="16" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -16701,17 +16668,17 @@
       <c r="B16" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="238"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="236"/>
-      <c r="H16" s="237"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="231"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="247"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="248"/>
-      <c r="M16" s="249"/>
+      <c r="K16" s="269"/>
+      <c r="L16" s="270"/>
+      <c r="M16" s="271"/>
       <c r="N16" s="72"/>
     </row>
     <row r="17" spans="1:14" s="73" customFormat="1" ht="3" customHeight="1">
@@ -16732,15 +16699,15 @@
     </row>
     <row r="18" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="72"/>
-      <c r="B18" s="257" t="s">
+      <c r="B18" s="254" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="258"/>
-      <c r="D18" s="258"/>
-      <c r="E18" s="258"/>
-      <c r="F18" s="258"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="259"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="257"/>
+      <c r="G18" s="257"/>
+      <c r="H18" s="258"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
@@ -16751,16 +16718,16 @@
     <row r="19" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="72"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="229" t="s">
+      <c r="C19" s="248" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="230"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="229" t="s">
+      <c r="D19" s="249"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="248" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="230"/>
-      <c r="H19" s="231"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="250"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
@@ -16773,12 +16740,12 @@
       <c r="B20" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="238"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="240"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="237"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="247"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
@@ -16791,12 +16758,12 @@
       <c r="B21" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="238"/>
-      <c r="D21" s="239"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="237"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="247"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
@@ -16809,12 +16776,12 @@
       <c r="B22" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="238"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="236"/>
-      <c r="H22" s="237"/>
+      <c r="C22" s="229"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="247"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
@@ -16827,12 +16794,12 @@
       <c r="B23" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="238"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="237"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="247"/>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
@@ -16843,16 +16810,16 @@
     <row r="24" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="72"/>
       <c r="B24" s="82"/>
-      <c r="C24" s="229" t="s">
+      <c r="C24" s="248" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="230"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="229" t="s">
+      <c r="D24" s="249"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="248" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="230"/>
-      <c r="H24" s="231"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="250"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
@@ -16865,12 +16832,12 @@
       <c r="B25" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="238"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="240"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="237"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="247"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="83" t="s">
@@ -16885,12 +16852,12 @@
       <c r="B26" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="238"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="237"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="247"/>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="85" t="s">
@@ -16905,12 +16872,12 @@
       <c r="B27" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="238"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="237"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="230"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="247"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="85" t="s">
@@ -16925,12 +16892,12 @@
       <c r="B28" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="236"/>
-      <c r="H28" s="237"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="245"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="247"/>
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="87" t="s">
@@ -16945,9 +16912,9 @@
       <c r="B29" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="260"/>
-      <c r="D29" s="261"/>
-      <c r="E29" s="262"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="252"/>
       <c r="F29" s="64"/>
       <c r="G29" s="90"/>
       <c r="H29" s="90"/>
@@ -16961,16 +16928,16 @@
     <row r="30" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="72"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="229" t="s">
+      <c r="C30" s="248" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="230"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="229" t="s">
+      <c r="D30" s="249"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="248" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="230"/>
-      <c r="H30" s="231"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="250"/>
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
       <c r="K30" s="91"/>
@@ -16983,12 +16950,12 @@
       <c r="B31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="238"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="266"/>
-      <c r="G31" s="267"/>
-      <c r="H31" s="268"/>
+      <c r="C31" s="229"/>
+      <c r="D31" s="230"/>
+      <c r="E31" s="231"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="233"/>
+      <c r="H31" s="234"/>
       <c r="I31" s="92"/>
       <c r="J31" s="92"/>
       <c r="K31" s="69"/>
@@ -17001,12 +16968,12 @@
       <c r="B32" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="238"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="266"/>
-      <c r="G32" s="267"/>
-      <c r="H32" s="268"/>
+      <c r="C32" s="229"/>
+      <c r="D32" s="230"/>
+      <c r="E32" s="231"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="233"/>
+      <c r="H32" s="234"/>
       <c r="I32" s="92"/>
       <c r="J32" s="92"/>
       <c r="K32" s="69"/>
@@ -17019,12 +16986,12 @@
       <c r="B33" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="238"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="266"/>
-      <c r="G33" s="267"/>
-      <c r="H33" s="268"/>
+      <c r="C33" s="229"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="233"/>
+      <c r="H33" s="234"/>
       <c r="I33" s="92"/>
       <c r="J33" s="92"/>
       <c r="K33" s="69"/>
@@ -17037,12 +17004,12 @@
       <c r="B34" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="238"/>
-      <c r="D34" s="239"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="269"/>
-      <c r="G34" s="267"/>
-      <c r="H34" s="268"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="233"/>
+      <c r="H34" s="234"/>
       <c r="I34" s="92"/>
       <c r="J34" s="92"/>
       <c r="K34" s="69"/>
@@ -17055,9 +17022,9 @@
       <c r="B35" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="260"/>
-      <c r="D35" s="270"/>
-      <c r="E35" s="271"/>
+      <c r="C35" s="236"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="238"/>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
       <c r="H35" s="93"/>
@@ -17086,12 +17053,12 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="92"/>
-      <c r="B37" s="272" t="s">
+      <c r="B37" s="239" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="273"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="274"/>
+      <c r="C37" s="240"/>
+      <c r="D37" s="240"/>
+      <c r="E37" s="241"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="93"/>
@@ -17104,11 +17071,11 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="92"/>
-      <c r="B38" s="275" t="s">
+      <c r="B38" s="242" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="276"/>
-      <c r="D38" s="277"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="244"/>
       <c r="E38" s="94"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
@@ -17122,11 +17089,11 @@
     </row>
     <row r="39" spans="1:14" ht="13.5" thickBot="1">
       <c r="A39" s="92"/>
-      <c r="B39" s="263" t="s">
+      <c r="B39" s="226" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="264"/>
-      <c r="D39" s="265"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="228"/>
       <c r="E39" s="95"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
@@ -17156,38 +17123,22 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:M16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="C12:E12"/>
@@ -17204,22 +17155,38 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:M16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 E4">
     <cfRule type="expression" dxfId="169" priority="7">
@@ -17825,8 +17792,8 @@
   </sheetPr>
   <dimension ref="S3:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -17848,16 +17815,16 @@
     </row>
     <row r="4" spans="19:22" ht="15.75" customHeight="1">
       <c r="S4" s="39" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="19:22" ht="15.75" customHeight="1">
@@ -17865,13 +17832,13 @@
         <v>110</v>
       </c>
       <c r="T5" s="185" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="U5" s="185" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="V5" s="185" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="19:22" ht="15.75" customHeight="1">
@@ -17882,10 +17849,10 @@
         <v>212</v>
       </c>
       <c r="U6" s="187" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="V6" s="187" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="19:22" ht="15.75" customHeight="1">
@@ -17893,13 +17860,13 @@
         <v>130</v>
       </c>
       <c r="T7" s="188" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="U7" s="197" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="V7" s="188" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="19:22" ht="15.75" customHeight="1">
@@ -17907,13 +17874,13 @@
         <v>140</v>
       </c>
       <c r="T8" s="189" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="U8" s="189" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="V8" s="189" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="19:22" ht="15.75" customHeight="1">
@@ -17924,10 +17891,10 @@
         <v>220</v>
       </c>
       <c r="U9" s="190" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="V9" s="190" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="19:22" ht="15.75" customHeight="1">
@@ -17935,13 +17902,13 @@
         <v>180</v>
       </c>
       <c r="T10" s="191" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="U10" s="191" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="V10" s="191" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="19:22" ht="15.75" customHeight="1">
@@ -17949,13 +17916,13 @@
         <v>190</v>
       </c>
       <c r="T11" s="192" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="U11" s="192" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="V11" s="192" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="19:22" ht="15.75" customHeight="1">
@@ -17963,27 +17930,27 @@
         <v>191</v>
       </c>
       <c r="T12" s="193" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="U12" s="193" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="V12" s="193" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="19:22" ht="15">
       <c r="S13" s="186" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="T13" s="186" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="U13" s="186" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="V13" s="186" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="19:22" ht="15.75" customHeight="1">
@@ -18011,7 +17978,7 @@
     </row>
     <row r="21" spans="19:23" ht="15.75" customHeight="1">
       <c r="S21" s="147" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="T21" s="147" t="s">
         <v>312</v>
@@ -18028,7 +17995,7 @@
     </row>
     <row r="22" spans="19:23" ht="15.75" customHeight="1">
       <c r="S22" s="147" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="T22" s="147" t="s">
         <v>312</v>
@@ -18045,7 +18012,7 @@
     </row>
     <row r="23" spans="19:23" ht="15.75" customHeight="1">
       <c r="S23" s="147" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="T23" s="147" t="s">
         <v>47</v>
@@ -18062,7 +18029,7 @@
     </row>
     <row r="24" spans="19:23" ht="15.75" customHeight="1">
       <c r="S24" s="147" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="T24" s="147" t="s">
         <v>312</v>
@@ -18079,7 +18046,7 @@
     </row>
     <row r="25" spans="19:23" ht="15.75" customHeight="1">
       <c r="S25" s="147" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="T25" s="147" t="s">
         <v>310</v>
@@ -18096,7 +18063,7 @@
     </row>
     <row r="26" spans="19:23" ht="15.75" customHeight="1">
       <c r="S26" s="147" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="T26" s="147" t="s">
         <v>310</v>
@@ -18113,7 +18080,7 @@
     </row>
     <row r="27" spans="19:23" ht="15.75" customHeight="1">
       <c r="S27" s="147" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="T27" s="147" t="s">
         <v>312</v>
@@ -18130,7 +18097,7 @@
     </row>
     <row r="28" spans="19:23" ht="15.75" customHeight="1">
       <c r="S28" s="147" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="T28" s="147" t="s">
         <v>310</v>
@@ -18147,7 +18114,7 @@
     </row>
     <row r="29" spans="19:23" ht="15.75" customHeight="1">
       <c r="S29" s="147" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="T29" s="147" t="s">
         <v>312</v>
@@ -18164,7 +18131,7 @@
     </row>
     <row r="30" spans="19:23" ht="15.75" customHeight="1">
       <c r="S30" s="147" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="T30" s="147" t="s">
         <v>313</v>
@@ -18221,8 +18188,8 @@
   </sheetPr>
   <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18466,7 +18433,7 @@
       <c r="C7" s="108"/>
       <c r="D7" s="8"/>
       <c r="E7" s="134" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F7" s="142">
         <v>130</v>
@@ -18604,7 +18571,7 @@
       <c r="C12" s="106"/>
       <c r="D12" s="8"/>
       <c r="E12" s="135" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F12" s="142">
         <v>191</v>
@@ -19470,7 +19437,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4:L5"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19498,7 +19465,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="45">
       <c r="A1" s="156" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B1" s="156" t="s">
         <v>403</v>
@@ -19568,35 +19535,35 @@
     </row>
     <row r="2" spans="1:20" ht="30.75" thickBot="1">
       <c r="A2" s="156" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D2" s="156" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E2" s="157" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F2" s="156" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="G2" s="156" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H2" s="156"/>
       <c r="I2" s="157" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="J2" s="157" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="K2" s="157" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="L2" s="156"/>
       <c r="M2" s="156"/>
@@ -19610,14 +19577,14 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="158" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B3" s="181"/>
       <c r="C3" s="182" t="s">
         <v>413</v>
       </c>
       <c r="D3" s="182" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E3" s="159"/>
       <c r="F3" s="160"/>
@@ -19628,9 +19595,7 @@
       <c r="K3" s="164"/>
       <c r="L3" s="165"/>
       <c r="M3" s="166"/>
-      <c r="N3" s="166" t="s">
-        <v>414</v>
-      </c>
+      <c r="N3" s="166"/>
       <c r="O3" s="166"/>
       <c r="P3" s="166"/>
       <c r="Q3" s="166"/>
@@ -19640,41 +19605,39 @@
     </row>
     <row r="4" spans="1:20" ht="30.75" thickBot="1">
       <c r="A4" s="158" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C4" s="182" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D4" s="182" t="s">
         <v>137</v>
       </c>
       <c r="E4" s="159" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F4" s="160"/>
       <c r="G4" s="160" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" s="161" t="s">
         <v>415</v>
       </c>
-      <c r="H4" s="161" t="s">
+      <c r="I4" s="162" t="s">
         <v>416</v>
       </c>
-      <c r="I4" s="162" t="s">
+      <c r="J4" s="163" t="s">
         <v>417</v>
-      </c>
-      <c r="J4" s="163" t="s">
-        <v>418</v>
       </c>
       <c r="K4" s="164"/>
       <c r="L4" s="167" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="M4" s="166"/>
-      <c r="N4" s="166" t="s">
-        <v>419</v>
-      </c>
+      <c r="N4" s="166"/>
       <c r="O4" s="166"/>
       <c r="P4" s="166"/>
       <c r="Q4" s="166"/>
@@ -19684,39 +19647,37 @@
     </row>
     <row r="5" spans="1:20" ht="30.75" thickBot="1">
       <c r="A5" s="158" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B5" s="181" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C5" s="182" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D5" s="182" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="159" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F5" s="160"/>
       <c r="G5" s="160" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H5" s="161" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I5" s="162"/>
       <c r="J5" s="163" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K5" s="168"/>
       <c r="L5" s="167" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="M5" s="166"/>
-      <c r="N5" s="166" t="s">
-        <v>419</v>
-      </c>
+      <c r="N5" s="166"/>
       <c r="O5" s="166"/>
       <c r="P5" s="166"/>
       <c r="Q5" s="166"/>
@@ -19726,127 +19687,99 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1">
       <c r="A6" s="166" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C6" s="166" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="166" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="159" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="160" t="s">
+        <v>422</v>
+      </c>
+      <c r="G6" s="160" t="s">
         <v>423</v>
       </c>
-      <c r="D6" s="166" t="s">
-        <v>482</v>
-      </c>
-      <c r="E6" s="159" t="s">
-        <v>475</v>
-      </c>
-      <c r="F6" s="160" t="s">
+      <c r="H6" s="161" t="s">
         <v>424</v>
-      </c>
-      <c r="G6" s="160" t="s">
-        <v>425</v>
-      </c>
-      <c r="H6" s="161" t="s">
-        <v>426</v>
       </c>
       <c r="I6" s="162"/>
       <c r="J6" s="163" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K6" s="168"/>
       <c r="L6" s="167"/>
-      <c r="M6" s="166" t="s">
-        <v>496</v>
-      </c>
-      <c r="N6" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="O6" s="166">
-        <v>2.5</v>
-      </c>
-      <c r="P6" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q6" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R6" s="166" t="s">
-        <v>429</v>
-      </c>
-      <c r="S6" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
       <c r="T6" s="166"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1">
       <c r="A7" s="166" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C7" s="166" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D7" s="166" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="159" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F7" s="160" t="s">
         <v>137</v>
       </c>
       <c r="G7" s="160" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H7" s="161" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I7" s="162"/>
       <c r="J7" s="163" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K7" s="168"/>
       <c r="L7" s="167"/>
-      <c r="M7" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="N7" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="O7" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="R7" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="S7" s="166" t="s">
-        <v>137</v>
-      </c>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
       <c r="T7" s="166"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
       <c r="A8" s="166" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B8" s="179" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C8" s="166" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D8" s="166" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="159" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F8" s="160" t="s">
         <v>137</v>
@@ -19855,528 +19788,388 @@
       <c r="H8" s="161"/>
       <c r="I8" s="162"/>
       <c r="J8" s="163" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K8" s="168"/>
       <c r="L8" s="167"/>
-      <c r="M8" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="N8" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="O8" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="P8" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="R8" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="S8" s="166" t="s">
-        <v>137</v>
-      </c>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="166"/>
       <c r="T8" s="166"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B9" s="179" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C9" s="166" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D9" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E9" s="159" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F9" s="160" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G9" s="160"/>
       <c r="H9" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I9" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J9" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K9" s="168"/>
       <c r="L9" s="167"/>
-      <c r="M9" s="166" t="s">
-        <v>496</v>
-      </c>
-      <c r="N9" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="O9" s="166">
-        <v>2.5</v>
-      </c>
-      <c r="P9" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q9" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R9" s="166" t="s">
-        <v>429</v>
-      </c>
-      <c r="S9" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
       <c r="T9" s="166"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1">
       <c r="A10" s="166" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B10" s="179" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C10" s="166" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D10" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E10" s="159" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F10" s="160" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G10" s="160"/>
       <c r="H10" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I10" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J10" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K10" s="168"/>
       <c r="L10" s="167"/>
-      <c r="M10" s="166" t="s">
-        <v>496</v>
-      </c>
-      <c r="N10" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="O10" s="166">
-        <v>2.5</v>
-      </c>
-      <c r="P10" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q10" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R10" s="166" t="s">
-        <v>429</v>
-      </c>
-      <c r="S10" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="166"/>
       <c r="T10" s="166"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1">
       <c r="A11" s="166" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B11" s="179" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C11" s="166" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D11" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E11" s="159" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F11" s="160" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G11" s="160"/>
       <c r="H11" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I11" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J11" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K11" s="168"/>
       <c r="L11" s="167"/>
-      <c r="M11" s="166" t="s">
-        <v>496</v>
-      </c>
-      <c r="N11" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="O11" s="166">
-        <v>2.5</v>
-      </c>
-      <c r="P11" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q11" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R11" s="166" t="s">
-        <v>429</v>
-      </c>
-      <c r="S11" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="166"/>
       <c r="T11" s="166"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1">
       <c r="A12" s="166" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B12" s="179" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C12" s="166" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D12" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E12" s="169"/>
       <c r="F12" s="160" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G12" s="160"/>
       <c r="H12" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I12" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J12" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K12" s="168"/>
       <c r="L12" s="167"/>
-      <c r="M12" s="166" t="s">
-        <v>497</v>
-      </c>
-      <c r="N12" s="166" t="s">
-        <v>414</v>
-      </c>
-      <c r="O12" s="166">
-        <v>2.5</v>
-      </c>
-      <c r="P12" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q12" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R12" s="166" t="s">
-        <v>429</v>
-      </c>
-      <c r="S12" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="166"/>
       <c r="T12" s="166"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B13" s="179" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C13" s="166" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D13" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E13" s="169"/>
       <c r="F13" s="160" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G13" s="160"/>
       <c r="H13" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I13" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J13" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K13" s="168"/>
       <c r="L13" s="167"/>
-      <c r="M13" s="166" t="s">
-        <v>497</v>
-      </c>
-      <c r="N13" s="166" t="s">
-        <v>414</v>
-      </c>
-      <c r="O13" s="166">
-        <v>2.5</v>
-      </c>
-      <c r="P13" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q13" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R13" s="166" t="s">
-        <v>429</v>
-      </c>
-      <c r="S13" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="166"/>
       <c r="T13" s="166"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="A14" s="166" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C14" s="166" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D14" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E14" s="169"/>
       <c r="F14" s="160" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G14" s="160"/>
       <c r="H14" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I14" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J14" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K14" s="168"/>
       <c r="L14" s="167"/>
-      <c r="M14" s="166" t="s">
-        <v>497</v>
-      </c>
-      <c r="N14" s="166" t="s">
-        <v>414</v>
-      </c>
-      <c r="O14" s="166">
-        <v>2.5</v>
-      </c>
-      <c r="P14" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q14" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R14" s="166" t="s">
-        <v>429</v>
-      </c>
-      <c r="S14" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M14" s="166"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="166"/>
       <c r="T14" s="166"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="170" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B15" s="179" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C15" s="166" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D15" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E15" s="169"/>
       <c r="F15" s="160" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G15" s="160"/>
       <c r="H15" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I15" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J15" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K15" s="168" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L15" s="167"/>
-      <c r="M15" s="166" t="s">
-        <v>497</v>
-      </c>
-      <c r="N15" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="O15" s="166" t="s">
-        <v>498</v>
-      </c>
-      <c r="P15" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q15" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R15" s="166" t="s">
-        <v>451</v>
-      </c>
-      <c r="S15" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="166"/>
       <c r="T15" s="166"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1">
       <c r="A16" s="170" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B16" s="179" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C16" s="166" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D16" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E16" s="169"/>
       <c r="F16" s="160" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G16" s="160"/>
       <c r="H16" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I16" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J16" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K16" s="168" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L16" s="167"/>
-      <c r="M16" s="166" t="s">
-        <v>497</v>
-      </c>
-      <c r="N16" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="O16" s="166" t="s">
-        <v>498</v>
-      </c>
-      <c r="P16" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q16" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R16" s="166" t="s">
-        <v>451</v>
-      </c>
-      <c r="S16" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
       <c r="T16" s="166"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1">
       <c r="A17" s="170" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B17" s="179" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C17" s="166" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D17" s="166" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E17" s="169"/>
       <c r="F17" s="160" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G17" s="160"/>
       <c r="H17" s="161" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I17" s="162" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="J17" s="163" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K17" s="168" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L17" s="167"/>
-      <c r="M17" s="166" t="s">
-        <v>497</v>
-      </c>
-      <c r="N17" s="166" t="s">
-        <v>428</v>
-      </c>
-      <c r="O17" s="166" t="s">
-        <v>498</v>
-      </c>
-      <c r="P17" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q17" s="166" t="s">
-        <v>574</v>
-      </c>
-      <c r="R17" s="166" t="s">
-        <v>451</v>
-      </c>
-      <c r="S17" s="166" t="s">
-        <v>430</v>
-      </c>
+      <c r="M17" s="166"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="166"/>
+      <c r="S17" s="166"/>
       <c r="T17" s="166"/>
     </row>
     <row r="18" spans="1:20" s="137" customFormat="1" ht="15.75" thickBot="1">
       <c r="A18" s="195" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B18" s="195" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C18" s="195" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D18" s="195" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E18" s="194" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F18" s="166"/>
       <c r="G18" s="166"/>
@@ -20418,19 +20211,19 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="175" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B20" s="175" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C20" s="175" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D20" s="175" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E20" s="175" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F20" s="166"/>
       <c r="G20" s="166"/>
@@ -20450,16 +20243,16 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="180" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B21" s="176" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C21" s="176" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D21" s="180" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E21" s="176"/>
       <c r="F21" s="166"/>
@@ -20482,10 +20275,10 @@
       <c r="A22" s="176"/>
       <c r="B22" s="176"/>
       <c r="C22" s="176" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D22" s="180" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E22" s="176"/>
       <c r="F22" s="166"/>
@@ -20506,17 +20299,17 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="177" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B23" s="177"/>
       <c r="C23" s="177" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D23" s="177" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E23" s="177" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F23" s="166"/>
       <c r="G23" s="166"/>
@@ -20536,17 +20329,17 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="177" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B24" s="177"/>
       <c r="C24" s="177" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D24" s="177" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E24" s="177" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F24" s="166"/>
       <c r="G24" s="166"/>
@@ -20566,14 +20359,14 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="177" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B25" s="177"/>
       <c r="C25" s="177" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D25" s="177" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E25" s="177" t="s">
         <v>385</v>
@@ -21006,8 +20799,8 @@
   <dimension ref="A2:X57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21033,20 +20826,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="E2" s="291" t="s">
+      <c r="E2" s="303" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="303"/>
+      <c r="K2" s="303"/>
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
       <c r="X2" s="137"/>
     </row>
     <row r="3" spans="1:24">
@@ -21057,36 +20850,36 @@
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="297" t="s">
+      <c r="E3" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294" t="s">
+      <c r="F3" s="305"/>
+      <c r="G3" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294" t="s">
+      <c r="H3" s="305"/>
+      <c r="I3" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="294"/>
-      <c r="K3" s="298" t="s">
+      <c r="J3" s="305"/>
+      <c r="K3" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="299"/>
-      <c r="M3" s="300"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="310"/>
       <c r="N3" s="150"/>
-      <c r="O3" s="294" t="s">
+      <c r="O3" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="295"/>
-      <c r="R3" s="292" t="s">
+      <c r="P3" s="306"/>
+      <c r="R3" s="304" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="292"/>
-      <c r="T3" s="293"/>
-      <c r="U3" s="293"/>
-      <c r="V3" s="293"/>
-      <c r="W3" s="293"/>
+      <c r="S3" s="304"/>
+      <c r="T3" s="298"/>
+      <c r="U3" s="298"/>
+      <c r="V3" s="298"/>
+      <c r="W3" s="298"/>
       <c r="X3" s="137"/>
     </row>
     <row r="4" spans="1:24">
@@ -21135,14 +20928,14 @@
       <c r="P4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="296" t="s">
+      <c r="R4" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="296"/>
-      <c r="T4" s="293"/>
-      <c r="U4" s="293"/>
-      <c r="V4" s="293"/>
-      <c r="W4" s="293"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="298"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="298"/>
       <c r="X4" s="137"/>
     </row>
     <row r="5" spans="1:24">
@@ -21190,16 +20983,16 @@
         <v>38</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="R5" s="292" t="s">
+        <v>576</v>
+      </c>
+      <c r="R5" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="292"/>
-      <c r="T5" s="293"/>
-      <c r="U5" s="293"/>
-      <c r="V5" s="293"/>
-      <c r="W5" s="293"/>
+      <c r="S5" s="304"/>
+      <c r="T5" s="298"/>
+      <c r="U5" s="298"/>
+      <c r="V5" s="298"/>
+      <c r="W5" s="298"/>
       <c r="X5" s="137"/>
     </row>
     <row r="6" spans="1:24">
@@ -21221,7 +21014,7 @@
         <v>291</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>219</v>
@@ -21247,19 +21040,19 @@
         <v>38</v>
       </c>
       <c r="P6" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="R6" s="296" t="s">
+        <v>576</v>
+      </c>
+      <c r="R6" s="299" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="296"/>
-      <c r="T6" s="293" t="str">
+      <c r="S6" s="299"/>
+      <c r="T6" s="298" t="str">
         <f>S3048_FW</f>
         <v>fw: 9.11(0.0)</v>
       </c>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
+      <c r="U6" s="298"/>
+      <c r="V6" s="298"/>
+      <c r="W6" s="298"/>
       <c r="X6" s="137"/>
     </row>
     <row r="7" spans="1:24">
@@ -21307,7 +21100,7 @@
         <v>38</v>
       </c>
       <c r="P7" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="X7" s="137"/>
     </row>
@@ -21356,18 +21149,18 @@
         <v>38</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="R8" s="304" t="s">
+        <v>576</v>
+      </c>
+      <c r="R8" s="296" t="s">
         <v>167</v>
       </c>
-      <c r="S8" s="304"/>
-      <c r="T8" s="304"/>
-      <c r="U8" s="305" t="s">
+      <c r="S8" s="296"/>
+      <c r="T8" s="296"/>
+      <c r="U8" s="297" t="s">
         <v>287</v>
       </c>
-      <c r="V8" s="305"/>
-      <c r="W8" s="305"/>
+      <c r="V8" s="297"/>
+      <c r="W8" s="297"/>
       <c r="X8" s="137"/>
     </row>
     <row r="9" spans="1:24">
@@ -21389,7 +21182,7 @@
         <v>291</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>219</v>
@@ -21415,16 +21208,16 @@
         <v>38</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="R9" s="306" t="s">
+        <v>576</v>
+      </c>
+      <c r="R9" s="300" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="293"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="293"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="300"/>
+      <c r="U9" s="298"/>
+      <c r="V9" s="298"/>
+      <c r="W9" s="298"/>
       <c r="X9" s="137"/>
     </row>
     <row r="10" spans="1:24">
@@ -21472,18 +21265,18 @@
         <v>38</v>
       </c>
       <c r="P10" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="R10" s="307" t="s">
+        <v>576</v>
+      </c>
+      <c r="R10" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="307"/>
-      <c r="T10" s="307"/>
-      <c r="U10" s="293">
+      <c r="S10" s="301"/>
+      <c r="T10" s="301"/>
+      <c r="U10" s="298">
         <v>24576</v>
       </c>
-      <c r="V10" s="293"/>
-      <c r="W10" s="293"/>
+      <c r="V10" s="298"/>
+      <c r="W10" s="298"/>
       <c r="X10" s="137"/>
     </row>
     <row r="11" spans="1:24">
@@ -21531,7 +21324,7 @@
         <v>38</v>
       </c>
       <c r="P11" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="X11" s="137"/>
     </row>
@@ -21572,16 +21365,16 @@
       <c r="P12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="304" t="s">
+      <c r="R12" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="304"/>
-      <c r="T12" s="304"/>
-      <c r="U12" s="305" t="s">
+      <c r="S12" s="296"/>
+      <c r="T12" s="296"/>
+      <c r="U12" s="297" t="s">
         <v>288</v>
       </c>
-      <c r="V12" s="305"/>
-      <c r="W12" s="305"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="297"/>
       <c r="X12" s="137"/>
     </row>
     <row r="13" spans="1:24">
@@ -21623,10 +21416,10 @@
       <c r="X13" s="137"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="297" t="s">
+      <c r="A14" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="295"/>
+      <c r="B14" s="306"/>
       <c r="C14" s="34"/>
       <c r="E14" s="36" t="s">
         <v>326</v>
@@ -21653,14 +21446,14 @@
       <c r="P14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="301" t="s">
+      <c r="R14" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="302"/>
-      <c r="T14" s="302"/>
-      <c r="U14" s="302"/>
-      <c r="V14" s="302"/>
-      <c r="W14" s="303"/>
+      <c r="S14" s="312"/>
+      <c r="T14" s="312"/>
+      <c r="U14" s="312"/>
+      <c r="V14" s="312"/>
+      <c r="W14" s="313"/>
       <c r="X14" s="137"/>
     </row>
     <row r="15" spans="1:24">
@@ -21698,12 +21491,12 @@
       <c r="P15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="308"/>
-      <c r="S15" s="309"/>
-      <c r="T15" s="309"/>
-      <c r="U15" s="309"/>
-      <c r="V15" s="309"/>
-      <c r="W15" s="310"/>
+      <c r="R15" s="290"/>
+      <c r="S15" s="291"/>
+      <c r="T15" s="291"/>
+      <c r="U15" s="291"/>
+      <c r="V15" s="291"/>
+      <c r="W15" s="292"/>
       <c r="X15" s="137"/>
     </row>
     <row r="16" spans="1:24">
@@ -21721,7 +21514,7 @@
         <v>291</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>219</v>
@@ -21747,14 +21540,14 @@
         <v>38</v>
       </c>
       <c r="P16" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="R16" s="311"/>
-      <c r="S16" s="312"/>
-      <c r="T16" s="312"/>
-      <c r="U16" s="312"/>
-      <c r="V16" s="312"/>
-      <c r="W16" s="313"/>
+        <v>576</v>
+      </c>
+      <c r="R16" s="293"/>
+      <c r="S16" s="294"/>
+      <c r="T16" s="294"/>
+      <c r="U16" s="294"/>
+      <c r="V16" s="294"/>
+      <c r="W16" s="295"/>
       <c r="X16" s="137"/>
     </row>
     <row r="17" spans="1:24">
@@ -21801,14 +21594,14 @@
         <v>38</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="R17" s="308"/>
-      <c r="S17" s="309"/>
-      <c r="T17" s="309"/>
-      <c r="U17" s="309"/>
-      <c r="V17" s="309"/>
-      <c r="W17" s="310"/>
+        <v>576</v>
+      </c>
+      <c r="R17" s="290"/>
+      <c r="S17" s="291"/>
+      <c r="T17" s="291"/>
+      <c r="U17" s="291"/>
+      <c r="V17" s="291"/>
+      <c r="W17" s="292"/>
       <c r="X17" s="137"/>
     </row>
     <row r="18" spans="1:24">
@@ -21855,14 +21648,14 @@
         <v>38</v>
       </c>
       <c r="P18" s="61" t="s">
-        <v>587</v>
-      </c>
-      <c r="R18" s="311"/>
-      <c r="S18" s="312"/>
-      <c r="T18" s="312"/>
-      <c r="U18" s="312"/>
-      <c r="V18" s="312"/>
-      <c r="W18" s="313"/>
+        <v>576</v>
+      </c>
+      <c r="R18" s="293"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="294"/>
+      <c r="U18" s="294"/>
+      <c r="V18" s="294"/>
+      <c r="W18" s="295"/>
       <c r="X18" s="137"/>
     </row>
     <row r="19" spans="1:24">
@@ -21952,10 +21745,10 @@
         <v>291</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I21" s="127">
         <f t="shared" ref="I21:I36" si="1">+Provisioner</f>
@@ -21978,7 +21771,7 @@
         <v>38</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -22000,7 +21793,7 @@
         <v>224</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I22" s="127">
         <f t="shared" si="1"/>
@@ -22023,7 +21816,7 @@
         <v>38</v>
       </c>
       <c r="P22" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -22045,7 +21838,7 @@
         <v>225</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I23" s="127">
         <f t="shared" si="1"/>
@@ -22068,7 +21861,7 @@
         <v>38</v>
       </c>
       <c r="P23" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -22079,10 +21872,10 @@
         <v>291</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I24" s="127">
         <f t="shared" si="1"/>
@@ -22105,7 +21898,7 @@
         <v>38</v>
       </c>
       <c r="P24" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -22124,7 +21917,7 @@
         <v>214</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I25" s="127">
         <f t="shared" si="1"/>
@@ -22147,7 +21940,7 @@
         <v>38</v>
       </c>
       <c r="P25" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -22170,7 +21963,7 @@
         <v>215</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I26" s="127">
         <f t="shared" si="1"/>
@@ -22193,7 +21986,7 @@
         <v>38</v>
       </c>
       <c r="P26" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -22308,11 +22101,11 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="290" t="s">
+      <c r="A31" s="302" t="s">
         <v>397</v>
       </c>
-      <c r="B31" s="290"/>
-      <c r="C31" s="290"/>
+      <c r="B31" s="302"/>
+      <c r="C31" s="302"/>
       <c r="E31" s="36" t="s">
         <v>343</v>
       </c>
@@ -22338,9 +22131,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="290"/>
-      <c r="B32" s="290"/>
-      <c r="C32" s="290"/>
+      <c r="A32" s="302"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="302"/>
       <c r="E32" s="36" t="s">
         <v>344</v>
       </c>
@@ -22351,7 +22144,7 @@
         <v>216</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I32" s="127">
         <f t="shared" si="1"/>
@@ -22374,13 +22167,13 @@
         <v>38</v>
       </c>
       <c r="P32" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="14.45" customHeight="1">
-      <c r="A33" s="290"/>
-      <c r="B33" s="290"/>
-      <c r="C33" s="290"/>
+      <c r="A33" s="302"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
       <c r="E33" s="36" t="s">
         <v>345</v>
       </c>
@@ -22391,7 +22184,7 @@
         <v>217</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I33" s="127">
         <f t="shared" si="1"/>
@@ -22414,7 +22207,7 @@
         <v>38</v>
       </c>
       <c r="P33" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -22428,7 +22221,7 @@
         <v>218</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I34" s="127">
         <f t="shared" si="1"/>
@@ -22451,7 +22244,7 @@
         <v>38</v>
       </c>
       <c r="P34" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -22681,7 +22474,7 @@
         <v>38</v>
       </c>
       <c r="P44" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -22717,7 +22510,7 @@
         <v>38</v>
       </c>
       <c r="P45" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -22853,10 +22646,10 @@
         <v>291</v>
       </c>
       <c r="G52" s="155" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="H52" s="155" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="I52" s="155">
         <f>ExtAPI</f>
@@ -22879,7 +22672,7 @@
         <v>38</v>
       </c>
       <c r="P52" s="61" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="5:16">
@@ -23018,7 +22811,7 @@
         <v>385</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="J57" s="48"/>
       <c r="K57" s="61" t="s">
@@ -23038,21 +22831,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A31:C33"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="R5:S5"/>
@@ -23069,6 +22847,21 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="R14:W14"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="F37:F43 F46:F48">
     <cfRule type="expression" dxfId="90" priority="6" stopIfTrue="1">
@@ -23166,49 +22959,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="E1" s="291" t="s">
+      <c r="E1" s="303" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
-      <c r="Q1" s="291"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303"/>
+      <c r="Q1" s="303"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="297" t="s">
+      <c r="E2" s="307" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294" t="s">
+      <c r="F2" s="305"/>
+      <c r="G2" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294" t="s">
+      <c r="H2" s="305"/>
+      <c r="I2" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="294"/>
+      <c r="J2" s="305"/>
       <c r="K2" s="151"/>
-      <c r="L2" s="298" t="s">
+      <c r="L2" s="308" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="300"/>
-      <c r="P2" s="294" t="s">
+      <c r="M2" s="309"/>
+      <c r="N2" s="309"/>
+      <c r="O2" s="310"/>
+      <c r="P2" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="295"/>
+      <c r="Q2" s="306"/>
       <c r="Z2" s="137"/>
     </row>
     <row r="3" spans="1:26">
@@ -23258,14 +23051,14 @@
       <c r="Q3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="292" t="s">
+      <c r="T3" s="304" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="292"/>
-      <c r="V3" s="293"/>
-      <c r="W3" s="293"/>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="293"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="298"/>
+      <c r="W3" s="298"/>
+      <c r="X3" s="298"/>
+      <c r="Y3" s="298"/>
       <c r="Z3" s="139"/>
     </row>
     <row r="4" spans="1:26">
@@ -23288,7 +23081,7 @@
         <v>223</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>38</v>
@@ -23318,14 +23111,14 @@
       <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="296" t="s">
+      <c r="T4" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="296"/>
-      <c r="V4" s="293"/>
-      <c r="W4" s="293"/>
-      <c r="X4" s="293"/>
-      <c r="Y4" s="293"/>
+      <c r="U4" s="299"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="298"/>
+      <c r="X4" s="298"/>
+      <c r="Y4" s="298"/>
       <c r="Z4" s="139"/>
     </row>
     <row r="5" spans="1:26">
@@ -23347,10 +23140,10 @@
         <v>289</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>38</v>
@@ -23380,14 +23173,14 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="292" t="s">
+      <c r="T5" s="304" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="292"/>
-      <c r="V5" s="293"/>
-      <c r="W5" s="293"/>
-      <c r="X5" s="293"/>
-      <c r="Y5" s="293"/>
+      <c r="U5" s="304"/>
+      <c r="V5" s="298"/>
+      <c r="W5" s="298"/>
+      <c r="X5" s="298"/>
+      <c r="Y5" s="298"/>
       <c r="Z5" s="139"/>
     </row>
     <row r="6" spans="1:26">
@@ -23412,7 +23205,7 @@
         <v>224</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I6" s="127" t="s">
         <v>38</v>
@@ -23442,17 +23235,17 @@
       <c r="Q6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="296" t="s">
+      <c r="T6" s="299" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="296"/>
-      <c r="V6" s="293" t="str">
+      <c r="U6" s="299"/>
+      <c r="V6" s="298" t="str">
         <f>S4048_1_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="W6" s="293"/>
-      <c r="X6" s="293"/>
-      <c r="Y6" s="293"/>
+      <c r="W6" s="298"/>
+      <c r="X6" s="298"/>
+      <c r="Y6" s="298"/>
       <c r="Z6" s="139"/>
     </row>
     <row r="7" spans="1:26">
@@ -23477,7 +23270,7 @@
         <v>225</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I7" s="127" t="s">
         <v>38</v>
@@ -23528,10 +23321,10 @@
         <v>292</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I8" s="127" t="s">
         <v>38</v>
@@ -23561,16 +23354,16 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="304" t="s">
+      <c r="T8" s="296" t="s">
         <v>167</v>
       </c>
-      <c r="U8" s="304"/>
-      <c r="V8" s="304"/>
-      <c r="W8" s="305" t="s">
+      <c r="U8" s="296"/>
+      <c r="V8" s="296"/>
+      <c r="W8" s="297" t="s">
         <v>287</v>
       </c>
-      <c r="X8" s="305"/>
-      <c r="Y8" s="305"/>
+      <c r="X8" s="297"/>
+      <c r="Y8" s="297"/>
       <c r="Z8" s="139"/>
     </row>
     <row r="9" spans="1:26">
@@ -23595,7 +23388,7 @@
         <v>214</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I9" s="127" t="s">
         <v>38</v>
@@ -23625,14 +23418,14 @@
       <c r="Q9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="306" t="s">
+      <c r="T9" s="300" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="293"/>
-      <c r="Y9" s="293"/>
+      <c r="U9" s="300"/>
+      <c r="V9" s="300"/>
+      <c r="W9" s="298"/>
+      <c r="X9" s="298"/>
+      <c r="Y9" s="298"/>
       <c r="Z9" s="139"/>
     </row>
     <row r="10" spans="1:26">
@@ -23657,7 +23450,7 @@
         <v>215</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I10" s="127" t="s">
         <v>38</v>
@@ -23687,16 +23480,16 @@
       <c r="Q10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="307" t="s">
+      <c r="T10" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="307"/>
-      <c r="V10" s="307"/>
-      <c r="W10" s="293">
+      <c r="U10" s="301"/>
+      <c r="V10" s="301"/>
+      <c r="W10" s="298">
         <v>16384</v>
       </c>
-      <c r="X10" s="293"/>
-      <c r="Y10" s="293"/>
+      <c r="X10" s="298"/>
+      <c r="Y10" s="298"/>
       <c r="Z10" s="139"/>
     </row>
     <row r="11" spans="1:26">
@@ -23767,14 +23560,14 @@
       <c r="O12" s="130"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="61"/>
-      <c r="T12" s="320" t="s">
+      <c r="T12" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="321"/>
-      <c r="V12" s="322"/>
-      <c r="W12" s="323"/>
-      <c r="X12" s="324"/>
-      <c r="Y12" s="325"/>
+      <c r="U12" s="316"/>
+      <c r="V12" s="317"/>
+      <c r="W12" s="318"/>
+      <c r="X12" s="319"/>
+      <c r="Y12" s="320"/>
       <c r="Z12" s="139"/>
     </row>
     <row r="13" spans="1:26">
@@ -23809,16 +23602,16 @@
       <c r="O13" s="130"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="61"/>
-      <c r="T13" s="317" t="s">
+      <c r="T13" s="321" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="318"/>
-      <c r="V13" s="319"/>
-      <c r="W13" s="314">
+      <c r="U13" s="322"/>
+      <c r="V13" s="323"/>
+      <c r="W13" s="324">
         <v>1</v>
       </c>
-      <c r="X13" s="315"/>
-      <c r="Y13" s="316"/>
+      <c r="X13" s="325"/>
+      <c r="Y13" s="326"/>
       <c r="Z13" s="139"/>
     </row>
     <row r="14" spans="1:26">
@@ -23846,23 +23639,23 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="T14" s="317" t="s">
+      <c r="T14" s="321" t="s">
         <v>166</v>
       </c>
-      <c r="U14" s="318"/>
-      <c r="V14" s="319"/>
-      <c r="W14" s="323">
+      <c r="U14" s="322"/>
+      <c r="V14" s="323"/>
+      <c r="W14" s="318">
         <v>1</v>
       </c>
-      <c r="X14" s="324"/>
-      <c r="Y14" s="325"/>
+      <c r="X14" s="319"/>
+      <c r="Y14" s="320"/>
       <c r="Z14" s="139"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="295"/>
+      <c r="B15" s="306"/>
       <c r="C15" s="36"/>
       <c r="E15" s="36" t="s">
         <v>239</v>
@@ -23871,10 +23664,10 @@
         <v>292</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I15" s="127" t="s">
         <v>38</v>
@@ -23904,16 +23697,16 @@
       <c r="Q15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="320" t="s">
+      <c r="T15" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="U15" s="321"/>
-      <c r="V15" s="322"/>
-      <c r="W15" s="323">
+      <c r="U15" s="316"/>
+      <c r="V15" s="317"/>
+      <c r="W15" s="318">
         <v>0</v>
       </c>
-      <c r="X15" s="324"/>
-      <c r="Y15" s="325"/>
+      <c r="X15" s="319"/>
+      <c r="Y15" s="320"/>
       <c r="Z15" s="139"/>
     </row>
     <row r="16" spans="1:26">
@@ -23934,7 +23727,7 @@
         <v>216</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I16" s="127" t="s">
         <v>38</v>
@@ -23984,7 +23777,7 @@
         <v>217</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I17" s="127" t="s">
         <v>38</v>
@@ -24014,14 +23807,14 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="301" t="s">
+      <c r="T17" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="302"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="302"/>
-      <c r="X17" s="302"/>
-      <c r="Y17" s="303"/>
+      <c r="U17" s="312"/>
+      <c r="V17" s="312"/>
+      <c r="W17" s="312"/>
+      <c r="X17" s="312"/>
+      <c r="Y17" s="313"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="39">
@@ -24054,12 +23847,12 @@
       <c r="Q18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="308"/>
-      <c r="U18" s="309"/>
-      <c r="V18" s="309"/>
-      <c r="W18" s="309"/>
-      <c r="X18" s="309"/>
-      <c r="Y18" s="310"/>
+      <c r="T18" s="290"/>
+      <c r="U18" s="291"/>
+      <c r="V18" s="291"/>
+      <c r="W18" s="291"/>
+      <c r="X18" s="291"/>
+      <c r="Y18" s="292"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="39">
@@ -24092,12 +23885,12 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="311"/>
-      <c r="U19" s="312"/>
-      <c r="V19" s="312"/>
-      <c r="W19" s="312"/>
-      <c r="X19" s="312"/>
-      <c r="Y19" s="313"/>
+      <c r="T19" s="293"/>
+      <c r="U19" s="294"/>
+      <c r="V19" s="294"/>
+      <c r="W19" s="294"/>
+      <c r="X19" s="294"/>
+      <c r="Y19" s="295"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="39">
@@ -24126,12 +23919,12 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="308"/>
-      <c r="U20" s="309"/>
-      <c r="V20" s="309"/>
-      <c r="W20" s="309"/>
-      <c r="X20" s="309"/>
-      <c r="Y20" s="310"/>
+      <c r="T20" s="290"/>
+      <c r="U20" s="291"/>
+      <c r="V20" s="291"/>
+      <c r="W20" s="291"/>
+      <c r="X20" s="291"/>
+      <c r="Y20" s="292"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="39">
@@ -24160,12 +23953,12 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="311"/>
-      <c r="U21" s="312"/>
-      <c r="V21" s="312"/>
-      <c r="W21" s="312"/>
-      <c r="X21" s="312"/>
-      <c r="Y21" s="313"/>
+      <c r="T21" s="293"/>
+      <c r="U21" s="294"/>
+      <c r="V21" s="294"/>
+      <c r="W21" s="294"/>
+      <c r="X21" s="294"/>
+      <c r="Y21" s="295"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="39">
@@ -24278,10 +24071,10 @@
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="326" t="s">
+      <c r="A26" s="314" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="326"/>
+      <c r="B26" s="314"/>
       <c r="C26" s="36"/>
       <c r="E26" s="36" t="s">
         <v>250</v>
@@ -24306,8 +24099,8 @@
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="326"/>
-      <c r="B27" s="326"/>
+      <c r="A27" s="314"/>
+      <c r="B27" s="314"/>
       <c r="C27" s="36"/>
       <c r="E27" s="36" t="s">
         <v>251</v>
@@ -24347,7 +24140,7 @@
         <v>223</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I28" s="38" t="s">
         <v>38</v>
@@ -24393,10 +24186,10 @@
         <v>289</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I29" s="38" t="s">
         <v>38</v>
@@ -24442,7 +24235,7 @@
         <v>224</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I30" s="127" t="s">
         <v>38</v>
@@ -24485,7 +24278,7 @@
         <v>225</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I31" s="127" t="s">
         <v>38</v>
@@ -24525,10 +24318,10 @@
         <v>292</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I32" s="127" t="s">
         <v>38</v>
@@ -24560,9 +24353,9 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="290"/>
-      <c r="B33" s="290"/>
-      <c r="C33" s="290"/>
+      <c r="A33" s="302"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
       <c r="E33" s="36" t="s">
         <v>257</v>
       </c>
@@ -24573,7 +24366,7 @@
         <v>214</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I33" s="127" t="s">
         <v>38</v>
@@ -24605,9 +24398,9 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="290"/>
-      <c r="B34" s="290"/>
-      <c r="C34" s="290"/>
+      <c r="A34" s="302"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="302"/>
       <c r="E34" s="36" t="s">
         <v>258</v>
       </c>
@@ -24618,7 +24411,7 @@
         <v>215</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I34" s="127" t="s">
         <v>38</v>
@@ -24650,9 +24443,9 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="290"/>
-      <c r="B35" s="290"/>
-      <c r="C35" s="290"/>
+      <c r="A35" s="302"/>
+      <c r="B35" s="302"/>
+      <c r="C35" s="302"/>
       <c r="E35" s="36" t="s">
         <v>259</v>
       </c>
@@ -24756,10 +24549,10 @@
         <v>292</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I39" s="127" t="s">
         <v>38</v>
@@ -24801,7 +24594,7 @@
         <v>216</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I40" s="127" t="s">
         <v>38</v>
@@ -24843,7 +24636,7 @@
         <v>217</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="I41" s="127" t="s">
         <v>38</v>
@@ -24930,7 +24723,7 @@
         <v>292</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>391</v>
@@ -24971,7 +24764,7 @@
         <v>292</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>393</v>
@@ -25374,28 +25167,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V6:Y6"/>
     <mergeCell ref="A33:C35"/>
     <mergeCell ref="T20:Y20"/>
     <mergeCell ref="T21:Y21"/>
@@ -25412,6 +25183,28 @@
     <mergeCell ref="W12:Y12"/>
     <mergeCell ref="W10:Y10"/>
     <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="F52:F53">
     <cfRule type="expression" dxfId="53" priority="2" stopIfTrue="1">
@@ -25559,18 +25352,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25590,14 +25383,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42535616-3E13-4575-9B51-ECA7D821FF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -25610,4 +25395,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/sample_switch_configs/PowerEdge-R/Solution-Workbook.xlsx
+++ b/data/sample_switch_configs/PowerEdge-R/Solution-Workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" tabRatio="888" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" tabRatio="888" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="590">
   <si>
     <t>Infrastructure Deployment Services</t>
   </si>
@@ -1390,6 +1390,9 @@
     <t>R720xd</t>
   </si>
   <si>
+    <t>256GB</t>
+  </si>
+  <si>
     <t>192.168.110.7</t>
   </si>
   <si>
@@ -1402,6 +1405,9 @@
     <t>192.168.170.7</t>
   </si>
   <si>
+    <t>64GB</t>
+  </si>
+  <si>
     <t>192.168.110.8</t>
   </si>
   <si>
@@ -1426,6 +1432,15 @@
     <t>192.168.170.9</t>
   </si>
   <si>
+    <t>128GB</t>
+  </si>
+  <si>
+    <t>RAID10</t>
+  </si>
+  <si>
+    <t>17.5.10</t>
+  </si>
+  <si>
     <t>VM on SAH</t>
   </si>
   <si>
@@ -1486,6 +1501,9 @@
     <t>192.168.110.19</t>
   </si>
   <si>
+    <t>RAID1+</t>
+  </si>
+  <si>
     <t>192.168.110.20</t>
   </si>
   <si>
@@ -1618,6 +1636,15 @@
     <t>Force10 S4048-2</t>
   </si>
   <si>
+    <t>Xeon(R) CPU E5-2650 v4 @ 2.20GHz</t>
+  </si>
+  <si>
+    <t>Xeon(R) CPU E5-2690 v4 @ 2.60GHz</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
     <t>192.168.191.7</t>
   </si>
   <si>
@@ -1838,6 +1865,12 @@
   </si>
   <si>
     <t>192.168.180.150-200</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.41.40.40</t>
   </si>
   <si>
     <t>Compute0</t>
@@ -6298,6 +6331,45 @@
     <xf numFmtId="0" fontId="0" fillId="97" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="26" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6337,60 +6409,145 @@
     <xf numFmtId="0" fontId="43" fillId="27" borderId="33" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="19" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="21" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="34" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="35" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="26" borderId="35" xfId="141" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="36" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="39" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="40" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="41" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="37" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="6" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="38" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="39" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="41" borderId="40" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6404,10 +6561,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="58" xfId="1629" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="58" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6425,126 +6578,6 @@
     <xf numFmtId="0" fontId="60" fillId="41" borderId="37" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="41" borderId="6" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="41" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="59" xfId="112" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="82" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="12" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="59" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="77" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="83" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="58" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="31" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="32" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="33" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="20" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="25" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1628" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1628" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6577,60 +6610,72 @@
     <xf numFmtId="0" fontId="49" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="32" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6652,29 +6697,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6683,6 +6707,15 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13168,19 +13201,19 @@
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="4"/>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="200"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="213"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
@@ -13268,19 +13301,19 @@
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="4"/>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="203"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="216"/>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
@@ -13368,19 +13401,19 @@
     </row>
     <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="4"/>
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="205"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="206"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="219"/>
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
@@ -13451,19 +13484,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="209"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
+      <c r="L24" s="222"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
@@ -13619,110 +13652,110 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="210" t="s">
+      <c r="B34" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="211"/>
-      <c r="D34" s="211"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="211"/>
-      <c r="K34" s="211"/>
-      <c r="L34" s="212"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="225"/>
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="213" t="s">
+      <c r="C35" s="205"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="213" t="s">
+      <c r="F35" s="205"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="214"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="213" t="s">
+      <c r="I35" s="205"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="215"/>
+      <c r="L35" s="206"/>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="4"/>
-      <c r="B36" s="216">
+      <c r="B36" s="207">
         <v>1</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="217"/>
-      <c r="G36" s="217"/>
-      <c r="H36" s="217"/>
-      <c r="I36" s="217"/>
-      <c r="J36" s="217"/>
-      <c r="K36" s="217"/>
-      <c r="L36" s="219"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="208"/>
+      <c r="L36" s="210"/>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4"/>
-      <c r="B37" s="223">
+      <c r="B37" s="201">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C37" s="224"/>
-      <c r="D37" s="224"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="224"/>
-      <c r="G37" s="224"/>
-      <c r="H37" s="224"/>
-      <c r="I37" s="224"/>
-      <c r="J37" s="224"/>
-      <c r="K37" s="224"/>
-      <c r="L37" s="225"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="202"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="202"/>
+      <c r="L37" s="203"/>
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4"/>
-      <c r="B38" s="223">
+      <c r="B38" s="201">
         <v>1.2</v>
       </c>
-      <c r="C38" s="224"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="224"/>
-      <c r="F38" s="224"/>
-      <c r="G38" s="224"/>
-      <c r="H38" s="224"/>
-      <c r="I38" s="224"/>
-      <c r="J38" s="224"/>
-      <c r="K38" s="224"/>
-      <c r="L38" s="225"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="202"/>
+      <c r="K38" s="202"/>
+      <c r="L38" s="203"/>
       <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="220">
+      <c r="B39" s="198">
         <v>1.3</v>
       </c>
-      <c r="C39" s="221"/>
-      <c r="D39" s="221"/>
-      <c r="E39" s="221"/>
-      <c r="F39" s="221"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="221"/>
-      <c r="I39" s="221"/>
-      <c r="J39" s="221"/>
-      <c r="K39" s="221"/>
-      <c r="L39" s="222"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="199"/>
+      <c r="L39" s="200"/>
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13">
@@ -13742,6 +13775,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="H39:J39"/>
@@ -13754,19 +13800,6 @@
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B34:L34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13785,9 +13818,9 @@
   </sheetPr>
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -13821,21 +13854,21 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="303" t="s">
+      <c r="E2" s="291" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
-      <c r="O2" s="303"/>
-      <c r="P2" s="303"/>
-      <c r="Q2" s="303"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
       <c r="S2" s="125"/>
       <c r="T2" s="125"/>
       <c r="U2" s="125"/>
@@ -13852,37 +13885,37 @@
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="307" t="s">
+      <c r="E3" s="297" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305" t="s">
+      <c r="F3" s="294"/>
+      <c r="G3" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305" t="s">
+      <c r="H3" s="294"/>
+      <c r="I3" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="305"/>
+      <c r="J3" s="294"/>
       <c r="K3" s="151"/>
-      <c r="L3" s="308" t="s">
+      <c r="L3" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="310"/>
-      <c r="P3" s="305" t="s">
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="300"/>
+      <c r="P3" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="306"/>
-      <c r="S3" s="330" t="s">
+      <c r="Q3" s="295"/>
+      <c r="S3" s="327" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="331"/>
-      <c r="U3" s="318"/>
-      <c r="V3" s="319"/>
-      <c r="W3" s="319"/>
-      <c r="X3" s="320"/>
+      <c r="T3" s="328"/>
+      <c r="U3" s="323"/>
+      <c r="V3" s="324"/>
+      <c r="W3" s="324"/>
+      <c r="X3" s="325"/>
       <c r="Y3" s="146"/>
     </row>
     <row r="4" spans="1:25">
@@ -13905,7 +13938,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>46</v>
@@ -13934,14 +13967,14 @@
       <c r="Q4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="332" t="s">
+      <c r="S4" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="333"/>
-      <c r="U4" s="318"/>
-      <c r="V4" s="319"/>
-      <c r="W4" s="319"/>
-      <c r="X4" s="320"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="323"/>
+      <c r="V4" s="324"/>
+      <c r="W4" s="324"/>
+      <c r="X4" s="325"/>
       <c r="Y4" s="146"/>
     </row>
     <row r="5" spans="1:25">
@@ -13966,7 +13999,7 @@
         <v>223</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>38</v>
@@ -13996,14 +14029,14 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="330" t="s">
+      <c r="S5" s="327" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="331"/>
-      <c r="U5" s="318"/>
-      <c r="V5" s="319"/>
-      <c r="W5" s="319"/>
-      <c r="X5" s="320"/>
+      <c r="T5" s="328"/>
+      <c r="U5" s="323"/>
+      <c r="V5" s="324"/>
+      <c r="W5" s="324"/>
+      <c r="X5" s="325"/>
       <c r="Y5" s="146"/>
     </row>
     <row r="6" spans="1:25">
@@ -14025,10 +14058,10 @@
         <v>289</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>38</v>
@@ -14058,17 +14091,17 @@
       <c r="Q6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="332" t="s">
+      <c r="S6" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="333"/>
-      <c r="U6" s="318" t="str">
+      <c r="T6" s="330"/>
+      <c r="U6" s="323" t="str">
         <f>S4048_2_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="V6" s="319"/>
-      <c r="W6" s="319"/>
-      <c r="X6" s="320"/>
+      <c r="V6" s="324"/>
+      <c r="W6" s="324"/>
+      <c r="X6" s="325"/>
       <c r="Y6" s="146"/>
     </row>
     <row r="7" spans="1:25">
@@ -14093,7 +14126,7 @@
         <v>224</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I7" s="127" t="s">
         <v>38</v>
@@ -14146,7 +14179,7 @@
         <v>225</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I8" s="127" t="s">
         <v>38</v>
@@ -14176,16 +14209,16 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="315" t="s">
+      <c r="S8" s="320" t="s">
         <v>167</v>
       </c>
-      <c r="T8" s="316"/>
-      <c r="U8" s="317"/>
-      <c r="V8" s="327" t="s">
+      <c r="T8" s="321"/>
+      <c r="U8" s="322"/>
+      <c r="V8" s="331" t="s">
         <v>287</v>
       </c>
-      <c r="W8" s="328"/>
-      <c r="X8" s="329"/>
+      <c r="W8" s="332"/>
+      <c r="X8" s="333"/>
       <c r="Y8" s="139"/>
     </row>
     <row r="9" spans="1:25">
@@ -14207,10 +14240,10 @@
         <v>292</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I9" s="127" t="s">
         <v>38</v>
@@ -14245,9 +14278,9 @@
       </c>
       <c r="T9" s="335"/>
       <c r="U9" s="336"/>
-      <c r="V9" s="318"/>
-      <c r="W9" s="319"/>
-      <c r="X9" s="320"/>
+      <c r="V9" s="323"/>
+      <c r="W9" s="324"/>
+      <c r="X9" s="325"/>
       <c r="Y9" s="146"/>
     </row>
     <row r="10" spans="1:25">
@@ -14272,7 +14305,7 @@
         <v>214</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I10" s="127" t="s">
         <v>38</v>
@@ -14307,11 +14340,11 @@
       </c>
       <c r="T10" s="338"/>
       <c r="U10" s="339"/>
-      <c r="V10" s="318">
+      <c r="V10" s="323">
         <v>20480</v>
       </c>
-      <c r="W10" s="319"/>
-      <c r="X10" s="320"/>
+      <c r="W10" s="324"/>
+      <c r="X10" s="325"/>
       <c r="Y10" s="146"/>
     </row>
     <row r="11" spans="1:25">
@@ -14336,7 +14369,7 @@
         <v>215</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I11" s="127" t="s">
         <v>38</v>
@@ -14400,14 +14433,14 @@
       <c r="O12" s="130"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="61"/>
-      <c r="S12" s="315" t="s">
+      <c r="S12" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="316"/>
-      <c r="U12" s="317"/>
-      <c r="V12" s="318"/>
-      <c r="W12" s="319"/>
-      <c r="X12" s="320"/>
+      <c r="T12" s="321"/>
+      <c r="U12" s="322"/>
+      <c r="V12" s="323"/>
+      <c r="W12" s="324"/>
+      <c r="X12" s="325"/>
       <c r="Y12" s="146"/>
     </row>
     <row r="13" spans="1:25">
@@ -14442,24 +14475,24 @@
       <c r="O13" s="130"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="61"/>
-      <c r="S13" s="321" t="s">
+      <c r="S13" s="317" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="322"/>
-      <c r="U13" s="323"/>
-      <c r="V13" s="327">
+      <c r="T13" s="318"/>
+      <c r="U13" s="319"/>
+      <c r="V13" s="331">
         <f>VLTDOMAIN</f>
         <v>1</v>
       </c>
-      <c r="W13" s="328"/>
-      <c r="X13" s="329"/>
+      <c r="W13" s="332"/>
+      <c r="X13" s="333"/>
       <c r="Y13" s="139"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="307" t="s">
+      <c r="A14" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="306"/>
+      <c r="B14" s="295"/>
       <c r="E14" s="36" t="s">
         <v>237</v>
       </c>
@@ -14481,16 +14514,16 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="S14" s="321" t="s">
+      <c r="S14" s="317" t="s">
         <v>166</v>
       </c>
-      <c r="T14" s="322"/>
-      <c r="U14" s="323"/>
-      <c r="V14" s="318">
+      <c r="T14" s="318"/>
+      <c r="U14" s="319"/>
+      <c r="V14" s="323">
         <v>2</v>
       </c>
-      <c r="W14" s="319"/>
-      <c r="X14" s="320"/>
+      <c r="W14" s="324"/>
+      <c r="X14" s="325"/>
       <c r="Y14" s="146"/>
     </row>
     <row r="15" spans="1:25">
@@ -14521,16 +14554,16 @@
       <c r="O15" s="130"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="61"/>
-      <c r="S15" s="315" t="s">
+      <c r="S15" s="320" t="s">
         <v>67</v>
       </c>
-      <c r="T15" s="316"/>
-      <c r="U15" s="317"/>
-      <c r="V15" s="318">
+      <c r="T15" s="321"/>
+      <c r="U15" s="322"/>
+      <c r="V15" s="323">
         <v>1</v>
       </c>
-      <c r="W15" s="319"/>
-      <c r="X15" s="320"/>
+      <c r="W15" s="324"/>
+      <c r="X15" s="325"/>
       <c r="Y15" s="146"/>
     </row>
     <row r="16" spans="1:25">
@@ -14548,10 +14581,10 @@
         <v>292</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="I16" s="127" t="s">
         <v>38</v>
@@ -14598,7 +14631,7 @@
         <v>216</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="I17" s="127" t="s">
         <v>38</v>
@@ -14628,14 +14661,14 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="311" t="s">
+      <c r="S17" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="312"/>
-      <c r="U17" s="312"/>
-      <c r="V17" s="312"/>
-      <c r="W17" s="312"/>
-      <c r="X17" s="313"/>
+      <c r="T17" s="302"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="303"/>
       <c r="Y17" s="140"/>
     </row>
     <row r="18" spans="1:25">
@@ -14654,7 +14687,7 @@
         <v>217</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="I18" s="127" t="s">
         <v>38</v>
@@ -14684,12 +14717,12 @@
       <c r="Q18" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="290"/>
-      <c r="T18" s="291"/>
-      <c r="U18" s="291"/>
-      <c r="V18" s="291"/>
-      <c r="W18" s="291"/>
-      <c r="X18" s="292"/>
+      <c r="S18" s="308"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="309"/>
+      <c r="V18" s="309"/>
+      <c r="W18" s="309"/>
+      <c r="X18" s="310"/>
       <c r="Y18" s="141"/>
     </row>
     <row r="19" spans="1:25">
@@ -14721,12 +14754,12 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S19" s="293"/>
-      <c r="T19" s="294"/>
-      <c r="U19" s="294"/>
-      <c r="V19" s="294"/>
-      <c r="W19" s="294"/>
-      <c r="X19" s="295"/>
+      <c r="S19" s="311"/>
+      <c r="T19" s="312"/>
+      <c r="U19" s="312"/>
+      <c r="V19" s="312"/>
+      <c r="W19" s="312"/>
+      <c r="X19" s="313"/>
       <c r="Y19" s="141"/>
     </row>
     <row r="20" spans="1:25">
@@ -14758,12 +14791,12 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="290"/>
-      <c r="T20" s="291"/>
-      <c r="U20" s="291"/>
-      <c r="V20" s="291"/>
-      <c r="W20" s="291"/>
-      <c r="X20" s="292"/>
+      <c r="S20" s="308"/>
+      <c r="T20" s="309"/>
+      <c r="U20" s="309"/>
+      <c r="V20" s="309"/>
+      <c r="W20" s="309"/>
+      <c r="X20" s="310"/>
       <c r="Y20" s="141"/>
     </row>
     <row r="21" spans="1:25">
@@ -14793,12 +14826,12 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="293"/>
-      <c r="T21" s="294"/>
-      <c r="U21" s="294"/>
-      <c r="V21" s="294"/>
-      <c r="W21" s="294"/>
-      <c r="X21" s="295"/>
+      <c r="S21" s="311"/>
+      <c r="T21" s="312"/>
+      <c r="U21" s="312"/>
+      <c r="V21" s="312"/>
+      <c r="W21" s="312"/>
+      <c r="X21" s="313"/>
       <c r="Y21" s="141"/>
     </row>
     <row r="22" spans="1:25">
@@ -15014,7 +15047,7 @@
         <v>223</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="I29" s="127" t="s">
         <v>38</v>
@@ -15060,10 +15093,10 @@
         <v>289</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="I30" s="127" t="s">
         <v>38</v>
@@ -15112,7 +15145,7 @@
         <v>224</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="I31" s="127" t="s">
         <v>38</v>
@@ -15144,9 +15177,9 @@
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="302"/>
-      <c r="B32" s="302"/>
-      <c r="C32" s="302"/>
+      <c r="A32" s="290"/>
+      <c r="B32" s="290"/>
+      <c r="C32" s="290"/>
       <c r="E32" s="36" t="s">
         <v>255</v>
       </c>
@@ -15157,7 +15190,7 @@
         <v>225</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="I32" s="127" t="s">
         <v>38</v>
@@ -15189,9 +15222,9 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="302"/>
-      <c r="B33" s="302"/>
-      <c r="C33" s="302"/>
+      <c r="A33" s="290"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
       <c r="E33" s="36" t="s">
         <v>256</v>
       </c>
@@ -15199,10 +15232,10 @@
         <v>292</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="I33" s="127" t="s">
         <v>38</v>
@@ -15234,9 +15267,9 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="302"/>
-      <c r="B34" s="302"/>
-      <c r="C34" s="302"/>
+      <c r="A34" s="290"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="290"/>
       <c r="E34" s="36" t="s">
         <v>257</v>
       </c>
@@ -15247,7 +15280,7 @@
         <v>214</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="I34" s="127" t="s">
         <v>38</v>
@@ -15289,7 +15322,7 @@
         <v>215</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="I35" s="127" t="s">
         <v>38</v>
@@ -15321,10 +15354,10 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="314" t="s">
+      <c r="A36" s="326" t="s">
         <v>399</v>
       </c>
-      <c r="B36" s="314"/>
+      <c r="B36" s="326"/>
       <c r="E36" s="36" t="s">
         <v>259</v>
       </c>
@@ -15348,8 +15381,8 @@
       <c r="Q36" s="61"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="314"/>
-      <c r="B37" s="314"/>
+      <c r="A37" s="326"/>
+      <c r="B37" s="326"/>
       <c r="E37" s="36" t="s">
         <v>260</v>
       </c>
@@ -15440,10 +15473,10 @@
         <v>292</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I40" s="127" t="s">
         <v>38</v>
@@ -15487,7 +15520,7 @@
         <v>216</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I41" s="127" t="s">
         <v>38</v>
@@ -15531,7 +15564,7 @@
         <v>217</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="I42" s="127" t="s">
         <v>38</v>
@@ -16303,6 +16336,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A32:C34"/>
     <mergeCell ref="S20:X20"/>
     <mergeCell ref="S21:X21"/>
@@ -16319,28 +16374,6 @@
     <mergeCell ref="V9:X9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="S17:X17"/>
   </mergeCells>
   <conditionalFormatting sqref="F53:F54">
     <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
@@ -16417,15 +16450,15 @@
     </row>
     <row r="2" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="72"/>
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="226" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="256"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
       <c r="K2" s="72"/>
@@ -16435,124 +16468,124 @@
     </row>
     <row r="3" spans="1:14" s="73" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="248" t="s">
+      <c r="C3" s="230"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="250"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="231"/>
       <c r="I3" s="72"/>
       <c r="J3" s="72"/>
-      <c r="K3" s="260" t="s">
+      <c r="K3" s="232" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="261"/>
-      <c r="M3" s="262"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="234"/>
       <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" s="73" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="72"/>
-      <c r="B4" s="245"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="231"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="72"/>
       <c r="J4" s="72"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="265"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="243"/>
       <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="72"/>
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="229" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="248" t="s">
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="250"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="231"/>
       <c r="I5" s="72"/>
       <c r="J5" s="74"/>
-      <c r="K5" s="266"/>
-      <c r="L5" s="267"/>
-      <c r="M5" s="268"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="245"/>
+      <c r="M5" s="246"/>
       <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="72"/>
-      <c r="B6" s="272"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
+      <c r="B6" s="250"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
       <c r="I6" s="72"/>
       <c r="J6" s="74"/>
-      <c r="K6" s="266"/>
-      <c r="L6" s="267"/>
-      <c r="M6" s="268"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="246"/>
       <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="72"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="276"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
       <c r="I7" s="72"/>
       <c r="J7" s="72"/>
-      <c r="K7" s="266"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="268"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="246"/>
       <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="72"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="276"/>
-      <c r="F8" s="276"/>
-      <c r="G8" s="276"/>
-      <c r="H8" s="276"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="266"/>
-      <c r="L8" s="267"/>
-      <c r="M8" s="268"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="246"/>
       <c r="N8" s="72"/>
     </row>
     <row r="9" spans="1:14" s="73" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="72"/>
-      <c r="B9" s="277"/>
-      <c r="C9" s="277"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="253"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
       <c r="I9" s="72"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="266"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="268"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="246"/>
       <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14" s="73" customFormat="1" ht="5.25" customHeight="1">
@@ -16566,47 +16599,47 @@
       <c r="H10" s="76"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="267"/>
-      <c r="M10" s="268"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
+      <c r="M10" s="246"/>
       <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="72"/>
-      <c r="B11" s="254" t="s">
+      <c r="B11" s="257" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="255"/>
-      <c r="H11" s="256"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="227"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="228"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="267"/>
-      <c r="M11" s="268"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="246"/>
       <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="77"/>
-      <c r="C12" s="248" t="s">
+      <c r="C12" s="229" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="248" t="s">
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="229" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="249"/>
-      <c r="H12" s="250"/>
+      <c r="G12" s="230"/>
+      <c r="H12" s="231"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="267"/>
-      <c r="M12" s="268"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="246"/>
       <c r="N12" s="72"/>
     </row>
     <row r="13" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16614,17 +16647,17 @@
       <c r="B13" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="245"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="247"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="236"/>
+      <c r="H13" s="237"/>
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="267"/>
-      <c r="M13" s="268"/>
+      <c r="K13" s="244"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="246"/>
       <c r="N13" s="72"/>
     </row>
     <row r="14" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16632,17 +16665,17 @@
       <c r="B14" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="245"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="247"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="236"/>
+      <c r="H14" s="237"/>
       <c r="I14" s="72"/>
       <c r="J14" s="80"/>
-      <c r="K14" s="266"/>
-      <c r="L14" s="267"/>
-      <c r="M14" s="268"/>
+      <c r="K14" s="244"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="246"/>
       <c r="N14" s="72"/>
     </row>
     <row r="15" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
@@ -16650,17 +16683,17 @@
       <c r="B15" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="229"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="247"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="236"/>
+      <c r="H15" s="237"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="267"/>
-      <c r="M15" s="268"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="246"/>
       <c r="N15" s="72"/>
     </row>
     <row r="16" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -16668,17 +16701,17 @@
       <c r="B16" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="231"/>
-      <c r="F16" s="245"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="247"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="236"/>
+      <c r="H16" s="237"/>
       <c r="I16" s="72"/>
       <c r="J16" s="72"/>
-      <c r="K16" s="269"/>
-      <c r="L16" s="270"/>
-      <c r="M16" s="271"/>
+      <c r="K16" s="247"/>
+      <c r="L16" s="248"/>
+      <c r="M16" s="249"/>
       <c r="N16" s="72"/>
     </row>
     <row r="17" spans="1:14" s="73" customFormat="1" ht="3" customHeight="1">
@@ -16699,15 +16732,15 @@
     </row>
     <row r="18" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="72"/>
-      <c r="B18" s="254" t="s">
+      <c r="B18" s="257" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="258"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="258"/>
+      <c r="H18" s="259"/>
       <c r="I18" s="72"/>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
@@ -16718,16 +16751,16 @@
     <row r="19" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="72"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="248" t="s">
+      <c r="C19" s="229" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="249"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="248" t="s">
+      <c r="D19" s="230"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="229" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="249"/>
-      <c r="H19" s="250"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="231"/>
       <c r="I19" s="72"/>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
@@ -16740,12 +16773,12 @@
       <c r="B20" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="246"/>
-      <c r="H20" s="247"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="239"/>
+      <c r="E20" s="240"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="237"/>
       <c r="I20" s="72"/>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
@@ -16758,12 +16791,12 @@
       <c r="B21" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="245"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="247"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="240"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="237"/>
       <c r="I21" s="72"/>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
@@ -16776,12 +16809,12 @@
       <c r="B22" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="246"/>
-      <c r="H22" s="247"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="239"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="237"/>
       <c r="I22" s="72"/>
       <c r="J22" s="72"/>
       <c r="K22" s="72"/>
@@ -16794,12 +16827,12 @@
       <c r="B23" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="247"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="237"/>
       <c r="I23" s="72"/>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
@@ -16810,16 +16843,16 @@
     <row r="24" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="72"/>
       <c r="B24" s="82"/>
-      <c r="C24" s="248" t="s">
+      <c r="C24" s="229" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="248" t="s">
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="229" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="249"/>
-      <c r="H24" s="250"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="231"/>
       <c r="I24" s="72"/>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
@@ -16832,12 +16865,12 @@
       <c r="B25" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="229"/>
-      <c r="D25" s="230"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="245"/>
-      <c r="G25" s="246"/>
-      <c r="H25" s="247"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="237"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="83" t="s">
@@ -16852,12 +16885,12 @@
       <c r="B26" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="229"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="247"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="237"/>
       <c r="I26" s="72"/>
       <c r="J26" s="72"/>
       <c r="K26" s="85" t="s">
@@ -16872,12 +16905,12 @@
       <c r="B27" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="247"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="236"/>
+      <c r="H27" s="237"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="85" t="s">
@@ -16892,12 +16925,12 @@
       <c r="B28" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="229"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="245"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="247"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="236"/>
+      <c r="H28" s="237"/>
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="87" t="s">
@@ -16912,9 +16945,9 @@
       <c r="B29" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="236"/>
-      <c r="D29" s="251"/>
-      <c r="E29" s="252"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="262"/>
       <c r="F29" s="64"/>
       <c r="G29" s="90"/>
       <c r="H29" s="90"/>
@@ -16928,16 +16961,16 @@
     <row r="30" spans="1:14" s="73" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="72"/>
       <c r="B30" s="82"/>
-      <c r="C30" s="248" t="s">
+      <c r="C30" s="229" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="249"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="248" t="s">
+      <c r="D30" s="230"/>
+      <c r="E30" s="231"/>
+      <c r="F30" s="229" t="s">
         <v>201</v>
       </c>
-      <c r="G30" s="249"/>
-      <c r="H30" s="250"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="231"/>
       <c r="I30" s="72"/>
       <c r="J30" s="72"/>
       <c r="K30" s="91"/>
@@ -16950,12 +16983,12 @@
       <c r="B31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="229"/>
-      <c r="D31" s="230"/>
-      <c r="E31" s="231"/>
-      <c r="F31" s="232"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="234"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="267"/>
+      <c r="H31" s="268"/>
       <c r="I31" s="92"/>
       <c r="J31" s="92"/>
       <c r="K31" s="69"/>
@@ -16968,12 +17001,12 @@
       <c r="B32" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="229"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="232"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="234"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="240"/>
+      <c r="F32" s="266"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="268"/>
       <c r="I32" s="92"/>
       <c r="J32" s="92"/>
       <c r="K32" s="69"/>
@@ -16986,12 +17019,12 @@
       <c r="B33" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="229"/>
-      <c r="D33" s="230"/>
-      <c r="E33" s="231"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="233"/>
-      <c r="H33" s="234"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="266"/>
+      <c r="G33" s="267"/>
+      <c r="H33" s="268"/>
       <c r="I33" s="92"/>
       <c r="J33" s="92"/>
       <c r="K33" s="69"/>
@@ -17004,12 +17037,12 @@
       <c r="B34" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="235"/>
-      <c r="G34" s="233"/>
-      <c r="H34" s="234"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="239"/>
+      <c r="E34" s="240"/>
+      <c r="F34" s="269"/>
+      <c r="G34" s="267"/>
+      <c r="H34" s="268"/>
       <c r="I34" s="92"/>
       <c r="J34" s="92"/>
       <c r="K34" s="69"/>
@@ -17022,9 +17055,9 @@
       <c r="B35" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="236"/>
-      <c r="D35" s="237"/>
-      <c r="E35" s="238"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="271"/>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
       <c r="H35" s="93"/>
@@ -17053,12 +17086,12 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="92"/>
-      <c r="B37" s="239" t="s">
+      <c r="B37" s="272" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="240"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="241"/>
+      <c r="C37" s="273"/>
+      <c r="D37" s="273"/>
+      <c r="E37" s="274"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="93"/>
@@ -17071,11 +17104,11 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="92"/>
-      <c r="B38" s="242" t="s">
+      <c r="B38" s="275" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="243"/>
-      <c r="D38" s="244"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="277"/>
       <c r="E38" s="94"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
@@ -17089,11 +17122,11 @@
     </row>
     <row r="39" spans="1:14" ht="13.5" thickBot="1">
       <c r="A39" s="92"/>
-      <c r="B39" s="226" t="s">
+      <c r="B39" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="227"/>
-      <c r="D39" s="228"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="265"/>
       <c r="E39" s="95"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
@@ -17123,6 +17156,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -17139,54 +17220,6 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B4 E4">
     <cfRule type="expression" dxfId="169" priority="7">
@@ -17792,8 +17825,8 @@
   </sheetPr>
   <dimension ref="S3:W32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -17815,16 +17848,16 @@
     </row>
     <row r="4" spans="19:22" ht="15.75" customHeight="1">
       <c r="S4" s="39" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="19:22" ht="15.75" customHeight="1">
@@ -17832,13 +17865,13 @@
         <v>110</v>
       </c>
       <c r="T5" s="185" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="U5" s="185" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="V5" s="185" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="19:22" ht="15.75" customHeight="1">
@@ -17849,10 +17882,10 @@
         <v>212</v>
       </c>
       <c r="U6" s="187" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="V6" s="187" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="19:22" ht="15.75" customHeight="1">
@@ -17860,13 +17893,13 @@
         <v>130</v>
       </c>
       <c r="T7" s="188" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="U7" s="197" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="V7" s="188" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="19:22" ht="15.75" customHeight="1">
@@ -17874,13 +17907,13 @@
         <v>140</v>
       </c>
       <c r="T8" s="189" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="U8" s="189" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="V8" s="189" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="19:22" ht="15.75" customHeight="1">
@@ -17891,10 +17924,10 @@
         <v>220</v>
       </c>
       <c r="U9" s="190" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="V9" s="190" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="19:22" ht="15.75" customHeight="1">
@@ -17902,13 +17935,13 @@
         <v>180</v>
       </c>
       <c r="T10" s="191" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="U10" s="191" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="V10" s="191" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="19:22" ht="15.75" customHeight="1">
@@ -17916,13 +17949,13 @@
         <v>190</v>
       </c>
       <c r="T11" s="192" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="U11" s="192" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="V11" s="192" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="19:22" ht="15.75" customHeight="1">
@@ -17930,27 +17963,27 @@
         <v>191</v>
       </c>
       <c r="T12" s="193" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="U12" s="193" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="V12" s="193" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="19:22" ht="15">
       <c r="S13" s="186" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="T13" s="186" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="U13" s="186" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="V13" s="186" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="19:22" ht="15.75" customHeight="1">
@@ -17978,7 +18011,7 @@
     </row>
     <row r="21" spans="19:23" ht="15.75" customHeight="1">
       <c r="S21" s="147" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="T21" s="147" t="s">
         <v>312</v>
@@ -17995,7 +18028,7 @@
     </row>
     <row r="22" spans="19:23" ht="15.75" customHeight="1">
       <c r="S22" s="147" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="T22" s="147" t="s">
         <v>312</v>
@@ -18012,7 +18045,7 @@
     </row>
     <row r="23" spans="19:23" ht="15.75" customHeight="1">
       <c r="S23" s="147" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="T23" s="147" t="s">
         <v>47</v>
@@ -18029,7 +18062,7 @@
     </row>
     <row r="24" spans="19:23" ht="15.75" customHeight="1">
       <c r="S24" s="147" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="T24" s="147" t="s">
         <v>312</v>
@@ -18046,7 +18079,7 @@
     </row>
     <row r="25" spans="19:23" ht="15.75" customHeight="1">
       <c r="S25" s="147" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="T25" s="147" t="s">
         <v>310</v>
@@ -18063,7 +18096,7 @@
     </row>
     <row r="26" spans="19:23" ht="15.75" customHeight="1">
       <c r="S26" s="147" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="T26" s="147" t="s">
         <v>310</v>
@@ -18080,7 +18113,7 @@
     </row>
     <row r="27" spans="19:23" ht="15.75" customHeight="1">
       <c r="S27" s="147" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="T27" s="147" t="s">
         <v>312</v>
@@ -18097,7 +18130,7 @@
     </row>
     <row r="28" spans="19:23" ht="15.75" customHeight="1">
       <c r="S28" s="147" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="T28" s="147" t="s">
         <v>310</v>
@@ -18114,7 +18147,7 @@
     </row>
     <row r="29" spans="19:23" ht="15.75" customHeight="1">
       <c r="S29" s="147" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="T29" s="147" t="s">
         <v>312</v>
@@ -18131,7 +18164,7 @@
     </row>
     <row r="30" spans="19:23" ht="15.75" customHeight="1">
       <c r="S30" s="147" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="T30" s="147" t="s">
         <v>313</v>
@@ -18188,8 +18221,8 @@
   </sheetPr>
   <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18433,7 +18466,7 @@
       <c r="C7" s="108"/>
       <c r="D7" s="8"/>
       <c r="E7" s="134" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="F7" s="142">
         <v>130</v>
@@ -18571,7 +18604,7 @@
       <c r="C12" s="106"/>
       <c r="D12" s="8"/>
       <c r="E12" s="135" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="F12" s="142">
         <v>191</v>
@@ -19437,7 +19470,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19465,7 +19498,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="45">
       <c r="A1" s="156" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B1" s="156" t="s">
         <v>403</v>
@@ -19535,35 +19568,35 @@
     </row>
     <row r="2" spans="1:20" ht="30.75" thickBot="1">
       <c r="A2" s="156" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D2" s="156" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="E2" s="157" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="F2" s="156" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="G2" s="156" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H2" s="156"/>
       <c r="I2" s="157" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="J2" s="157" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="K2" s="157" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="L2" s="156"/>
       <c r="M2" s="156"/>
@@ -19577,14 +19610,14 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="158" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B3" s="181"/>
       <c r="C3" s="182" t="s">
         <v>413</v>
       </c>
       <c r="D3" s="182" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E3" s="159"/>
       <c r="F3" s="160"/>
@@ -19595,7 +19628,9 @@
       <c r="K3" s="164"/>
       <c r="L3" s="165"/>
       <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
+      <c r="N3" s="166" t="s">
+        <v>414</v>
+      </c>
       <c r="O3" s="166"/>
       <c r="P3" s="166"/>
       <c r="Q3" s="166"/>
@@ -19605,39 +19640,41 @@
     </row>
     <row r="4" spans="1:20" ht="30.75" thickBot="1">
       <c r="A4" s="158" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C4" s="182" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D4" s="182" t="s">
         <v>137</v>
       </c>
       <c r="E4" s="159" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F4" s="160"/>
       <c r="G4" s="160" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H4" s="161" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I4" s="162" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J4" s="163" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K4" s="164"/>
       <c r="L4" s="167" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
+      <c r="N4" s="166" t="s">
+        <v>419</v>
+      </c>
       <c r="O4" s="166"/>
       <c r="P4" s="166"/>
       <c r="Q4" s="166"/>
@@ -19647,37 +19684,39 @@
     </row>
     <row r="5" spans="1:20" ht="30.75" thickBot="1">
       <c r="A5" s="158" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B5" s="181" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C5" s="182" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D5" s="182" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="159" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F5" s="160"/>
       <c r="G5" s="160" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H5" s="161" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I5" s="162"/>
       <c r="J5" s="163" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K5" s="168"/>
       <c r="L5" s="167" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
+      <c r="N5" s="166" t="s">
+        <v>419</v>
+      </c>
       <c r="O5" s="166"/>
       <c r="P5" s="166"/>
       <c r="Q5" s="166"/>
@@ -19687,99 +19726,127 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1">
       <c r="A6" s="166" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C6" s="166" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D6" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E6" s="159" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F6" s="160" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G6" s="160" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H6" s="161" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I6" s="162"/>
       <c r="J6" s="163" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K6" s="168"/>
       <c r="L6" s="167"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
+      <c r="M6" s="166" t="s">
+        <v>496</v>
+      </c>
+      <c r="N6" s="166" t="s">
+        <v>428</v>
+      </c>
+      <c r="O6" s="166">
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q6" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R6" s="166" t="s">
+        <v>429</v>
+      </c>
+      <c r="S6" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T6" s="166"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1">
       <c r="A7" s="166" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C7" s="166" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D7" s="166" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="159" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F7" s="160" t="s">
         <v>137</v>
       </c>
       <c r="G7" s="160" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H7" s="161" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I7" s="162"/>
       <c r="J7" s="163" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K7" s="168"/>
       <c r="L7" s="167"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
+      <c r="M7" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="R7" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="166" t="s">
+        <v>137</v>
+      </c>
       <c r="T7" s="166"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
       <c r="A8" s="166" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B8" s="179" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C8" s="166" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D8" s="166" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="159" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F8" s="160" t="s">
         <v>137</v>
@@ -19788,388 +19855,528 @@
       <c r="H8" s="161"/>
       <c r="I8" s="162"/>
       <c r="J8" s="163" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K8" s="168"/>
       <c r="L8" s="167"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="166"/>
+      <c r="M8" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="S8" s="166" t="s">
+        <v>137</v>
+      </c>
       <c r="T8" s="166"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
       <c r="A9" s="166" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B9" s="179" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="C9" s="166" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D9" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E9" s="159" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F9" s="160" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G9" s="160"/>
       <c r="H9" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I9" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J9" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K9" s="168"/>
       <c r="L9" s="167"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
+      <c r="M9" s="166" t="s">
+        <v>496</v>
+      </c>
+      <c r="N9" s="166" t="s">
+        <v>428</v>
+      </c>
+      <c r="O9" s="166">
+        <v>2.5</v>
+      </c>
+      <c r="P9" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q9" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R9" s="166" t="s">
+        <v>429</v>
+      </c>
+      <c r="S9" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T9" s="166"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1">
       <c r="A10" s="166" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B10" s="179" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="C10" s="166" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D10" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E10" s="159" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="F10" s="160" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G10" s="160"/>
       <c r="H10" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I10" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J10" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K10" s="168"/>
       <c r="L10" s="167"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
+      <c r="M10" s="166" t="s">
+        <v>496</v>
+      </c>
+      <c r="N10" s="166" t="s">
+        <v>428</v>
+      </c>
+      <c r="O10" s="166">
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q10" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R10" s="166" t="s">
+        <v>429</v>
+      </c>
+      <c r="S10" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T10" s="166"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1">
       <c r="A11" s="166" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B11" s="179" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C11" s="166" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D11" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E11" s="159" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F11" s="160" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G11" s="160"/>
       <c r="H11" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I11" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J11" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K11" s="168"/>
       <c r="L11" s="167"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
+      <c r="M11" s="166" t="s">
+        <v>496</v>
+      </c>
+      <c r="N11" s="166" t="s">
+        <v>428</v>
+      </c>
+      <c r="O11" s="166">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q11" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R11" s="166" t="s">
+        <v>429</v>
+      </c>
+      <c r="S11" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T11" s="166"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1">
       <c r="A12" s="166" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B12" s="179" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C12" s="166" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D12" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E12" s="169"/>
       <c r="F12" s="160" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="G12" s="160"/>
       <c r="H12" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I12" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J12" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K12" s="168"/>
       <c r="L12" s="167"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
+      <c r="M12" s="166" t="s">
+        <v>497</v>
+      </c>
+      <c r="N12" s="166" t="s">
+        <v>414</v>
+      </c>
+      <c r="O12" s="166">
+        <v>2.5</v>
+      </c>
+      <c r="P12" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q12" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R12" s="166" t="s">
+        <v>429</v>
+      </c>
+      <c r="S12" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T12" s="166"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="A13" s="166" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B13" s="179" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C13" s="166" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D13" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E13" s="169"/>
       <c r="F13" s="160" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G13" s="160"/>
       <c r="H13" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I13" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J13" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K13" s="168"/>
       <c r="L13" s="167"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
+      <c r="M13" s="166" t="s">
+        <v>497</v>
+      </c>
+      <c r="N13" s="166" t="s">
+        <v>414</v>
+      </c>
+      <c r="O13" s="166">
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q13" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R13" s="166" t="s">
+        <v>429</v>
+      </c>
+      <c r="S13" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T13" s="166"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="A14" s="166" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="C14" s="166" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D14" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E14" s="169"/>
       <c r="F14" s="160" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G14" s="160"/>
       <c r="H14" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I14" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J14" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K14" s="168"/>
       <c r="L14" s="167"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
+      <c r="M14" s="166" t="s">
+        <v>497</v>
+      </c>
+      <c r="N14" s="166" t="s">
+        <v>414</v>
+      </c>
+      <c r="O14" s="166">
+        <v>2.5</v>
+      </c>
+      <c r="P14" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q14" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R14" s="166" t="s">
+        <v>429</v>
+      </c>
+      <c r="S14" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T14" s="166"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="170" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B15" s="179" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C15" s="166" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D15" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E15" s="169"/>
       <c r="F15" s="160" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G15" s="160"/>
       <c r="H15" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I15" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J15" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K15" s="168" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L15" s="167"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
+      <c r="M15" s="166" t="s">
+        <v>497</v>
+      </c>
+      <c r="N15" s="166" t="s">
+        <v>428</v>
+      </c>
+      <c r="O15" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="P15" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q15" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R15" s="166" t="s">
+        <v>451</v>
+      </c>
+      <c r="S15" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T15" s="166"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1">
       <c r="A16" s="170" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B16" s="179" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C16" s="166" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D16" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E16" s="169"/>
       <c r="F16" s="160" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G16" s="160"/>
       <c r="H16" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I16" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J16" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K16" s="168" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L16" s="167"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
+      <c r="M16" s="166" t="s">
+        <v>497</v>
+      </c>
+      <c r="N16" s="166" t="s">
+        <v>428</v>
+      </c>
+      <c r="O16" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="P16" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q16" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R16" s="166" t="s">
+        <v>451</v>
+      </c>
+      <c r="S16" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T16" s="166"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1">
       <c r="A17" s="170" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B17" s="179" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C17" s="166" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D17" s="166" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E17" s="169"/>
       <c r="F17" s="160" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G17" s="160"/>
       <c r="H17" s="161" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I17" s="162" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J17" s="163" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K17" s="168" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L17" s="167"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
+      <c r="M17" s="166" t="s">
+        <v>497</v>
+      </c>
+      <c r="N17" s="166" t="s">
+        <v>428</v>
+      </c>
+      <c r="O17" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="P17" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q17" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="R17" s="166" t="s">
+        <v>451</v>
+      </c>
+      <c r="S17" s="166" t="s">
+        <v>430</v>
+      </c>
       <c r="T17" s="166"/>
     </row>
     <row r="18" spans="1:20" s="137" customFormat="1" ht="15.75" thickBot="1">
       <c r="A18" s="195" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B18" s="195" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C18" s="195" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="D18" s="195" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="E18" s="194" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F18" s="166"/>
       <c r="G18" s="166"/>
@@ -20211,19 +20418,19 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="175" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B20" s="175" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" s="175" t="s">
+        <v>454</v>
+      </c>
+      <c r="D20" s="175" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" s="175" t="s">
         <v>485</v>
-      </c>
-      <c r="C20" s="175" t="s">
-        <v>448</v>
-      </c>
-      <c r="D20" s="175" t="s">
-        <v>449</v>
-      </c>
-      <c r="E20" s="175" t="s">
-        <v>479</v>
       </c>
       <c r="F20" s="166"/>
       <c r="G20" s="166"/>
@@ -20243,16 +20450,16 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="180" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="B21" s="176" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C21" s="176" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D21" s="180" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E21" s="176"/>
       <c r="F21" s="166"/>
@@ -20275,10 +20482,10 @@
       <c r="A22" s="176"/>
       <c r="B22" s="176"/>
       <c r="C22" s="176" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D22" s="180" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E22" s="176"/>
       <c r="F22" s="166"/>
@@ -20299,17 +20506,17 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="177" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B23" s="177"/>
       <c r="C23" s="177" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D23" s="177" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E23" s="177" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="F23" s="166"/>
       <c r="G23" s="166"/>
@@ -20329,17 +20536,17 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="177" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B24" s="177"/>
       <c r="C24" s="177" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D24" s="177" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E24" s="177" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F24" s="166"/>
       <c r="G24" s="166"/>
@@ -20359,14 +20566,14 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="177" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B25" s="177"/>
       <c r="C25" s="177" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D25" s="177" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E25" s="177" t="s">
         <v>385</v>
@@ -20799,8 +21006,8 @@
   <dimension ref="A2:X57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6:W6"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20826,20 +21033,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="E2" s="303" t="s">
+      <c r="E2" s="291" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
-      <c r="O2" s="303"/>
-      <c r="P2" s="303"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
       <c r="X2" s="137"/>
     </row>
     <row r="3" spans="1:24">
@@ -20850,36 +21057,36 @@
       <c r="C3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="307" t="s">
+      <c r="E3" s="297" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305" t="s">
+      <c r="F3" s="294"/>
+      <c r="G3" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305" t="s">
+      <c r="H3" s="294"/>
+      <c r="I3" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="305"/>
-      <c r="K3" s="308" t="s">
+      <c r="J3" s="294"/>
+      <c r="K3" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="309"/>
-      <c r="M3" s="310"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="300"/>
       <c r="N3" s="150"/>
-      <c r="O3" s="305" t="s">
+      <c r="O3" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="306"/>
-      <c r="R3" s="304" t="s">
+      <c r="P3" s="295"/>
+      <c r="R3" s="292" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="304"/>
-      <c r="T3" s="298"/>
-      <c r="U3" s="298"/>
-      <c r="V3" s="298"/>
-      <c r="W3" s="298"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="293"/>
+      <c r="U3" s="293"/>
+      <c r="V3" s="293"/>
+      <c r="W3" s="293"/>
       <c r="X3" s="137"/>
     </row>
     <row r="4" spans="1:24">
@@ -20928,14 +21135,14 @@
       <c r="P4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="299" t="s">
+      <c r="R4" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="299"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="298"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="298"/>
+      <c r="S4" s="296"/>
+      <c r="T4" s="293"/>
+      <c r="U4" s="293"/>
+      <c r="V4" s="293"/>
+      <c r="W4" s="293"/>
       <c r="X4" s="137"/>
     </row>
     <row r="5" spans="1:24">
@@ -20983,16 +21190,16 @@
         <v>38</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="R5" s="304" t="s">
+        <v>587</v>
+      </c>
+      <c r="R5" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="304"/>
-      <c r="T5" s="298"/>
-      <c r="U5" s="298"/>
-      <c r="V5" s="298"/>
-      <c r="W5" s="298"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="293"/>
+      <c r="U5" s="293"/>
+      <c r="V5" s="293"/>
+      <c r="W5" s="293"/>
       <c r="X5" s="137"/>
     </row>
     <row r="6" spans="1:24">
@@ -21014,7 +21221,7 @@
         <v>291</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>219</v>
@@ -21040,19 +21247,19 @@
         <v>38</v>
       </c>
       <c r="P6" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="R6" s="299" t="s">
+        <v>587</v>
+      </c>
+      <c r="R6" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="299"/>
-      <c r="T6" s="298" t="str">
+      <c r="S6" s="296"/>
+      <c r="T6" s="293" t="str">
         <f>S3048_FW</f>
         <v>fw: 9.11(0.0)</v>
       </c>
-      <c r="U6" s="298"/>
-      <c r="V6" s="298"/>
-      <c r="W6" s="298"/>
+      <c r="U6" s="293"/>
+      <c r="V6" s="293"/>
+      <c r="W6" s="293"/>
       <c r="X6" s="137"/>
     </row>
     <row r="7" spans="1:24">
@@ -21100,7 +21307,7 @@
         <v>38</v>
       </c>
       <c r="P7" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="X7" s="137"/>
     </row>
@@ -21149,18 +21356,18 @@
         <v>38</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="R8" s="296" t="s">
+        <v>587</v>
+      </c>
+      <c r="R8" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="S8" s="296"/>
-      <c r="T8" s="296"/>
-      <c r="U8" s="297" t="s">
+      <c r="S8" s="304"/>
+      <c r="T8" s="304"/>
+      <c r="U8" s="305" t="s">
         <v>287</v>
       </c>
-      <c r="V8" s="297"/>
-      <c r="W8" s="297"/>
+      <c r="V8" s="305"/>
+      <c r="W8" s="305"/>
       <c r="X8" s="137"/>
     </row>
     <row r="9" spans="1:24">
@@ -21182,7 +21389,7 @@
         <v>291</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>219</v>
@@ -21208,16 +21415,16 @@
         <v>38</v>
       </c>
       <c r="P9" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="R9" s="300" t="s">
+        <v>587</v>
+      </c>
+      <c r="R9" s="306" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="300"/>
-      <c r="T9" s="300"/>
-      <c r="U9" s="298"/>
-      <c r="V9" s="298"/>
-      <c r="W9" s="298"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="293"/>
       <c r="X9" s="137"/>
     </row>
     <row r="10" spans="1:24">
@@ -21265,18 +21472,18 @@
         <v>38</v>
       </c>
       <c r="P10" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="R10" s="301" t="s">
+        <v>587</v>
+      </c>
+      <c r="R10" s="307" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="301"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="298">
+      <c r="S10" s="307"/>
+      <c r="T10" s="307"/>
+      <c r="U10" s="293">
         <v>24576</v>
       </c>
-      <c r="V10" s="298"/>
-      <c r="W10" s="298"/>
+      <c r="V10" s="293"/>
+      <c r="W10" s="293"/>
       <c r="X10" s="137"/>
     </row>
     <row r="11" spans="1:24">
@@ -21324,7 +21531,7 @@
         <v>38</v>
       </c>
       <c r="P11" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="X11" s="137"/>
     </row>
@@ -21365,16 +21572,16 @@
       <c r="P12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="296" t="s">
+      <c r="R12" s="304" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="297" t="s">
+      <c r="S12" s="304"/>
+      <c r="T12" s="304"/>
+      <c r="U12" s="305" t="s">
         <v>288</v>
       </c>
-      <c r="V12" s="297"/>
-      <c r="W12" s="297"/>
+      <c r="V12" s="305"/>
+      <c r="W12" s="305"/>
       <c r="X12" s="137"/>
     </row>
     <row r="13" spans="1:24">
@@ -21416,10 +21623,10 @@
       <c r="X13" s="137"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="307" t="s">
+      <c r="A14" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="306"/>
+      <c r="B14" s="295"/>
       <c r="C14" s="34"/>
       <c r="E14" s="36" t="s">
         <v>326</v>
@@ -21446,14 +21653,14 @@
       <c r="P14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="311" t="s">
+      <c r="R14" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="S14" s="312"/>
-      <c r="T14" s="312"/>
-      <c r="U14" s="312"/>
-      <c r="V14" s="312"/>
-      <c r="W14" s="313"/>
+      <c r="S14" s="302"/>
+      <c r="T14" s="302"/>
+      <c r="U14" s="302"/>
+      <c r="V14" s="302"/>
+      <c r="W14" s="303"/>
       <c r="X14" s="137"/>
     </row>
     <row r="15" spans="1:24">
@@ -21491,12 +21698,12 @@
       <c r="P15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="290"/>
-      <c r="S15" s="291"/>
-      <c r="T15" s="291"/>
-      <c r="U15" s="291"/>
-      <c r="V15" s="291"/>
-      <c r="W15" s="292"/>
+      <c r="R15" s="308"/>
+      <c r="S15" s="309"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="309"/>
+      <c r="V15" s="309"/>
+      <c r="W15" s="310"/>
       <c r="X15" s="137"/>
     </row>
     <row r="16" spans="1:24">
@@ -21514,7 +21721,7 @@
         <v>291</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>219</v>
@@ -21540,14 +21747,14 @@
         <v>38</v>
       </c>
       <c r="P16" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="R16" s="293"/>
-      <c r="S16" s="294"/>
-      <c r="T16" s="294"/>
-      <c r="U16" s="294"/>
-      <c r="V16" s="294"/>
-      <c r="W16" s="295"/>
+        <v>587</v>
+      </c>
+      <c r="R16" s="311"/>
+      <c r="S16" s="312"/>
+      <c r="T16" s="312"/>
+      <c r="U16" s="312"/>
+      <c r="V16" s="312"/>
+      <c r="W16" s="313"/>
       <c r="X16" s="137"/>
     </row>
     <row r="17" spans="1:24">
@@ -21594,14 +21801,14 @@
         <v>38</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="R17" s="290"/>
-      <c r="S17" s="291"/>
-      <c r="T17" s="291"/>
-      <c r="U17" s="291"/>
-      <c r="V17" s="291"/>
-      <c r="W17" s="292"/>
+        <v>587</v>
+      </c>
+      <c r="R17" s="308"/>
+      <c r="S17" s="309"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="309"/>
+      <c r="V17" s="309"/>
+      <c r="W17" s="310"/>
       <c r="X17" s="137"/>
     </row>
     <row r="18" spans="1:24">
@@ -21648,14 +21855,14 @@
         <v>38</v>
       </c>
       <c r="P18" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="R18" s="293"/>
-      <c r="S18" s="294"/>
-      <c r="T18" s="294"/>
-      <c r="U18" s="294"/>
-      <c r="V18" s="294"/>
-      <c r="W18" s="295"/>
+        <v>587</v>
+      </c>
+      <c r="R18" s="311"/>
+      <c r="S18" s="312"/>
+      <c r="T18" s="312"/>
+      <c r="U18" s="312"/>
+      <c r="V18" s="312"/>
+      <c r="W18" s="313"/>
       <c r="X18" s="137"/>
     </row>
     <row r="19" spans="1:24">
@@ -21745,10 +21952,10 @@
         <v>291</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I21" s="127">
         <f t="shared" ref="I21:I36" si="1">+Provisioner</f>
@@ -21771,7 +21978,7 @@
         <v>38</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -21793,7 +22000,7 @@
         <v>224</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I22" s="127">
         <f t="shared" si="1"/>
@@ -21816,7 +22023,7 @@
         <v>38</v>
       </c>
       <c r="P22" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -21838,7 +22045,7 @@
         <v>225</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I23" s="127">
         <f t="shared" si="1"/>
@@ -21861,7 +22068,7 @@
         <v>38</v>
       </c>
       <c r="P23" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -21872,10 +22079,10 @@
         <v>291</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I24" s="127">
         <f t="shared" si="1"/>
@@ -21898,7 +22105,7 @@
         <v>38</v>
       </c>
       <c r="P24" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -21917,7 +22124,7 @@
         <v>214</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I25" s="127">
         <f t="shared" si="1"/>
@@ -21940,7 +22147,7 @@
         <v>38</v>
       </c>
       <c r="P25" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -21963,7 +22170,7 @@
         <v>215</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I26" s="127">
         <f t="shared" si="1"/>
@@ -21986,7 +22193,7 @@
         <v>38</v>
       </c>
       <c r="P26" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -22101,11 +22308,11 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="302" t="s">
+      <c r="A31" s="290" t="s">
         <v>397</v>
       </c>
-      <c r="B31" s="302"/>
-      <c r="C31" s="302"/>
+      <c r="B31" s="290"/>
+      <c r="C31" s="290"/>
       <c r="E31" s="36" t="s">
         <v>343</v>
       </c>
@@ -22131,9 +22338,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="302"/>
-      <c r="B32" s="302"/>
-      <c r="C32" s="302"/>
+      <c r="A32" s="290"/>
+      <c r="B32" s="290"/>
+      <c r="C32" s="290"/>
       <c r="E32" s="36" t="s">
         <v>344</v>
       </c>
@@ -22144,7 +22351,7 @@
         <v>216</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I32" s="127">
         <f t="shared" si="1"/>
@@ -22167,13 +22374,13 @@
         <v>38</v>
       </c>
       <c r="P32" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="14.45" customHeight="1">
-      <c r="A33" s="302"/>
-      <c r="B33" s="302"/>
-      <c r="C33" s="302"/>
+      <c r="A33" s="290"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
       <c r="E33" s="36" t="s">
         <v>345</v>
       </c>
@@ -22184,7 +22391,7 @@
         <v>217</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I33" s="127">
         <f t="shared" si="1"/>
@@ -22207,7 +22414,7 @@
         <v>38</v>
       </c>
       <c r="P33" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -22221,7 +22428,7 @@
         <v>218</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I34" s="127">
         <f t="shared" si="1"/>
@@ -22244,7 +22451,7 @@
         <v>38</v>
       </c>
       <c r="P34" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -22474,7 +22681,7 @@
         <v>38</v>
       </c>
       <c r="P44" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -22510,7 +22717,7 @@
         <v>38</v>
       </c>
       <c r="P45" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -22646,10 +22853,10 @@
         <v>291</v>
       </c>
       <c r="G52" s="155" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="H52" s="155" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="I52" s="155">
         <f>ExtAPI</f>
@@ -22672,7 +22879,7 @@
         <v>38</v>
       </c>
       <c r="P52" s="61" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="5:16">
@@ -22811,7 +23018,7 @@
         <v>385</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="J57" s="48"/>
       <c r="K57" s="61" t="s">
@@ -22831,6 +23038,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A31:C33"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="R5:S5"/>
@@ -22847,21 +23069,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="R14:W14"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="F37:F43 F46:F48">
     <cfRule type="expression" dxfId="90" priority="6" stopIfTrue="1">
@@ -22959,49 +23166,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="E1" s="303" t="s">
+      <c r="E1" s="291" t="s">
         <v>402</v>
       </c>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
-      <c r="P1" s="303"/>
-      <c r="Q1" s="303"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
+      <c r="Q1" s="291"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="E2" s="307" t="s">
+      <c r="E2" s="297" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305" t="s">
+      <c r="F2" s="294"/>
+      <c r="G2" s="294" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305" t="s">
+      <c r="H2" s="294"/>
+      <c r="I2" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="305"/>
+      <c r="J2" s="294"/>
       <c r="K2" s="151"/>
-      <c r="L2" s="308" t="s">
+      <c r="L2" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="310"/>
-      <c r="P2" s="305" t="s">
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="306"/>
+      <c r="Q2" s="295"/>
       <c r="Z2" s="137"/>
     </row>
     <row r="3" spans="1:26">
@@ -23051,14 +23258,14 @@
       <c r="Q3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="304" t="s">
+      <c r="T3" s="292" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="304"/>
-      <c r="V3" s="298"/>
-      <c r="W3" s="298"/>
-      <c r="X3" s="298"/>
-      <c r="Y3" s="298"/>
+      <c r="U3" s="292"/>
+      <c r="V3" s="293"/>
+      <c r="W3" s="293"/>
+      <c r="X3" s="293"/>
+      <c r="Y3" s="293"/>
       <c r="Z3" s="139"/>
     </row>
     <row r="4" spans="1:26">
@@ -23081,7 +23288,7 @@
         <v>223</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>38</v>
@@ -23111,14 +23318,14 @@
       <c r="Q4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="299" t="s">
+      <c r="T4" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="299"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="298"/>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="298"/>
+      <c r="U4" s="296"/>
+      <c r="V4" s="293"/>
+      <c r="W4" s="293"/>
+      <c r="X4" s="293"/>
+      <c r="Y4" s="293"/>
       <c r="Z4" s="139"/>
     </row>
     <row r="5" spans="1:26">
@@ -23140,10 +23347,10 @@
         <v>289</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>38</v>
@@ -23173,14 +23380,14 @@
       <c r="Q5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="304" t="s">
+      <c r="T5" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="304"/>
-      <c r="V5" s="298"/>
-      <c r="W5" s="298"/>
-      <c r="X5" s="298"/>
-      <c r="Y5" s="298"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="293"/>
+      <c r="W5" s="293"/>
+      <c r="X5" s="293"/>
+      <c r="Y5" s="293"/>
       <c r="Z5" s="139"/>
     </row>
     <row r="6" spans="1:26">
@@ -23205,7 +23412,7 @@
         <v>224</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I6" s="127" t="s">
         <v>38</v>
@@ -23235,17 +23442,17 @@
       <c r="Q6" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="299" t="s">
+      <c r="T6" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="299"/>
-      <c r="V6" s="298" t="str">
+      <c r="U6" s="296"/>
+      <c r="V6" s="293" t="str">
         <f>S4048_1_FW</f>
         <v>fw: 9.11(0.0P2)</v>
       </c>
-      <c r="W6" s="298"/>
-      <c r="X6" s="298"/>
-      <c r="Y6" s="298"/>
+      <c r="W6" s="293"/>
+      <c r="X6" s="293"/>
+      <c r="Y6" s="293"/>
       <c r="Z6" s="139"/>
     </row>
     <row r="7" spans="1:26">
@@ -23270,7 +23477,7 @@
         <v>225</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I7" s="127" t="s">
         <v>38</v>
@@ -23321,10 +23528,10 @@
         <v>292</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I8" s="127" t="s">
         <v>38</v>
@@ -23354,16 +23561,16 @@
       <c r="Q8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="296" t="s">
+      <c r="T8" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="U8" s="296"/>
-      <c r="V8" s="296"/>
-      <c r="W8" s="297" t="s">
+      <c r="U8" s="304"/>
+      <c r="V8" s="304"/>
+      <c r="W8" s="305" t="s">
         <v>287</v>
       </c>
-      <c r="X8" s="297"/>
-      <c r="Y8" s="297"/>
+      <c r="X8" s="305"/>
+      <c r="Y8" s="305"/>
       <c r="Z8" s="139"/>
     </row>
     <row r="9" spans="1:26">
@@ -23388,7 +23595,7 @@
         <v>214</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I9" s="127" t="s">
         <v>38</v>
@@ -23418,14 +23625,14 @@
       <c r="Q9" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="300" t="s">
+      <c r="T9" s="306" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="300"/>
-      <c r="V9" s="300"/>
-      <c r="W9" s="298"/>
-      <c r="X9" s="298"/>
-      <c r="Y9" s="298"/>
+      <c r="U9" s="306"/>
+      <c r="V9" s="306"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="293"/>
+      <c r="Y9" s="293"/>
       <c r="Z9" s="139"/>
     </row>
     <row r="10" spans="1:26">
@@ -23450,7 +23657,7 @@
         <v>215</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I10" s="127" t="s">
         <v>38</v>
@@ -23480,16 +23687,16 @@
       <c r="Q10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="301" t="s">
+      <c r="T10" s="307" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="301"/>
-      <c r="V10" s="301"/>
-      <c r="W10" s="298">
+      <c r="U10" s="307"/>
+      <c r="V10" s="307"/>
+      <c r="W10" s="293">
         <v>16384</v>
       </c>
-      <c r="X10" s="298"/>
-      <c r="Y10" s="298"/>
+      <c r="X10" s="293"/>
+      <c r="Y10" s="293"/>
       <c r="Z10" s="139"/>
     </row>
     <row r="11" spans="1:26">
@@ -23560,14 +23767,14 @@
       <c r="O12" s="130"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="61"/>
-      <c r="T12" s="315" t="s">
+      <c r="T12" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="316"/>
-      <c r="V12" s="317"/>
-      <c r="W12" s="318"/>
-      <c r="X12" s="319"/>
-      <c r="Y12" s="320"/>
+      <c r="U12" s="321"/>
+      <c r="V12" s="322"/>
+      <c r="W12" s="323"/>
+      <c r="X12" s="324"/>
+      <c r="Y12" s="325"/>
       <c r="Z12" s="139"/>
     </row>
     <row r="13" spans="1:26">
@@ -23602,16 +23809,16 @@
       <c r="O13" s="130"/>
       <c r="P13" s="48"/>
       <c r="Q13" s="61"/>
-      <c r="T13" s="321" t="s">
+      <c r="T13" s="317" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="322"/>
-      <c r="V13" s="323"/>
-      <c r="W13" s="324">
+      <c r="U13" s="318"/>
+      <c r="V13" s="319"/>
+      <c r="W13" s="314">
         <v>1</v>
       </c>
-      <c r="X13" s="325"/>
-      <c r="Y13" s="326"/>
+      <c r="X13" s="315"/>
+      <c r="Y13" s="316"/>
       <c r="Z13" s="139"/>
     </row>
     <row r="14" spans="1:26">
@@ -23639,23 +23846,23 @@
       <c r="O14" s="130"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="61"/>
-      <c r="T14" s="321" t="s">
+      <c r="T14" s="317" t="s">
         <v>166</v>
       </c>
-      <c r="U14" s="322"/>
-      <c r="V14" s="323"/>
-      <c r="W14" s="318">
+      <c r="U14" s="318"/>
+      <c r="V14" s="319"/>
+      <c r="W14" s="323">
         <v>1</v>
       </c>
-      <c r="X14" s="319"/>
-      <c r="Y14" s="320"/>
+      <c r="X14" s="324"/>
+      <c r="Y14" s="325"/>
       <c r="Z14" s="139"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="307" t="s">
+      <c r="A15" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="306"/>
+      <c r="B15" s="295"/>
       <c r="C15" s="36"/>
       <c r="E15" s="36" t="s">
         <v>239</v>
@@ -23664,10 +23871,10 @@
         <v>292</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I15" s="127" t="s">
         <v>38</v>
@@ -23697,16 +23904,16 @@
       <c r="Q15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T15" s="315" t="s">
+      <c r="T15" s="320" t="s">
         <v>67</v>
       </c>
-      <c r="U15" s="316"/>
-      <c r="V15" s="317"/>
-      <c r="W15" s="318">
+      <c r="U15" s="321"/>
+      <c r="V15" s="322"/>
+      <c r="W15" s="323">
         <v>0</v>
       </c>
-      <c r="X15" s="319"/>
-      <c r="Y15" s="320"/>
+      <c r="X15" s="324"/>
+      <c r="Y15" s="325"/>
       <c r="Z15" s="139"/>
     </row>
     <row r="16" spans="1:26">
@@ -23727,7 +23934,7 @@
         <v>216</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I16" s="127" t="s">
         <v>38</v>
@@ -23777,7 +23984,7 @@
         <v>217</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I17" s="127" t="s">
         <v>38</v>
@@ -23807,14 +24014,14 @@
       <c r="Q17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="311" t="s">
+      <c r="T17" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="312"/>
-      <c r="V17" s="312"/>
-      <c r="W17" s="312"/>
-      <c r="X17" s="312"/>
-      <c r="Y17" s="313"/>
+      <c r="U17" s="302"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="302"/>
+      <c r="Y17" s="303"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="39">
@@ -23847,12 +24054,12 @@
       <c r="Q18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="290"/>
-      <c r="U18" s="291"/>
-      <c r="V18" s="291"/>
-      <c r="W18" s="291"/>
-      <c r="X18" s="291"/>
-      <c r="Y18" s="292"/>
+      <c r="T18" s="308"/>
+      <c r="U18" s="309"/>
+      <c r="V18" s="309"/>
+      <c r="W18" s="309"/>
+      <c r="X18" s="309"/>
+      <c r="Y18" s="310"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="39">
@@ -23885,12 +24092,12 @@
       <c r="Q19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="293"/>
-      <c r="U19" s="294"/>
-      <c r="V19" s="294"/>
-      <c r="W19" s="294"/>
-      <c r="X19" s="294"/>
-      <c r="Y19" s="295"/>
+      <c r="T19" s="311"/>
+      <c r="U19" s="312"/>
+      <c r="V19" s="312"/>
+      <c r="W19" s="312"/>
+      <c r="X19" s="312"/>
+      <c r="Y19" s="313"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="39">
@@ -23919,12 +24126,12 @@
       <c r="Q20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="290"/>
-      <c r="U20" s="291"/>
-      <c r="V20" s="291"/>
-      <c r="W20" s="291"/>
-      <c r="X20" s="291"/>
-      <c r="Y20" s="292"/>
+      <c r="T20" s="308"/>
+      <c r="U20" s="309"/>
+      <c r="V20" s="309"/>
+      <c r="W20" s="309"/>
+      <c r="X20" s="309"/>
+      <c r="Y20" s="310"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="39">
@@ -23953,12 +24160,12 @@
       <c r="Q21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="293"/>
-      <c r="U21" s="294"/>
-      <c r="V21" s="294"/>
-      <c r="W21" s="294"/>
-      <c r="X21" s="294"/>
-      <c r="Y21" s="295"/>
+      <c r="T21" s="311"/>
+      <c r="U21" s="312"/>
+      <c r="V21" s="312"/>
+      <c r="W21" s="312"/>
+      <c r="X21" s="312"/>
+      <c r="Y21" s="313"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="39">
@@ -24071,10 +24278,10 @@
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="314" t="s">
+      <c r="A26" s="326" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="314"/>
+      <c r="B26" s="326"/>
       <c r="C26" s="36"/>
       <c r="E26" s="36" t="s">
         <v>250</v>
@@ -24099,8 +24306,8 @@
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="314"/>
-      <c r="B27" s="314"/>
+      <c r="A27" s="326"/>
+      <c r="B27" s="326"/>
       <c r="C27" s="36"/>
       <c r="E27" s="36" t="s">
         <v>251</v>
@@ -24140,7 +24347,7 @@
         <v>223</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I28" s="38" t="s">
         <v>38</v>
@@ -24186,10 +24393,10 @@
         <v>289</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I29" s="38" t="s">
         <v>38</v>
@@ -24235,7 +24442,7 @@
         <v>224</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I30" s="127" t="s">
         <v>38</v>
@@ -24278,7 +24485,7 @@
         <v>225</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I31" s="127" t="s">
         <v>38</v>
@@ -24318,10 +24525,10 @@
         <v>292</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I32" s="127" t="s">
         <v>38</v>
@@ -24353,9 +24560,9 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="302"/>
-      <c r="B33" s="302"/>
-      <c r="C33" s="302"/>
+      <c r="A33" s="290"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
       <c r="E33" s="36" t="s">
         <v>257</v>
       </c>
@@ -24366,7 +24573,7 @@
         <v>214</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I33" s="127" t="s">
         <v>38</v>
@@ -24398,9 +24605,9 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="302"/>
-      <c r="B34" s="302"/>
-      <c r="C34" s="302"/>
+      <c r="A34" s="290"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="290"/>
       <c r="E34" s="36" t="s">
         <v>258</v>
       </c>
@@ -24411,7 +24618,7 @@
         <v>215</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I34" s="127" t="s">
         <v>38</v>
@@ -24443,9 +24650,9 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="302"/>
-      <c r="B35" s="302"/>
-      <c r="C35" s="302"/>
+      <c r="A35" s="290"/>
+      <c r="B35" s="290"/>
+      <c r="C35" s="290"/>
       <c r="E35" s="36" t="s">
         <v>259</v>
       </c>
@@ -24549,10 +24756,10 @@
         <v>292</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I39" s="127" t="s">
         <v>38</v>
@@ -24594,7 +24801,7 @@
         <v>216</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I40" s="127" t="s">
         <v>38</v>
@@ -24636,7 +24843,7 @@
         <v>217</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="I41" s="127" t="s">
         <v>38</v>
@@ -24723,7 +24930,7 @@
         <v>292</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>391</v>
@@ -24764,7 +24971,7 @@
         <v>292</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>393</v>
@@ -25167,6 +25374,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V6:Y6"/>
     <mergeCell ref="A33:C35"/>
     <mergeCell ref="T20:Y20"/>
     <mergeCell ref="T21:Y21"/>
@@ -25183,28 +25412,6 @@
     <mergeCell ref="W12:Y12"/>
     <mergeCell ref="W10:Y10"/>
     <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="F52:F53">
     <cfRule type="expression" dxfId="53" priority="2" stopIfTrue="1">
@@ -25352,18 +25559,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25383,6 +25590,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42535616-3E13-4575-9B51-ECA7D821FF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -25395,12 +25610,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7243C670-E16E-4DBD-9932-9E3C368D5054}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>